--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.0516112843401877</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.0516112843401877</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.08257805494430032</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08284855456715912</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01625755456715911</v>
+        <v>0.02561330622407687</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01009028658461723</v>
+        <v>0.0158969541890738</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.001004987515643471</v>
+        <v>0.001959322090412413</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007626837040854633</v>
+        <v>0.0007988902553208694</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001522189039698085</v>
+        <v>0.005719407640613017</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007774607233772138</v>
+        <v>0.0007917603548848924</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004037084387538137</v>
+        <v>0.006254174787378386</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007336151719994442</v>
+        <v>0.0007897330073145291</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006521436608179665</v>
+        <v>0.001959322090412413</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007395807989439865</v>
+        <v>0.0007988902553208694</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003900300946923077</v>
+        <v>0.004451352593817084</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001525367408170927</v>
+        <v>0.001597780510641739</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003902746611000291</v>
+        <v>0.01197627554416519</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001554921446754428</v>
+        <v>0.001583520709769785</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008759386555607485</v>
+        <v>0.01740899999999995</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001467230343998888</v>
+        <v>0.001927809533081366</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01445334832728246</v>
+        <v>0.004451352593817084</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001479161597887973</v>
+        <v>0.001597780510641739</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003652679422003265</v>
+        <v>0.006059259776962103</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00228805111225639</v>
+        <v>0.002396670765962608</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00571085933128114</v>
+        <v>0.0167301972876242</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002332382170131641</v>
+        <v>0.002375281064654677</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0131855163901318</v>
+        <v>0.01998850045085981</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002200845515998332</v>
+        <v>0.002369199021943587</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02126289197845777</v>
+        <v>0.006059259776962103</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002218742396831959</v>
+        <v>0.002396670765962608</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007741692651028149</v>
+        <v>0.008166211906595541</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003363428861539079</v>
+        <v>0.003195561021283478</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00771571381791511</v>
+        <v>0.02174076644795755</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003109842893508855</v>
+        <v>0.00316704141953957</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01740899999999998</v>
+        <v>0.02553522451783224</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002993386350724147</v>
+        <v>0.003158932029258116</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02641722438285538</v>
+        <v>0.008166211906595541</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002958323195775946</v>
+        <v>0.003195561021283478</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003363428861539079</v>
+        <v>0.007128997065217389</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007741692651028149</v>
+        <v>0.01640899999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008481204411546428</v>
+        <v>0.009955377249465422</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003813418520427317</v>
+        <v>0.003994451276604347</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009286496688276746</v>
+        <v>0.02686757660213299</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003887303616886069</v>
+        <v>0.003958801774424462</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01963602127850844</v>
+        <v>0.03102173736098596</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00366807585999722</v>
+        <v>0.003948665036572645</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0338835023616248</v>
+        <v>0.009955377249465422</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003697903994719933</v>
+        <v>0.003994451276604347</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007649536232424411</v>
+        <v>0.01180992407231987</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00457610222451278</v>
+        <v>0.004793341531925216</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01140899999999999</v>
+        <v>0.03097022132711805</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004956714456521735</v>
+        <v>0.004750562129309355</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02252579031862614</v>
+        <v>0.03654213209442486</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004401691031996665</v>
+        <v>0.004738398043887174</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03840899999999997</v>
+        <v>0.01180992407231987</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004341883246991491</v>
+        <v>0.004793341531925216</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008724141959743838</v>
+        <v>0.01371302064190692</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005338785928598244</v>
+        <v>0.005592231787246086</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01171939743075519</v>
+        <v>0.03510829419988035</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005442225063640497</v>
+        <v>0.005542322484194247</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02603136760021207</v>
+        <v>0.04149050183225317</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005135306203996109</v>
+        <v>0.005528131051201704</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04251827024583205</v>
+        <v>0.01371302064190692</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005177065592607905</v>
+        <v>0.005592231787246086</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0107203894823809</v>
+        <v>0.01504783522497465</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006101469632683707</v>
+        <v>0.006391122042566955</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01292147653793495</v>
+        <v>0.03884138879738755</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006219685787017711</v>
+        <v>0.006334082839079139</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02877933389137977</v>
+        <v>0.04776093968857476</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005868921375995553</v>
+        <v>0.006317864058516233</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04633000156698525</v>
+        <v>0.01504783522497465</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005916646391551892</v>
+        <v>0.006391122042566955</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01065364668921175</v>
+        <v>0.01640899999999999</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006864153336769171</v>
+        <v>0.007128997065217389</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01402160222172359</v>
+        <v>0.04202909869660715</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006997146510394924</v>
+        <v>0.007125843193964032</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03179626996024262</v>
+        <v>0.05104753877749385</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006602536547994997</v>
+        <v>0.007107597065830761</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05092762996414069</v>
+        <v>0.01640899999999999</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006656227190495878</v>
+        <v>0.007128997065217389</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01053928146911261</v>
+        <v>0.01720313487877992</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007626837040854634</v>
+        <v>0.007988902553208693</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01533781706404452</v>
+        <v>0.04440899999999998</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007774607233772138</v>
+        <v>0.007869646792698229</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03380875657491411</v>
+        <v>0.05644439221311454</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007336151719994441</v>
+        <v>0.007897330073145289</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05487134491649326</v>
+        <v>0.01720313487877992</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007395807989439865</v>
+        <v>0.007988902553208693</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01439266171095965</v>
+        <v>0.01851185313811135</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008389520744940098</v>
+        <v>0.008787792808529562</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01618816364682119</v>
+        <v>0.04617313061321149</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008552067957149351</v>
+        <v>0.008709363903733816</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03654337450350764</v>
+        <v>0.06154559310954072</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008069766891993886</v>
+        <v>0.008687063080459819</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05842133590323767</v>
+        <v>0.01851185313811135</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008135388788383852</v>
+        <v>0.008787792808529562</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01222915530362902</v>
+        <v>0.0195382046529594</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00915220444902556</v>
+        <v>0.009586683063850432</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01739068455197701</v>
+        <v>0.04732599638017643</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009329528680526566</v>
+        <v>0.009501124258618709</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03912670451413666</v>
+        <v>0.06514523458087673</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00880338206399333</v>
+        <v>0.009476796087774348</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06063779240356865</v>
+        <v>0.0195382046529594</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008874969587327837</v>
+        <v>0.009586683063850432</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01625755456715911</v>
+        <v>0.02039644220499003</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01009028658461723</v>
+        <v>0.0103855733191713</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01816342236143544</v>
+        <v>0.04866561336818861</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01010698940390378</v>
+        <v>0.0102928846135036</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04068532737491468</v>
+        <v>0.0686374097412264</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009536997235992774</v>
+        <v>0.01026652909508888</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06398090389668104</v>
+        <v>0.02039644220499003</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009614550386271825</v>
+        <v>0.0103855733191713</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01591970774540285</v>
+        <v>0.02090081857586921</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01067757185719649</v>
+        <v>0.01118446357449217</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01882441965711992</v>
+        <v>0.04976750834991572</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01088445012728099</v>
+        <v>0.01108464496838849</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04364582385395502</v>
+        <v>0.07381621170469382</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01027061240799222</v>
+        <v>0.01105626210240341</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06841085986176965</v>
+        <v>0.02090081857586921</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01035413118521581</v>
+        <v>0.01118446357449217</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01581431003625774</v>
+        <v>0.02176558654726288</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01144025556128195</v>
+        <v>0.01198335382981304</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01999171902095388</v>
+        <v>0.0511072080980256</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01166191085065821</v>
+        <v>0.01187640532327339</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04563477471937127</v>
+        <v>0.0768757335853833</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01100422757999166</v>
+        <v>0.01184599510971794</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0708878497780292</v>
+        <v>0.02176558654726288</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0110937119841598</v>
+        <v>0.01198335382981304</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01774042587485996</v>
+        <v>0.02230499890083704</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01220293926536741</v>
+        <v>0.01278224408513391</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02048336303486073</v>
+        <v>0.0527602393851859</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01243937157403542</v>
+        <v>0.01266816567815828</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04837876073927677</v>
+        <v>0.0797100684973987</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01173784275199111</v>
+        <v>0.01263572811703247</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07487206312465444</v>
+        <v>0.02230499890083704</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01183329278310378</v>
+        <v>0.01278224408513391</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01668973289396917</v>
+        <v>0.0232333084182576</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01296562296945288</v>
+        <v>0.01358113434045478</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02161739428076395</v>
+        <v>0.05463741568253536</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01321683229741264</v>
+        <v>0.01383172532875848</v>
       </c>
       <c r="L82" t="n">
-        <v>0.051104362681785</v>
+        <v>0.08366152514099384</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01247145792399055</v>
+        <v>0.01323481989766662</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07762368938084035</v>
+        <v>0.0232333084182576</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01257287358204777</v>
+        <v>0.01358113434045478</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01965390872634506</v>
+        <v>0.02406476788119057</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01372830667353834</v>
+        <v>0.01438002459577565</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02261185534058692</v>
+        <v>0.05459024476601909</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01399429302078985</v>
+        <v>0.01425168638792806</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05463741568253536</v>
+        <v>0.085972718859959</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01342088200216169</v>
+        <v>0.01421519413166152</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08366152514099384</v>
+        <v>0.02406476788119057</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01351054531220134</v>
+        <v>0.01438002459577565</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02062463100474727</v>
+        <v>0.02491363007130189</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01449099037762381</v>
+        <v>0.01517891485109652</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02338478879625314</v>
+        <v>0.05587137021254462</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01477175374416706</v>
+        <v>0.01504344674281296</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05595549885247472</v>
+        <v>0.08943330464481231</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01393868826798944</v>
+        <v>0.01500492713897605</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08674460980857729</v>
+        <v>0.02491363007130189</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01405203517993574</v>
+        <v>0.01517891485109652</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01959357736193548</v>
+        <v>0.02561330622407687</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01525367408170927</v>
+        <v>0.0158969541890738</v>
       </c>
       <c r="J85" t="n">
+        <v>0.05772772325304321</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01583520709769785</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.09339728573527389</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01579466014629058</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.02561330622407687</v>
       </c>
-      <c r="K85" t="n">
+      <c r="O85" t="n">
         <v>0.0158969541890738</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.05878030595971992</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01467230343998888</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.09032378636766575</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.01479161597887973</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02355242543066936</v>
+        <v>0.02601211942985709</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01601635778579473</v>
+        <v>0.01677669536173826</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02617558145841498</v>
+        <v>0.0600527374912479</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01632667519092149</v>
+        <v>0.01662696745258274</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06266396313248387</v>
+        <v>0.09615958456594675</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01540591861198833</v>
+        <v>0.01658439315360511</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09595434325635416</v>
+        <v>0.02601211942985709</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01553119677782372</v>
+        <v>0.01677669536173826</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02149285284370856</v>
+        <v>0.02716332165881061</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0167790414898802</v>
+        <v>0.01757558561705912</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02771458736169877</v>
+        <v>0.06173984653089185</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0171041359142987</v>
+        <v>0.01741872780746763</v>
       </c>
       <c r="L87" t="n">
-        <v>0.066648156497401</v>
+        <v>0.1002151235714339</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01613953378398777</v>
+        <v>0.01737412616091964</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1010382916153429</v>
+        <v>0.02716332165881061</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0162707775767677</v>
+        <v>0.01757558561705912</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02240653723381277</v>
+        <v>0.02814422001549693</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01754172519396566</v>
+        <v>0.01837447587237999</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02992972967485849</v>
+        <v>0.06278248397570824</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01788159663767592</v>
+        <v>0.01821048816235252</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06967457218110554</v>
+        <v>0.1019588251863385</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01687314895598721</v>
+        <v>0.01816385916823417</v>
       </c>
       <c r="N88" t="n">
-        <v>0.107477642585332</v>
+        <v>0.02814422001549693</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01701035837571169</v>
+        <v>0.01837447587237999</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02428515623374165</v>
+        <v>0.02885132117167437</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01830440889805112</v>
+        <v>0.01917336612770086</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03155213452202356</v>
+        <v>0.06487408342943013</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01865905736105313</v>
+        <v>0.01900224851723742</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07398489631023183</v>
+        <v>0.1048856118452634</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01760676412798666</v>
+        <v>0.0189535921755487</v>
       </c>
       <c r="N89" t="n">
-        <v>0.112074407307022</v>
+        <v>0.02885132117167437</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01774993917465567</v>
+        <v>0.01917336612770086</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02512038747625486</v>
+        <v>0.02978113179910129</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01906709260213658</v>
+        <v>0.01997225638302174</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03381292802732326</v>
+        <v>0.06630807849579068</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01943651808443034</v>
+        <v>0.01979400887212231</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07802081501141425</v>
+        <v>0.1093904059828119</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0183403792999861</v>
+        <v>0.01974332518286323</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1180305969211127</v>
+        <v>0.02978113179910129</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01848951997359966</v>
+        <v>0.01997225638302174</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02490390859411209</v>
+        <v>0.03053015856953596</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01982977630622205</v>
+        <v>0.02077114663834261</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03654323631488696</v>
+        <v>0.06857790277852299</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02021397880780756</v>
+        <v>0.0205857692270072</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08162401441128708</v>
+        <v>0.1124681300335869</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01907399447198555</v>
+        <v>0.02053305819017776</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1250482225683045</v>
+        <v>0.03053015856953596</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01922910077254365</v>
+        <v>0.02077114663834261</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02562739722007299</v>
+        <v>0.03199490815473675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02059246001030751</v>
+        <v>0.02157003689366347</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03877418550884397</v>
+        <v>0.06997698988136025</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02099143953118477</v>
+        <v>0.02137752958189209</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08503618063648474</v>
+        <v>0.1151137064321914</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01980760964398499</v>
+        <v>0.02132279119749228</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1312292953892976</v>
+        <v>0.03199490815473675</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01996868157148763</v>
+        <v>0.02157003689366347</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02828253098689721</v>
+        <v>0.03297188722646201</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02135514371439298</v>
+        <v>0.02236892714898434</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04083690173332367</v>
+        <v>0.07279877340803556</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02176890025456199</v>
+        <v>0.02216928993677699</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08899899981364148</v>
+        <v>0.1185220576132286</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02054122481598444</v>
+        <v>0.02211252420480682</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1355758265247921</v>
+        <v>0.03297188722646201</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02070826237043162</v>
+        <v>0.02236892714898434</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02886098752734446</v>
+        <v>0.03355760245647003</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02211782741847844</v>
+        <v>0.02316781740430521</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04296251111245535</v>
+        <v>0.073736686962282</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0225463609779392</v>
+        <v>0.02296105029166188</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09255415806939168</v>
+        <v>0.1202881060113014</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02127483998798388</v>
+        <v>0.02290225721212134</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1408898271154884</v>
+        <v>0.03355760245647003</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0214478431693756</v>
+        <v>0.02316781740430521</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03035444447417438</v>
+        <v>0.03474856051651917</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0228805111225639</v>
+        <v>0.02396670765962608</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0449821397703684</v>
+        <v>0.07568416414783274</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02332382170131641</v>
+        <v>0.02375281064654677</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09484334153036963</v>
+        <v>0.124306774061013</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02200845515998332</v>
+        <v>0.02369199021943587</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1460733083020864</v>
+        <v>0.03474856051651917</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02218742396831959</v>
+        <v>0.02396670765962608</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02975457946014664</v>
+        <v>0.03544126807836774</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02364319482664937</v>
+        <v>0.02476559791494695</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0469269138311921</v>
+        <v>0.07773463856842094</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02410128242469363</v>
+        <v>0.02454457100143166</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09790823632320975</v>
+        <v>0.1269729841969664</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02274207033198277</v>
+        <v>0.0244817232267504</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1503282812252865</v>
+        <v>0.03544126807836774</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02292700476726358</v>
+        <v>0.02476559791494695</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03005307011802092</v>
+        <v>0.03683223181377407</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02440587853073483</v>
+        <v>0.02556448817026782</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04792795941905585</v>
+        <v>0.07988154382777965</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02487874314807084</v>
+        <v>0.02533633135631656</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1006905285745463</v>
+        <v>0.1300816588537646</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02347568550398221</v>
+        <v>0.02527145623406493</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1539567570257889</v>
+        <v>0.03683223181377407</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02366658556620757</v>
+        <v>0.02556448817026782</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02924159408055684</v>
+        <v>0.03791795839449652</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02516856223482029</v>
+        <v>0.02636337842558869</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04891640265808891</v>
+        <v>0.08211831352964208</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02565620387144806</v>
+        <v>0.02612809171120145</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1019319044110135</v>
+        <v>0.1314277204660106</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02420930067598166</v>
+        <v>0.02606118924137946</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1566607468442937</v>
+        <v>0.03791795839449652</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02440616636515155</v>
+        <v>0.02636337842558869</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02831182898051415</v>
+        <v>0.03889495449229337</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02593124593890575</v>
+        <v>0.02716226868090956</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04922336967242072</v>
+        <v>0.08343838127774131</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02643366459482527</v>
+        <v>0.02691985206608634</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1036740499592459</v>
+        <v>0.1348060914683076</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0249429158479811</v>
+        <v>0.02685092224869398</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1594422618215012</v>
+        <v>0.03889495449229337</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02514574716409554</v>
+        <v>0.02716226868090956</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03128778813425274</v>
+        <v>0.03975972677892299</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02669392964299122</v>
+        <v>0.02796115893623043</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04951968111393668</v>
+        <v>0.0853351806758105</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02721112531820248</v>
+        <v>0.02771161242097123</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1040586513458779</v>
+        <v>0.1368116942952585</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02567653101998055</v>
+        <v>0.02764065525600852</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1596033130981115</v>
+        <v>0.03975972677892299</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02588532796303953</v>
+        <v>0.02796115893623043</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03121111809870198</v>
+        <v>0.04050878192614371</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02745661334707668</v>
+        <v>0.02876004919155129</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04922389680479353</v>
+        <v>0.08810214532758279</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0279885860415797</v>
+        <v>0.02850337277585613</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1049294854620353</v>
+        <v>0.1398394513814664</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02641014619197999</v>
+        <v>0.02843038826332304</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1599937822093157</v>
+        <v>0.04050878192614371</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02662490876198351</v>
+        <v>0.02876004919155129</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02908711771090263</v>
+        <v>0.04133862660571383</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02821929705116215</v>
+        <v>0.02955893944687217</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04885919396068812</v>
+        <v>0.08963270883679123</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02876604676495691</v>
+        <v>0.02929513313074102</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1050596180598957</v>
+        <v>0.1418842851615344</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02714376136397944</v>
+        <v>0.02922012127063757</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1600877769032345</v>
+        <v>0.04133862660571383</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0273644895609275</v>
+        <v>0.02955893944687217</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02892093637798841</v>
+        <v>0.04244576748939169</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02898198075524761</v>
+        <v>0.03035782970219304</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04883300747142538</v>
+        <v>0.091720304807169</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02954350748833413</v>
+        <v>0.03008689348562591</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1042771855298036</v>
+        <v>0.1453411180700656</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02787737653597887</v>
+        <v>0.0300098542779521</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1595605715575727</v>
+        <v>0.04244576748939169</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02810407035987149</v>
+        <v>0.03035782970219304</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02971772350709306</v>
+        <v>0.04322671124893565</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02974466445933308</v>
+        <v>0.03115671995751391</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04845277222681037</v>
+        <v>0.09335836684244922</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03032096821171134</v>
+        <v>0.03087865384051081</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1043910456104658</v>
+        <v>0.1471048725416628</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02861099170797832</v>
+        <v>0.03079958728526663</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1584497471450497</v>
+        <v>0.04322671124893565</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02884365115881547</v>
+        <v>0.03115671995751391</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02748262850535028</v>
+        <v>0.04397796455610399</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03050734816341854</v>
+        <v>0.03195561021283477</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04842592311664801</v>
+        <v>0.09474032854636502</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03109842893508855</v>
+        <v>0.03167041419539569</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1041100560405885</v>
+        <v>0.1493704710109293</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02934460687997776</v>
+        <v>0.03158932029258116</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1572928846383849</v>
+        <v>0.04397796455610399</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02958323195775946</v>
+        <v>0.03195561021283477</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02722080077989378</v>
+        <v>0.04489603408265511</v>
       </c>
       <c r="G106" t="n">
-        <v>0.031270031867504</v>
+        <v>0.03275450046815565</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0475598950307433</v>
+        <v>0.09635962352264951</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03187588965846577</v>
+        <v>0.03246217455028059</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1030430745588786</v>
+        <v>0.151532835912468</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03007822205197721</v>
+        <v>0.03237905329989569</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1565275650102979</v>
+        <v>0.04489603408265511</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03032281275670344</v>
+        <v>0.03275450046815565</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02993738973785733</v>
+        <v>0.04597742650034725</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03203271557158947</v>
+        <v>0.03355339072347651</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04766212285890128</v>
+        <v>0.09790968537503589</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03265335038184298</v>
+        <v>0.03325393490516548</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1027989589040425</v>
+        <v>0.1529868896808821</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03081183722397665</v>
+        <v>0.03316878630721022</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1547913692335081</v>
+        <v>0.04597742650034725</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03106239355564743</v>
+        <v>0.03355339072347651</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02763754478637461</v>
+        <v>0.04621864848093882</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03279539927567493</v>
+        <v>0.03435228097879738</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04674004149092691</v>
+        <v>0.09928394770725726</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03343081110522019</v>
+        <v>0.03404569526005037</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1026865668147867</v>
+        <v>0.1558275547507745</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0315454523959761</v>
+        <v>0.03395851931452475</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1530218782807349</v>
+        <v>0.04621864848093882</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03180197435459142</v>
+        <v>0.03435228097879738</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02832641533257935</v>
+        <v>0.04731620669618812</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03355808297976039</v>
+        <v>0.03515117123411825</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04640108581662516</v>
+        <v>0.1011758441230467</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0342082718285974</v>
+        <v>0.03483745561493527</v>
       </c>
       <c r="L109" t="n">
-        <v>0.101414756029818</v>
+        <v>0.1561497535567484</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03227906756797554</v>
+        <v>0.03474825232183928</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1517566731246979</v>
+        <v>0.04731620669618812</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03254155515353541</v>
+        <v>0.03515117123411825</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02900915078360528</v>
+        <v>0.04796660781785346</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03432076668384585</v>
+        <v>0.03595006148943912</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04615269072580104</v>
+        <v>0.1024788082261374</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03498573255197462</v>
+        <v>0.03562921596982016</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1012923842878427</v>
+        <v>0.1587484085334066</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03301268273997499</v>
+        <v>0.03553798532915381</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1491333347381164</v>
+        <v>0.04796660781785346</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03328113595247939</v>
+        <v>0.03595006148943912</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02569090054658612</v>
+        <v>0.04856635851769321</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03508345038793131</v>
+        <v>0.03674895174475998</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04570229110825955</v>
+        <v>0.1037862736202624</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03576319327535184</v>
+        <v>0.03642097632470505</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1005283093275675</v>
+        <v>0.1597184421153524</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03374629791197443</v>
+        <v>0.03632771833646833</v>
       </c>
       <c r="N111" t="n">
-        <v>0.14808944409371</v>
+        <v>0.04856635851769321</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03402071675142337</v>
+        <v>0.03674895174475998</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02537681402865557</v>
+        <v>0.04871196546746567</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03584613409201678</v>
+        <v>0.03754784200008086</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04505732185380566</v>
+        <v>0.1040916739091549</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03654065399872905</v>
+        <v>0.03721273667958994</v>
       </c>
       <c r="L112" t="n">
-        <v>0.099531388887699</v>
+        <v>0.1609547767371888</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03447991308397388</v>
+        <v>0.03711745134378287</v>
       </c>
       <c r="N112" t="n">
-        <v>0.145962582164198</v>
+        <v>0.04871196546746567</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03476029755036737</v>
+        <v>0.03754784200008086</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0280720406369474</v>
+        <v>0.04919993533892919</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03660881779610224</v>
+        <v>0.03834673225540173</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04472521785224438</v>
+        <v>0.1051884426965481</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03731811472210626</v>
+        <v>0.03800449703447484</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09851048070694365</v>
+        <v>0.1631523348335187</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03521352825597332</v>
+        <v>0.03790718435109739</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1435903299223001</v>
+        <v>0.04919993533892919</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03549987834931135</v>
+        <v>0.03834673225540173</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02778172977859527</v>
+        <v>0.05012677480384208</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03737150150018771</v>
+        <v>0.0391456225107226</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04431341399338069</v>
+        <v>0.1062700135861749</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03809557544548348</v>
+        <v>0.03879625738935973</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09757444252400813</v>
+        <v>0.1632060388389453</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03594714342797276</v>
+        <v>0.03869691735841192</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1427102683407355</v>
+        <v>0.05012677480384208</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03623945914825534</v>
+        <v>0.0391456225107226</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02651103086073294</v>
+        <v>0.05008899053396268</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03813418520427317</v>
+        <v>0.03994451276604347</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04382934516701957</v>
+        <v>0.1067298201817686</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03887303616886069</v>
+        <v>0.03958801774424462</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09663213207759888</v>
+        <v>0.1636108111880716</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0366807585999722</v>
+        <v>0.03948665036572645</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1403599783922237</v>
+        <v>0.05008899053396268</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03697903994719932</v>
+        <v>0.03994451276604347</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02726509329049414</v>
+        <v>0.0505830892010493</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03889686890835863</v>
+        <v>0.04074340302136434</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04358044626296603</v>
+        <v>0.1071612960870624</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0396504968922379</v>
+        <v>0.04037977809912951</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09629240710642265</v>
+        <v>0.1653615743155006</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03741437377197165</v>
+        <v>0.04027638337304098</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1382770410494844</v>
+        <v>0.0505830892010493</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03771862074614332</v>
+        <v>0.04074340302136434</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02604906647501256</v>
+        <v>0.05080557747686029</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0396595526124441</v>
+        <v>0.04154229327668521</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04317415217102505</v>
+        <v>0.1082578749057892</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04042795761561511</v>
+        <v>0.0411715384540144</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09506412534918576</v>
+        <v>0.1654532506558355</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0381479889439711</v>
+        <v>0.04106611638035551</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1373990372852367</v>
+        <v>0.05080557747686029</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0384582015450873</v>
+        <v>0.04154229327668521</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02486809982142196</v>
+        <v>0.050652962033154</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04042223631652956</v>
+        <v>0.04234118353200608</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0432178977810016</v>
+        <v>0.1089129902416824</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04120541833899233</v>
+        <v>0.0419632988088993</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09435614454459493</v>
+        <v>0.1656807626436791</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03888160411597055</v>
+        <v>0.04185584938767004</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1374635480722003</v>
+        <v>0.050652962033154</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03919778234403128</v>
+        <v>0.04234118353200608</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02472734273685601</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04118492002061502</v>
+        <v>0.04314007378732695</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04311911798270071</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04198287906236955</v>
+        <v>0.04275505916378419</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09317732243135671</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03961521928796998</v>
+        <v>0.04264558239498457</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1363081543830946</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03993736314297527</v>
+        <v>0.04314007378732695</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02563194462844848</v>
+        <v>0.05092244998663949</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04194760372470049</v>
+        <v>0.04393896404264781</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04248524766592734</v>
+        <v>0.1091741938880219</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04276033978574676</v>
+        <v>0.04354681951866908</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09253651674817762</v>
+        <v>0.1671230295585902</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04034883445996943</v>
+        <v>0.0434353154022991</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1363704371906392</v>
+        <v>0.05092244998663949</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04067694394191925</v>
+        <v>0.04393896404264781</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02558705490333308</v>
+        <v>0.05080059896041404</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04271028742878595</v>
+        <v>0.04473785429796868</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0428237217204865</v>
+        <v>0.109044471654678</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04353780050912397</v>
+        <v>0.04433857987355398</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09244258523376428</v>
+        <v>0.1669941218214507</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04108244963196887</v>
+        <v>0.04422504840961363</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1367652762425958</v>
+        <v>0.05080059896041404</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04141652474086324</v>
+        <v>0.04473785429796868</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02659786856341798</v>
+        <v>0.05116087401424249</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04347297113287141</v>
+        <v>0.04553674455328955</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04254391608597423</v>
+        <v>0.1088716985688173</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04431526123250119</v>
+        <v>0.04513034022843886</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09190438562682321</v>
+        <v>0.1658117421811875</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04181606480396832</v>
+        <v>0.04501478141692816</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1358936844001368</v>
+        <v>0.05116087401424249</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04215610553980723</v>
+        <v>0.04553674455328955</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02566493346724261</v>
+        <v>0.05060423856187801</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04423565483695688</v>
+        <v>0.04633563480861042</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04255096733867959</v>
+        <v>0.108457737097018</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0450927219558784</v>
+        <v>0.04592210058332376</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09103077566606096</v>
+        <v>0.1654778577412017</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04254967997596776</v>
+        <v>0.04580451442424269</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1359253740684974</v>
+        <v>0.05060423856187801</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04289568633875121</v>
+        <v>0.04633563480861042</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02578352960634297</v>
+        <v>0.05083165601707386</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04499833854104234</v>
+        <v>0.04713452506393129</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04313733883043323</v>
+        <v>0.1086044497058581</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04587018267925561</v>
+        <v>0.04671386093820865</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09043061309018421</v>
+        <v>0.1657944356048943</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04328329514796721</v>
+        <v>0.04659424743155721</v>
       </c>
       <c r="N124" t="n">
-        <v>0.136844295150181</v>
+        <v>0.05083165601707386</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0436352671376952</v>
+        <v>0.04713452506393129</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02694875852878138</v>
+        <v>0.05084408979358321</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04576102224512781</v>
+        <v>0.04793341531925216</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04309498487189918</v>
+        <v>0.108213698861916</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04664764340263283</v>
+        <v>0.04750562129309354</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08961275563789936</v>
+        <v>0.1665634428756662</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04401691031996665</v>
+        <v>0.04738398043887174</v>
       </c>
       <c r="N125" t="n">
-        <v>0.137434397547691</v>
+        <v>0.05084408979358321</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04437484793663918</v>
+        <v>0.04793341531925216</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02515572178262018</v>
+        <v>0.05074250330515929</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04652370594921327</v>
+        <v>0.04873230557457303</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04361585977374142</v>
+        <v>0.1084873470317696</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04742510412601004</v>
+        <v>0.04829738164797844</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09018606104791307</v>
+        <v>0.1659868466569185</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0447505254919661</v>
+        <v>0.04817371344618628</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1385796311635309</v>
+        <v>0.05074250330515929</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04511442873558318</v>
+        <v>0.04873230557457303</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02639952091592172</v>
+        <v>0.05052785996555535</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04728638965329873</v>
+        <v>0.0495311958298939</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04419191784662403</v>
+        <v>0.1080272566819972</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04820256484938725</v>
+        <v>0.04908914200286333</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08945938705893194</v>
+        <v>0.1651666140520524</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04548414066396553</v>
+        <v>0.0489634464535008</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1400639459002039</v>
+        <v>0.05052785996555535</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04585400953452716</v>
+        <v>0.0495311958298939</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02467525747674835</v>
+        <v>0.05030112318852457</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0480490733573842</v>
+        <v>0.05033008608521477</v>
       </c>
       <c r="J128" t="n">
-        <v>0.044215113401211</v>
+        <v>0.1072352902791767</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04898002557276446</v>
+        <v>0.04988090235774822</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08884159140966244</v>
+        <v>0.1641047121644686</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04621775583596498</v>
+        <v>0.04975317946081533</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1418712916602135</v>
+        <v>0.05030112318852457</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04659359033347115</v>
+        <v>0.05033008608521477</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02697803301316241</v>
+        <v>0.05026325638782017</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04881175706146965</v>
+        <v>0.05112897634053564</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04457740074816634</v>
+        <v>0.1071133102898864</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04975748629614168</v>
+        <v>0.05067266271263311</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08936047381552889</v>
+        <v>0.1643031080975685</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04695137100796443</v>
+        <v>0.05054291246812986</v>
       </c>
       <c r="N129" t="n">
-        <v>0.143285618346063</v>
+        <v>0.05026325638782017</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04733317113241513</v>
+        <v>0.05112897634053564</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02530294907322623</v>
+        <v>0.04991522297719536</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04957444076555512</v>
+        <v>0.05192786659585651</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04517073419815409</v>
+        <v>0.1067631791807045</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0505349470195189</v>
+        <v>0.05146442306751801</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08962650511289019</v>
+        <v>0.164263768954753</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04768498617996387</v>
+        <v>0.05133264547544439</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1445908758602559</v>
+        <v>0.04991522297719536</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04807275193135912</v>
+        <v>0.05192786659585651</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02764510720500218</v>
+        <v>0.04975798637040338</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05033712446964058</v>
+        <v>0.05272675685117739</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04578706806183827</v>
+        <v>0.1060867594182089</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05131240774289611</v>
+        <v>0.0522561834224029</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09013300188552073</v>
+        <v>0.163288661839423</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04841860135196332</v>
+        <v>0.05212237848275892</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1449710141052953</v>
+        <v>0.04975798637040338</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04881233273030311</v>
+        <v>0.05272675685117739</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02699960895655256</v>
+        <v>0.04999250998119741</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05109980817372604</v>
+        <v>0.05352564710649824</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04641835664988288</v>
+        <v>0.1063859134689779</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05208986846627332</v>
+        <v>0.05304794377728779</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09085225447269638</v>
+        <v>0.1622797538549797</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04915221652396275</v>
+        <v>0.05291211149007344</v>
       </c>
       <c r="N132" t="n">
-        <v>0.146409982983685</v>
+        <v>0.04999250998119741</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04955191352924709</v>
+        <v>0.05352564710649824</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02636155587593975</v>
+        <v>0.04951975722333068</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05186249187781151</v>
+        <v>0.05432453736181912</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04695655427295196</v>
+        <v>0.1052625037995897</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05286732918965054</v>
+        <v>0.05383970413217268</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09165655321369323</v>
+        <v>0.1620390121048239</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0498858316959622</v>
+        <v>0.05370184449738797</v>
       </c>
       <c r="N133" t="n">
-        <v>0.148791732397928</v>
+        <v>0.04951975722333068</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05029149432819108</v>
+        <v>0.05432453736181912</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0267260495112261</v>
+        <v>0.04914069151055642</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05262517558189697</v>
+        <v>0.05512342761713999</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04769361524170952</v>
+        <v>0.1055183928766222</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05364478991302775</v>
+        <v>0.05463146448705758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09271818844778731</v>
+        <v>0.162368403692357</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05061944686796165</v>
+        <v>0.0544915775047025</v>
       </c>
       <c r="N134" t="n">
-        <v>0.150700212250528</v>
+        <v>0.04914069151055642</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05103107512713506</v>
+        <v>0.05512342761713999</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02808819141047391</v>
+        <v>0.04895627625662782</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05338785928598244</v>
+        <v>0.05592231787246086</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04822149386681961</v>
+        <v>0.1044554431666536</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05442225063640497</v>
+        <v>0.05542322484194247</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09370945051425475</v>
+        <v>0.1607698957209798</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05135306203996109</v>
+        <v>0.05528131051201703</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1519193724439881</v>
+        <v>0.04895627625662782</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05177065592607905</v>
+        <v>0.05592231787246086</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02944308312174555</v>
+        <v>0.04916747487529813</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05415054299006791</v>
+        <v>0.05672120812778172</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04823214445894619</v>
+        <v>0.1039755171362623</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05519971135978217</v>
+        <v>0.05621498519682736</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09570262975237151</v>
+        <v>0.1604454552940934</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05208667721196053</v>
+        <v>0.05607104351933156</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1538331628808118</v>
+        <v>0.04916747487529813</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05251023672502304</v>
+        <v>0.05672120812778172</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02978582619310337</v>
+        <v>0.04857525078032053</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05491322669415337</v>
+        <v>0.05752009838310259</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04901752132875332</v>
+        <v>0.103380477252026</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05597717208315939</v>
+        <v>0.05700674555171226</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09697001650141365</v>
+        <v>0.1593970495150987</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05282029238395997</v>
+        <v>0.05686077652664609</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1552255334635027</v>
+        <v>0.04857525078032053</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05324981752396702</v>
+        <v>0.05752009838310259</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0301115221726097</v>
+        <v>0.04888056738544826</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05567591039823883</v>
+        <v>0.05831898863842346</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04946957878690504</v>
+        <v>0.1033721859805231</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05675463280653661</v>
+        <v>0.05779850590659714</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09768390110065714</v>
+        <v>0.1589266454873969</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05355390755595942</v>
+        <v>0.05765050953396061</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1566804340945638</v>
+        <v>0.04888056738544826</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05398939832291101</v>
+        <v>0.05831898863842346</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02841527260832689</v>
+        <v>0.04868438810443451</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0564385941023243</v>
+        <v>0.05911787889374433</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04968027114406533</v>
+        <v>0.1031525057883318</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05753209352991382</v>
+        <v>0.05859026626148203</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09901657388937815</v>
+        <v>0.159136210314389</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05428752272795887</v>
+        <v>0.05844024254127515</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1577818146764987</v>
+        <v>0.04868438810443451</v>
       </c>
       <c r="O139" t="n">
-        <v>0.054728979121855</v>
+        <v>0.05911787889374433</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03169217904831726</v>
+        <v>0.04808767635103252</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05720127780640976</v>
+        <v>0.0599167691490652</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05044155271089823</v>
+        <v>0.10162329914203</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05830955425329103</v>
+        <v>0.05938202661636693</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1013403252068526</v>
+        <v>0.157427711099476</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05502113789995831</v>
+        <v>0.05922997554858968</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1598136251118106</v>
+        <v>0.04808767635103252</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05546855992079898</v>
+        <v>0.0599167691490652</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03093734304064318</v>
+        <v>0.04799139553899549</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05796396151049522</v>
+        <v>0.06071565940438607</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05044537779806775</v>
+        <v>0.1018864285081959</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05908701497666825</v>
+        <v>0.06017378697125182</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1021274453923567</v>
+        <v>0.1572031149460589</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05575475307195775</v>
+        <v>0.0600197085559042</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1600598153030031</v>
+        <v>0.04799139553899549</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05620814071974297</v>
+        <v>0.06071565940438607</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.030145866133367</v>
+        <v>0.04769650908207664</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05872664521458069</v>
+        <v>0.06151454965970694</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05098370071623794</v>
+        <v>0.1015437563534078</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05986447570004546</v>
+        <v>0.06096554732613671</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1038502247851661</v>
+        <v>0.1562643889575389</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0564883682439572</v>
+        <v>0.06080944156321873</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1620043351525795</v>
+        <v>0.04769650908207664</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05694772151868696</v>
+        <v>0.06151454965970694</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03131284987455103</v>
+        <v>0.04760398039402917</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05948932891866615</v>
+        <v>0.06231343991502782</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05064847577607277</v>
+        <v>0.1008971451442436</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06064193642342268</v>
+        <v>0.06175730768102161</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1046809537245574</v>
+        <v>0.1562135002373168</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05722198341595665</v>
+        <v>0.06159917457053327</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1631311345630432</v>
+        <v>0.04760398039402917</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05768730231763094</v>
+        <v>0.06231343991502782</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03243339581225763</v>
+        <v>0.04761477288860633</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06025201262275161</v>
+        <v>0.06311233017034867</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05122661244815373</v>
+        <v>0.0999484573472815</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06141939714679989</v>
+        <v>0.0625490680359065</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1062919225498061</v>
+        <v>0.1549524158887938</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05795559858795609</v>
+        <v>0.06238890757784779</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1647241634368976</v>
+        <v>0.04761477288860633</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05842688311657493</v>
+        <v>0.06311233017034867</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03150260549454915</v>
+        <v>0.04702984997956132</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06101469632683707</v>
+        <v>0.06391122042566955</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05118100785360287</v>
+        <v>0.09949955542909975</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06219685787017711</v>
+        <v>0.06334082839079139</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1073554216001885</v>
+        <v>0.1544831030153709</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05868921375995553</v>
+        <v>0.06317864058516232</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1649673716766459</v>
+        <v>0.04702984997956132</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05916646391551892</v>
+        <v>0.06391122042566955</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03251510913431823</v>
+        <v>0.04705017508064734</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06177738003092254</v>
+        <v>0.06471011068099042</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05122821811821446</v>
+        <v>0.09895230185627632</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06297431859355432</v>
+        <v>0.06413258874567629</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1080437412149806</v>
+        <v>0.1533075287204491</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05942282893195498</v>
+        <v>0.06396837359247685</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1657447091847918</v>
+        <v>0.04705017508064734</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0599060447144629</v>
+        <v>0.06471011068099042</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02954301167952033</v>
+        <v>0.04697671160561762</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06254006373500801</v>
+        <v>0.06550900093631129</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0513738311256266</v>
+        <v>0.09810855909538949</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06375177931693153</v>
+        <v>0.06492434910056118</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1081291717334586</v>
+        <v>0.1525276601074295</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06015644410395442</v>
+        <v>0.06475810659979138</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1666401258638384</v>
+        <v>0.04697671160561762</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06064562551340689</v>
+        <v>0.06550900093631129</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03255980832895356</v>
+        <v>0.04701042296822536</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06330274743909346</v>
+        <v>0.06630789119163216</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05101783387472476</v>
+        <v>0.09727018961301728</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06452924004030874</v>
+        <v>0.06571610945544606</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1086840034948982</v>
+        <v>0.151945464279713</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06089005927595387</v>
+        <v>0.0655478396071059</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1673230502819877</v>
+        <v>0.04701042296822536</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06138520631235087</v>
+        <v>0.06630789119163216</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03257597130410712</v>
+        <v>0.04655227258222379</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06406543114317893</v>
+        <v>0.06710678144695302</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05096021336439448</v>
+        <v>0.09753905587573788</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06530670076368596</v>
+        <v>0.06650786981033097</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1092748313650707</v>
+        <v>0.1514629083407008</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0616236744479533</v>
+        <v>0.06633757261442044</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1672437384380088</v>
+        <v>0.04655227258222379</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06212478711129486</v>
+        <v>0.06710678144695302</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03259149818100698</v>
+        <v>0.04650086834312048</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06482811484726439</v>
+        <v>0.06790567170227389</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0513009565935212</v>
+        <v>0.09671702035012933</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06608416148706317</v>
+        <v>0.06729963016521585</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1084703515355491</v>
+        <v>0.1509819593937938</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06235728961995275</v>
+        <v>0.06712730562173497</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1672441773231139</v>
+        <v>0.04650086834312048</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06286436791023885</v>
+        <v>0.06790567170227389</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03260638653567922</v>
+        <v>0.04625263504856701</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06559079855134986</v>
+        <v>0.06870456195759476</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05134005056099052</v>
+        <v>0.09580594550276986</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06686162221044038</v>
+        <v>0.06809139052010074</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1087362432990172</v>
+        <v>0.1490045845423931</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0630909047919522</v>
+        <v>0.06791703862904949</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1673393193910393</v>
+        <v>0.04625263504856701</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06360394870918283</v>
+        <v>0.06870456195759476</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02962063394414983</v>
+        <v>0.0461072942806631</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06635348225543532</v>
+        <v>0.06950345221291564</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05127748226568787</v>
+        <v>0.09590769380023753</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0676390829338176</v>
+        <v>0.06888315087498564</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1092001242208489</v>
+        <v>0.1487327508898998</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06382451996395165</v>
+        <v>0.06870677163636403</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1672290515677201</v>
+        <v>0.0461072942806631</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06434352950812683</v>
+        <v>0.06950345221291564</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03063423798244484</v>
+        <v>0.04626461887711951</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06711616595952079</v>
+        <v>0.0703023424682365</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05151323870649878</v>
+        <v>0.09532412770911056</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06841654365719481</v>
+        <v>0.06967491122987053</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1086620133929317</v>
+        <v>0.1479684255397148</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06455813513595109</v>
+        <v>0.06949650464367856</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1679132607790917</v>
+        <v>0.04626461887711951</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06508311030707081</v>
+        <v>0.0703023424682365</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03164719622659024</v>
+        <v>0.04572438167564701</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06787884966360624</v>
+        <v>0.07110123272355737</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05144730688230875</v>
+        <v>0.09435710969596697</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06919400438057202</v>
+        <v>0.07046667158475542</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1090219299071527</v>
+        <v>0.1477135755952392</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06529175030795054</v>
+        <v>0.07028623765099308</v>
       </c>
       <c r="N154" t="n">
-        <v>0.167691833951089</v>
+        <v>0.04572438167564701</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0658226911060148</v>
+        <v>0.07110123272355737</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03065950625261208</v>
+        <v>0.0456863555139564</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0686415333676917</v>
+        <v>0.07190012297887824</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0514796737920033</v>
+        <v>0.09459322190754008</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06997146510394925</v>
+        <v>0.07125843193964032</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1095798928553989</v>
+        <v>0.1473701681598741</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06602536547994997</v>
+        <v>0.07107597065830762</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1679646580096472</v>
+        <v>0.0456863555139564</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06656227190495878</v>
+        <v>0.07190012297887824</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03267116563653637</v>
+        <v>0.04555031322975843</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06940421707177717</v>
+        <v>0.07269901323419911</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05151032643446792</v>
+        <v>0.09431505822716815</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07074892582732645</v>
+        <v>0.07205019229452521</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1089359213295577</v>
+        <v>0.1466401703370204</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06675898065194942</v>
+        <v>0.07186570366562214</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1673316198807016</v>
+        <v>0.04555031322975843</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06730185270390276</v>
+        <v>0.07269901323419911</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03068217195438911</v>
+        <v>0.04541602766076387</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07016690077586263</v>
+        <v>0.07349790348951997</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0513392518085881</v>
+        <v>0.0929235154193124</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07152638655070367</v>
+        <v>0.0728419526494101</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1093900344215162</v>
+        <v>0.1459255492300792</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06749259582394886</v>
+        <v>0.07265543667293667</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1684926064901871</v>
+        <v>0.04541602766076387</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06804143350284675</v>
+        <v>0.07349790348951997</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03069252278219634</v>
+        <v>0.04548327164468351</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0709295844799481</v>
+        <v>0.07429679374484084</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05156643691324937</v>
+        <v>0.09281953601824197</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07230384727408087</v>
+        <v>0.073633713004295</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1097422512231615</v>
+        <v>0.1440282719424515</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06822621099594831</v>
+        <v>0.07344516968025121</v>
       </c>
       <c r="N158" t="n">
-        <v>0.168947504764039</v>
+        <v>0.04548327164468351</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06878101430179073</v>
+        <v>0.07429679374484084</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02970221569598409</v>
+        <v>0.04535181801922811</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07169226818403356</v>
+        <v>0.07509568400016171</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05159186874733723</v>
+        <v>0.09280406255822596</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0730813079974581</v>
+        <v>0.07442547335917989</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1094925908263808</v>
+        <v>0.1434503055775385</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06895982616794775</v>
+        <v>0.07423490268756573</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1688962016281925</v>
+        <v>0.04535181801922811</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06952059510073473</v>
+        <v>0.07509568400016171</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03271124827177834</v>
+        <v>0.04522143962210841</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07245495188811903</v>
+        <v>0.07589457425548259</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05181553430973716</v>
+        <v>0.09137803757353327</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0738587687208353</v>
+        <v>0.07521723371406477</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1094410723230613</v>
+        <v>0.143193617238741</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0696934413399472</v>
+        <v>0.07502463569488026</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1687385840085827</v>
+        <v>0.04522143962210841</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07026017589967871</v>
+        <v>0.07589457425548259</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02971961808560513</v>
+        <v>0.04479190929103524</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07321763559220448</v>
+        <v>0.07669346451080346</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05183742059933472</v>
+        <v>0.091442403598433</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07463622944421253</v>
+        <v>0.07600899406894968</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1098877148050902</v>
+        <v>0.1419601740294602</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07042705651194664</v>
+        <v>0.07581436870219478</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1685745388311446</v>
+        <v>0.04479190929103524</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0709997566986227</v>
+        <v>0.07669346451080346</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03172732271349048</v>
+        <v>0.04486299986371933</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07398031929628995</v>
+        <v>0.07749235476612433</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05145751461501534</v>
+        <v>0.09069810316719432</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07541369016758974</v>
+        <v>0.07680075442383456</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1090325373643546</v>
+        <v>0.141551943053097</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07116067168394609</v>
+        <v>0.07660410170950932</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1693039530218136</v>
+        <v>0.04486299986371933</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07173933749756668</v>
+        <v>0.07749235476612433</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0317343597314604</v>
+        <v>0.04463448417787147</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07474300300037541</v>
+        <v>0.0782912450214452</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05157580335566458</v>
+        <v>0.09064607881408618</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07619115089096695</v>
+        <v>0.07759251477871945</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1096755590927416</v>
+        <v>0.1411708914130526</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07189428685594552</v>
+        <v>0.07739383471682384</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1688267135065247</v>
+        <v>0.04463448417787147</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07247891829651068</v>
+        <v>0.0782912450214452</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02974072671554092</v>
+        <v>0.0448061350712024</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07550568670446088</v>
+        <v>0.07909013527676607</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05149227382016791</v>
+        <v>0.0897872730733775</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07696861161434417</v>
+        <v>0.07838427513360434</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1094167990821384</v>
+        <v>0.1400189862127278</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07262790202794496</v>
+        <v>0.07818356772413837</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1693427072112131</v>
+        <v>0.0448061350712024</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07321849909545465</v>
+        <v>0.07909013527676607</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03274642124175805</v>
+        <v>0.04437772538142294</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07626837040854634</v>
+        <v>0.07988902553208695</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05180691300741087</v>
+        <v>0.08852262847933759</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07774607233772138</v>
+        <v>0.07917603548848924</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1094562764244324</v>
+        <v>0.1400979146801887</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07336151719994441</v>
+        <v>0.07897330073145291</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1689518210618139</v>
+        <v>0.04437772538142294</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07395807989439865</v>
+        <v>0.07988902553208695</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03075144088613781</v>
+        <v>0.04404902794624382</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07703105411263181</v>
+        <v>0.0806879157874078</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05181970791627892</v>
+        <v>0.08795308756623529</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07852353306109859</v>
+        <v>0.07996779584337413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1101940102115105</v>
+        <v>0.1404067145260712</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07409513237194386</v>
+        <v>0.07976303373876743</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1687539419842623</v>
+        <v>0.04404902794624382</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07469766069334263</v>
+        <v>0.0806879157874078</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02975578322470621</v>
+        <v>0.04411981560337584</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07779373781671726</v>
+        <v>0.08148680604272868</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05173064554565762</v>
+        <v>0.08777959286833978</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0793009937844758</v>
+        <v>0.08075955619825902</v>
       </c>
       <c r="L167" t="n">
-        <v>0.10933001953526</v>
+        <v>0.1385430338021397</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07482874754394331</v>
+        <v>0.08055276674608196</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1697489569044934</v>
+        <v>0.04411981560337584</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07543724149228663</v>
+        <v>0.08148680604272868</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03075944583348928</v>
+        <v>0.04418986119052973</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07855642152080274</v>
+        <v>0.08228569629804955</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05183971289443243</v>
+        <v>0.08750308691992001</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08007845450785302</v>
+        <v>0.08155131655314392</v>
       </c>
       <c r="L168" t="n">
-        <v>0.110264323487568</v>
+        <v>0.139504513992059</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07556236271594274</v>
+        <v>0.0813424997533965</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1699367527484424</v>
+        <v>0.04418986119052973</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0761768222912306</v>
+        <v>0.08228569629804955</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03276242628851305</v>
+        <v>0.04375893754541632</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07931910522488819</v>
+        <v>0.08308458655337042</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05194689696148885</v>
+        <v>0.08722451225524511</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08085591523123023</v>
+        <v>0.08234307690802881</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1094969411603217</v>
+        <v>0.1382887965794936</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07629597788794219</v>
+        <v>0.08213223276071102</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1699172164420445</v>
+        <v>0.04375893754541632</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0769164030901746</v>
+        <v>0.08308458655337042</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0307647221658035</v>
+        <v>0.04372681750574633</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08008178892897366</v>
+        <v>0.08388347680869128</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05185218474571243</v>
+        <v>0.08664481140858407</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08163337595460744</v>
+        <v>0.08313483726291369</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1103278916454083</v>
+        <v>0.1375935230481082</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07702959305994164</v>
+        <v>0.08292196576802555</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1688902349112348</v>
+        <v>0.04372681750574633</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07765598388911858</v>
+        <v>0.08388347680869128</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03276633104138667</v>
+        <v>0.04359327390923057</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08084447263305912</v>
+        <v>0.08468236706401215</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05175556324598862</v>
+        <v>0.08536492691420597</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08241083667798466</v>
+        <v>0.0839265976177986</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1103571940347149</v>
+        <v>0.1368163348815674</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07776320823194109</v>
+        <v>0.08371169877534008</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1692556950819484</v>
+        <v>0.04359327390923057</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07839556468806257</v>
+        <v>0.08468236706401215</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0307672504912886</v>
+        <v>0.04365807959357973</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08160715633714459</v>
+        <v>0.08548125731933302</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05185701946120298</v>
+        <v>0.08528580130637989</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08318829740136187</v>
+        <v>0.08471835797268348</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1101848674201287</v>
+        <v>0.1379548735635359</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07849682340394053</v>
+        <v>0.08450143178265461</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1703134838801205</v>
+        <v>0.04365807959357973</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07913514548700655</v>
+        <v>0.08548125731933302</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02976723528750618</v>
+        <v>0.04332100739650471</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08236984004123005</v>
+        <v>0.0862801475746539</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05155182037679219</v>
+        <v>0.08390837711937479</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0839657581247391</v>
+        <v>0.08551011832756837</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1095109308935369</v>
+        <v>0.1369067805776781</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07923043857593996</v>
+        <v>0.08529116478996913</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1703634882316862</v>
+        <v>0.04332100739650471</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07987472628595053</v>
+        <v>0.0862801475746539</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0297559161214653</v>
+        <v>0.04298183015571617</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0831325237453155</v>
+        <v>0.08707903782997475</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05162873895592687</v>
+        <v>0.08373359688745982</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08474321884811629</v>
+        <v>0.08630187868245327</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1100354035468266</v>
+        <v>0.136969697407659</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07996405374793941</v>
+        <v>0.08608089779728367</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1692055950625807</v>
+        <v>0.04298183015571617</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08061430708489452</v>
+        <v>0.08707903782997475</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03072847931965163</v>
+        <v>0.04304032070892493</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08389520744940097</v>
+        <v>0.08787792808529563</v>
       </c>
       <c r="J175" t="n">
-        <v>0.051588106058661</v>
+        <v>0.08326240314490393</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08552067957149352</v>
+        <v>0.08709363903733816</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1098583044718851</v>
+        <v>0.1355412655371429</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08069766891993886</v>
+        <v>0.0868706308045982</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1701396912987392</v>
+        <v>0.04304032070892493</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0813538878838385</v>
+        <v>0.08787792808529563</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02968587511406253</v>
+        <v>0.04289625189384177</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08465789115348643</v>
+        <v>0.0886768183406165</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0513308056304479</v>
+        <v>0.08259573842597626</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08629814029487072</v>
+        <v>0.08788539939222305</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1101796527605994</v>
+        <v>0.1352191264497946</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0814312840919383</v>
+        <v>0.08766036381191272</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1699656638660966</v>
+        <v>0.04289625189384177</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0820934686827825</v>
+        <v>0.0886768183406165</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03162905373669535</v>
+        <v>0.04284939654817743</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0854205748575719</v>
+        <v>0.08947570859593737</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05135772161674096</v>
+        <v>0.0820345452649458</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08707560101824795</v>
+        <v>0.08867715974710795</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1096994675048567</v>
+        <v>0.1352009216292787</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08216489926393775</v>
+        <v>0.08845009681922726</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1694833996905884</v>
+        <v>0.04284939654817743</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08283304948172648</v>
+        <v>0.08947570859593737</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02955896541954748</v>
+        <v>0.04269952750964269</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08618325856165736</v>
+        <v>0.09027459885125824</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05166973796299351</v>
+        <v>0.08207976619608165</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08785306174162515</v>
+        <v>0.08946892010199284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1101177677965443</v>
+        <v>0.1347842925592597</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0828985144359372</v>
+        <v>0.08923982982654179</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1699927856981496</v>
+        <v>0.04269952750964269</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08357263028067047</v>
+        <v>0.09027459885125824</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03047656039461628</v>
+        <v>0.04264641761594835</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08694594226574283</v>
+        <v>0.0910734891065791</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05146773861465893</v>
+        <v>0.08133234375365278</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08863052246500237</v>
+        <v>0.09026068045687773</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1101345727275493</v>
+        <v>0.1342668807234025</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08363212960793664</v>
+        <v>0.09002956283385631</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1707871900869633</v>
+        <v>0.04264641761594835</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08431221107961445</v>
+        <v>0.0910734891065791</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03038278889389911</v>
+        <v>0.04248983970480515</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08770862596982829</v>
+        <v>0.09187237936189997</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05105260751719057</v>
+        <v>0.08029322047192833</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08940798318837957</v>
+        <v>0.09105244081176263</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1096499013897588</v>
+        <v>0.1342463276053715</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08436574477993608</v>
+        <v>0.09081929584117084</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1706052845191187</v>
+        <v>0.04248983970480515</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08505179187855845</v>
+        <v>0.09187237936189997</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02927860114939334</v>
+        <v>0.04222956661392387</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08847130967391376</v>
+        <v>0.09267126961722084</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05112522861604173</v>
+        <v>0.0798633388851773</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0901854439117568</v>
+        <v>0.09184420116664752</v>
       </c>
       <c r="L181" t="n">
-        <v>0.10966377287506</v>
+        <v>0.1339202746888315</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08509935995193552</v>
+        <v>0.09160902884848537</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1692360466395035</v>
+        <v>0.04222956661392387</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08579137267750242</v>
+        <v>0.09267126961722084</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02916494739309632</v>
+        <v>0.04196537118101527</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08923399337799921</v>
+        <v>0.09347015987254172</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05078648585666583</v>
+        <v>0.07944364152766878</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09096290463513401</v>
+        <v>0.0926359615215324</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1097762062753403</v>
+        <v>0.133586363457447</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08583297512393497</v>
+        <v>0.0923987618557999</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1686845669068235</v>
+        <v>0.04196537118101527</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08653095347644642</v>
+        <v>0.09347015987254172</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03204277785700545</v>
+        <v>0.04209702624379015</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08999667708208468</v>
+        <v>0.09426905012786257</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05053726318451618</v>
+        <v>0.07893507093367175</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09174036535851122</v>
+        <v>0.09342772187641731</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1100872206824864</v>
+        <v>0.1329422353948826</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08656659029593441</v>
+        <v>0.09318849486311442</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1696559357797844</v>
+        <v>0.04209702624379015</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0872705342753904</v>
+        <v>0.09426905012786257</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03191304277311808</v>
+        <v>0.04182430463995924</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09075936078617014</v>
+        <v>0.09506794038318345</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05087844454504614</v>
+        <v>0.07853856963745529</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09251782608188844</v>
+        <v>0.09421948223130219</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1095968351883859</v>
+        <v>0.133985531984803</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08730020546793385</v>
+        <v>0.09397822787042896</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1683552437170923</v>
+        <v>0.04182430463995924</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08801011507433439</v>
+        <v>0.09506794038318345</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02877669237343154</v>
+        <v>0.04154697920723335</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09152204449025561</v>
+        <v>0.09586683063850432</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05041091388370909</v>
+        <v>0.07845508017328848</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09329528680526565</v>
+        <v>0.09501124258618708</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1106050688849257</v>
+        <v>0.1333138947108728</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0880338206399333</v>
+        <v>0.09476796087774349</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1686875811774526</v>
+        <v>0.04154697920723335</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08874969587327837</v>
+        <v>0.09586683063850432</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03163467688994325</v>
+        <v>0.04156482278332323</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09228472819434107</v>
+        <v>0.09666572089382519</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05043555514595835</v>
+        <v>0.07748554507544031</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09407274752864286</v>
+        <v>0.09580300294107198</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1106119408639931</v>
+        <v>0.1324249650567568</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08876743581193275</v>
+        <v>0.09555769388505801</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1681580386195714</v>
+        <v>0.04156482278332323</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08948927667222235</v>
+        <v>0.09666572089382519</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03048794655465054</v>
+        <v>0.04127760820593963</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09304741189842654</v>
+        <v>0.09746461114914606</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05025325227724729</v>
+        <v>0.07693090687817994</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09485020825202008</v>
+        <v>0.09659476329595687</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1098174702174753</v>
+        <v>0.1327163845061194</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0895010509839322</v>
+        <v>0.09634742689237255</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1666717065021545</v>
+        <v>0.04127760820593963</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09022885747116635</v>
+        <v>0.09746461114914606</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02833745159955079</v>
+        <v>0.04088510831279339</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09381009560251199</v>
+        <v>0.09826350140446694</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04986488922302926</v>
+        <v>0.07699210811577628</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09562766897539729</v>
+        <v>0.09738652365084176</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1099216760372593</v>
+        <v>0.1315857945426253</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09023466615593163</v>
+        <v>0.09713715989968708</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1658336752839076</v>
+        <v>0.04088510831279339</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09096843827011032</v>
+        <v>0.09826350140446694</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03018414225664138</v>
+        <v>0.04078709594159519</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09457277930659747</v>
+        <v>0.09906239165978781</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0497713499287576</v>
+        <v>0.07617009132249844</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0964051296987745</v>
+        <v>0.09817828400572666</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1106245774152324</v>
+        <v>0.1319308366499392</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09096828132793107</v>
+        <v>0.0979268929070016</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1655490354235365</v>
+        <v>0.04078709594159519</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09170801906905432</v>
+        <v>0.09906239165978781</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03102896875791965</v>
+        <v>0.04028334393005586</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09533546301068292</v>
+        <v>0.09986128191510868</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04977351833988571</v>
+        <v>0.0756657990326155</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09718259042215172</v>
+        <v>0.09897004436061155</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1097261934432817</v>
+        <v>0.1314491523117257</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09170189649993052</v>
+        <v>0.09871662591431614</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1654228773797471</v>
+        <v>0.04028334393005586</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0924475998679983</v>
+        <v>0.09986128191510868</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02987288133538298</v>
+        <v>0.04007362511588619</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09609814671476839</v>
+        <v>0.1006601721704295</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04917227840186687</v>
+        <v>0.07538017378039646</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09796005114552893</v>
+        <v>0.09976180471549644</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1098248924138364</v>
+        <v>0.1303383830116494</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09243551167192997</v>
+        <v>0.09950635892163066</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1636602916112452</v>
+        <v>0.04007362511588619</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0931871806669423</v>
+        <v>0.1006601721704295</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03071683022102872</v>
+        <v>0.0403577123367969</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09686083041885385</v>
+        <v>0.1014590624257504</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04916851406015446</v>
+        <v>0.07511415810011038</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09873751186890614</v>
+        <v>0.1005535650703813</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1103763991733588</v>
+        <v>0.1290961702333749</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0931691268439294</v>
+        <v>0.1002960919289452</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1632663685767366</v>
+        <v>0.0403577123367969</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09392676146588627</v>
+        <v>0.1014590624257504</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02956176564685425</v>
+        <v>0.04013537843049876</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09762351412293931</v>
+        <v>0.1022579526810713</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04916310926020187</v>
+        <v>0.07506704355354687</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09951497259228337</v>
+        <v>0.1013453254252662</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1102635523145018</v>
+        <v>0.1290201554605668</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09390274201592885</v>
+        <v>0.1010858249362597</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1630461987349271</v>
+        <v>0.04013537843049876</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09466634226483027</v>
+        <v>0.1022579526810713</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02740863784485694</v>
+        <v>0.0394063962347026</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09838619782702478</v>
+        <v>0.1030568429363922</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04865694794746243</v>
+        <v>0.07473476815790872</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1002924333156606</v>
+        <v>0.1021370857801511</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1101898846277248</v>
+        <v>0.1290079801768899</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0946363571879283</v>
+        <v>0.1018755579435743</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1624048725445224</v>
+        <v>0.0394063962347026</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09540592306377425</v>
+        <v>0.1030568429363922</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03025839704703415</v>
+        <v>0.03927053858711914</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09914888153111023</v>
+        <v>0.103855733191713</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04855091406738946</v>
+        <v>0.07431619564663164</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1010698940390378</v>
+        <v>0.102928846135036</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1090589289034873</v>
+        <v>0.1277572858660087</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09536997235992774</v>
+        <v>0.1026652909508888</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1605474804642285</v>
+        <v>0.03927053858711914</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09614550386271824</v>
+        <v>0.103855733191713</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03011199348538324</v>
+        <v>0.03902757832545915</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0999115652351957</v>
+        <v>0.1046546234470339</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04834589156543637</v>
+        <v>0.07401035187453106</v>
       </c>
       <c r="K196" t="n">
-        <v>0.101847354762415</v>
+        <v>0.1037206064899209</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1093742179322485</v>
+        <v>0.1276657140115879</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09610358753192719</v>
+        <v>0.1034550239582033</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1598791129527512</v>
+        <v>0.03902757832545915</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09688508466166222</v>
+        <v>0.1046546234470339</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02797037739190156</v>
+        <v>0.03877033715504198</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1006742489392812</v>
+        <v>0.1054535137023548</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04834276438705647</v>
+        <v>0.07301626269642239</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1026248154857922</v>
+        <v>0.1045123668448058</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1094392845044679</v>
+        <v>0.1265309060972921</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09683720270392664</v>
+        <v>0.1042447569655178</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1596048604687961</v>
+        <v>0.03877033715504198</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09762466546060622</v>
+        <v>0.1054535137023548</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02683449899858652</v>
+        <v>0.03886581876655454</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1014369326433666</v>
+        <v>0.1062524039576756</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04814241647770312</v>
+        <v>0.07343295396712099</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1034022762091694</v>
+        <v>0.1053041271996907</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1088576614106049</v>
+        <v>0.1256505036067858</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09757081787592607</v>
+        <v>0.1050344899728324</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1580298134710692</v>
+        <v>0.03886581876655454</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0983642462595502</v>
+        <v>0.1062524039576756</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02970530853743548</v>
+        <v>0.0381136610345945</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1021996163474521</v>
+        <v>0.1070512942129965</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04784573178282969</v>
+        <v>0.07325945154144239</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1041797369325466</v>
+        <v>0.1060958875545756</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1082328814411188</v>
+        <v>0.1251221480237338</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09830443304792551</v>
+        <v>0.1058242229801469</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1567590624182763</v>
+        <v>0.0381136610345945</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09910382705849419</v>
+        <v>0.1070512942129965</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02958375624044576</v>
+        <v>0.03811841165501337</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1029623000515376</v>
+        <v>0.1078501844683174</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04775359424788951</v>
+        <v>0.07219478127420187</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1049571976559239</v>
+        <v>0.1068876479094605</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1077684773864691</v>
+        <v>0.1231434808318008</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09903804821992496</v>
+        <v>0.1066139559874614</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1568976977691231</v>
+        <v>0.03811841165501337</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09984340785743817</v>
+        <v>0.1078501844683174</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02847079233961475</v>
+        <v>0.03748461832366266</v>
       </c>
       <c r="G201" t="n">
-        <v>0.103724983755623</v>
+        <v>0.1086490747236382</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04726688781833596</v>
+        <v>0.0727379690202149</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1057346583793011</v>
+        <v>0.1076794082643454</v>
       </c>
       <c r="L201" t="n">
-        <v>0.107567982037115</v>
+        <v>0.1235121435146511</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09977166339192441</v>
+        <v>0.1074036889947759</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1550508099823156</v>
+        <v>0.03748461832366266</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1005829886563822</v>
+        <v>0.1086490747236382</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02836736706693984</v>
+        <v>0.03671682873639391</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1044876674597085</v>
+        <v>0.1094479649789591</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04738649643962237</v>
+        <v>0.0719880406342969</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1065121191026783</v>
+        <v>0.1084711686192302</v>
       </c>
       <c r="L202" t="n">
-        <v>0.106734928183516</v>
+        <v>0.1214405145749884</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1005052785639239</v>
+        <v>0.1081934220020905</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1558234895165593</v>
+        <v>0.03671682873639391</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1013225694553261</v>
+        <v>0.1094479649789591</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02627443065441836</v>
+        <v>0.03631959058905861</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1052503511637939</v>
+        <v>0.11024685523428</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04711330405720211</v>
+        <v>0.07214402197126321</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1072895798260555</v>
+        <v>0.1092629289741152</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1059728486161316</v>
+        <v>0.1187453677456022</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1012388937359233</v>
+        <v>0.108983155009405</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1544208268305604</v>
+        <v>0.03631959058905861</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1020621502542701</v>
+        <v>0.11024685523428</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02819293333404769</v>
+        <v>0.03589745157750826</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1060130348678794</v>
+        <v>0.1110457454896008</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04654819461652852</v>
+        <v>0.07210493888592936</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1080670405494327</v>
+        <v>0.110054689329</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1055852761254209</v>
+        <v>0.1155334564190014</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1019725089079227</v>
+        <v>0.1097728880167195</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1539479123830244</v>
+        <v>0.03589745157750826</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1028017310532141</v>
+        <v>0.1110457454896008</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02612382533782519</v>
+        <v>0.03525495939759438</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1067757185719649</v>
+        <v>0.1118446357449217</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04669205206305495</v>
+        <v>0.07186981723311064</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1088445012728099</v>
+        <v>0.1108464496838849</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1048757435018434</v>
+        <v>0.1113180802511287</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1027061240799222</v>
+        <v>0.1105626210240341</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1532098366326571</v>
+        <v>0.03525495939759438</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1035413118521581</v>
+        <v>0.1118446357449217</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02906805689774825</v>
+        <v>0.03459666174516851</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1075384022760503</v>
+        <v>0.1126435260002426</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04664576034223476</v>
+        <v>0.07143768286762256</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1096219619961871</v>
+        <v>0.1116382100387698</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1045477835358586</v>
+        <v>0.1060125388979266</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1034397392519216</v>
+        <v>0.1113523540313486</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1514116900381646</v>
+        <v>0.03459666174516851</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1042808926511021</v>
+        <v>0.1126435260002426</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0260265782458142</v>
+        <v>0.03432710631608211</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1083010859801358</v>
+        <v>0.1134424162555634</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04621020339952131</v>
+        <v>0.07060756164428048</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1103994227195643</v>
+        <v>0.1124299703936547</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1033049290179258</v>
+        <v>0.1008301320153378</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1041733544239211</v>
+        <v>0.1121420870386631</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1508585630582526</v>
+        <v>0.03432710631608211</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1050204734500461</v>
+        <v>0.1134424162555634</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02600033961402044</v>
+        <v>0.03395084080618675</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1090637696842213</v>
+        <v>0.1142413065108843</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04618626518036795</v>
+        <v>0.07067847941789979</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1111768834429416</v>
+        <v>0.1132217307485396</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1031507127385043</v>
+        <v>0.0971841592593049</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1049069695959205</v>
+        <v>0.1129318200459776</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1508555461516268</v>
+        <v>0.03395084080618675</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1057600542489901</v>
+        <v>0.1142413065108843</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02899029123436433</v>
+        <v>0.0329724129113339</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1098264533883067</v>
+        <v>0.1150401967662052</v>
       </c>
       <c r="J209" t="n">
-        <v>0.046274829630228</v>
+        <v>0.07074946204329596</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1119543441663188</v>
+        <v>0.1140134911034245</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1021886674880536</v>
+        <v>0.09088792028577047</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1056405847679199</v>
+        <v>0.1137215530532922</v>
       </c>
       <c r="N209" t="n">
-        <v>0.149507729776993</v>
+        <v>0.0329724129113339</v>
       </c>
       <c r="O209" t="n">
-        <v>0.106499635047934</v>
+        <v>0.1150401967662052</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02599022036291176</v>
+        <v>0.03229637032737509</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1105891370923922</v>
+        <v>0.1158390870215261</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04627663547422606</v>
+        <v>0.07021953537528439</v>
       </c>
       <c r="K210" t="n">
-        <v>0.112731804889696</v>
+        <v>0.1148052514583094</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1021223260570331</v>
+        <v>0.08635471475067719</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1063741999399194</v>
+        <v>0.1145112860606067</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1491202043930571</v>
+        <v>0.03229637032737509</v>
       </c>
       <c r="O210" t="n">
-        <v>0.107239215846878</v>
+        <v>0.1158390870215261</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.028990279636537</v>
+        <v>0.03202726075016184</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1113518207964777</v>
+        <v>0.1166379772768469</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04598367014614441</v>
+        <v>0.06948772526868044</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1135092656130732</v>
+        <v>0.1155970118131943</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1007552212359021</v>
+        <v>0.08279784230996767</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1071078151119188</v>
+        <v>0.1153010190679212</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1486980604585248</v>
+        <v>0.03202726075016184</v>
       </c>
       <c r="O211" t="n">
-        <v>0.107978796645822</v>
+        <v>0.1166379772768469</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02799044869912309</v>
+        <v>0.03146963187554563</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1121145045005631</v>
+        <v>0.1174368675321678</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04569096246422166</v>
+        <v>0.06955305757829955</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1142867263364504</v>
+        <v>0.1163887721680792</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1004908858151199</v>
+        <v>0.0800306026195845</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1078414302839183</v>
+        <v>0.1160907520752358</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1485463884321021</v>
+        <v>0.03146963187554563</v>
       </c>
       <c r="O212" t="n">
-        <v>0.108718377444766</v>
+        <v>0.1174368675321678</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02799078518947597</v>
+        <v>0.03102803139937799</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1128771882046486</v>
+        <v>0.1182357577874887</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04579855847379172</v>
+        <v>0.06981455815895718</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1150641870598276</v>
+        <v>0.1171805325229641</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09953285258514602</v>
+        <v>0.07796629533547028</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1085750454559177</v>
+        <v>0.1168804850825503</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1486702787724946</v>
+        <v>0.03102803139937799</v>
       </c>
       <c r="O213" t="n">
-        <v>0.10945795824371</v>
+        <v>0.1182357577874887</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0279913467464016</v>
+        <v>0.03050700701751045</v>
       </c>
       <c r="G214" t="n">
-        <v>0.113639871908734</v>
+        <v>0.1190346480428095</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04550650422018858</v>
+        <v>0.06947125286546865</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1158416477832048</v>
+        <v>0.117972292877849</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09868465433643978</v>
+        <v>0.07661654240009846</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1093086606279172</v>
+        <v>0.1176702180898648</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1483748219384083</v>
+        <v>0.03050700701751045</v>
       </c>
       <c r="O214" t="n">
-        <v>0.110197539042654</v>
+        <v>0.1190346480428095</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02799219100870593</v>
+        <v>0.03001110642579452</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1144025556128195</v>
+        <v>0.1198335382981304</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04551484574874617</v>
+        <v>0.06952216755264939</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1166191085065821</v>
+        <v>0.1187640532327339</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09854982385946057</v>
+        <v>0.07668361435790988</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1100422757999166</v>
+        <v>0.1184599510971794</v>
       </c>
       <c r="N215" t="n">
-        <v>0.147865108388549</v>
+        <v>0.03001110642579452</v>
       </c>
       <c r="O215" t="n">
-        <v>0.110937119841598</v>
+        <v>0.1198335382981304</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02799337561519492</v>
+        <v>0.02934487732008167</v>
       </c>
       <c r="G216" t="n">
-        <v>0.115165239316905</v>
+        <v>0.1206324285534513</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04562362910479839</v>
+        <v>0.06836632807531484</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1173965692299593</v>
+        <v>0.1195558135876188</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09823189394466789</v>
+        <v>0.07586034158619187</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1107758909719161</v>
+        <v>0.1192496841044939</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1480420517159728</v>
+        <v>0.02934487732008167</v>
       </c>
       <c r="O216" t="n">
-        <v>0.111676700640542</v>
+        <v>0.1206324285534513</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02899495820467449</v>
+        <v>0.02911286739622346</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1159279230209904</v>
+        <v>0.1214313188087721</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04543290033367926</v>
+        <v>0.06870276028828048</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1181740299533365</v>
+        <v>0.1203475739425036</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09723409572507638</v>
+        <v>0.07584660327862996</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1115095061439155</v>
+        <v>0.1200394171118084</v>
       </c>
       <c r="N217" t="n">
-        <v>0.148242063331434</v>
+        <v>0.02911286739622346</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1124162814394859</v>
+        <v>0.1214313188087721</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02699699641595061</v>
+        <v>0.02881962435007138</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1166906067250759</v>
+        <v>0.122230209064093</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04524270548072269</v>
+        <v>0.06783049004636155</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1189514906767137</v>
+        <v>0.1211393342973885</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09623983111933773</v>
+        <v>0.07594227862890979</v>
       </c>
       <c r="M218" t="n">
-        <v>0.112243121315915</v>
+        <v>0.1208291501191229</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1476421168997106</v>
+        <v>0.02881962435007138</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1131558622384299</v>
+        <v>0.122230209064093</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02599954788782922</v>
+        <v>0.02796969587747694</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1174532904291614</v>
+        <v>0.1230290993194139</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04495309059126262</v>
+        <v>0.06794854320437363</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1197289514000909</v>
+        <v>0.1219310946522734</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0957379540991227</v>
+        <v>0.07514724683071689</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1129767364879144</v>
+        <v>0.1216188831264375</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1479422447750585</v>
+        <v>0.02796969587747694</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1138954430373739</v>
+        <v>0.1230290993194139</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02800267025911627</v>
+        <v>0.02776762967429165</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1182159741332468</v>
+        <v>0.1238279895747347</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04506410171063301</v>
+        <v>0.06715594561713201</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1205064121234681</v>
+        <v>0.1227228550071583</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09572847101595242</v>
+        <v>0.07546138707773681</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1137103516599139</v>
+        <v>0.122408616133752</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1486424793117336</v>
+        <v>0.02776762967429165</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1146350238363179</v>
+        <v>0.1238279895747347</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02600642116861771</v>
+        <v>0.02781755209513029</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1189786578373323</v>
+        <v>0.1246268798300556</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04507578488416779</v>
+        <v>0.06725172313945219</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1212838728468454</v>
+        <v>0.1235146153620432</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09431138822134819</v>
+        <v>0.07398457856365503</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1144439668319133</v>
+        <v>0.1231983491410665</v>
       </c>
       <c r="N221" t="n">
-        <v>0.147642852863992</v>
+        <v>0.02781755209513029</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1153746046352619</v>
+        <v>0.1246268798300556</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02901085825513949</v>
+        <v>0.02728956651706842</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1197413415414178</v>
+        <v>0.1254257700853765</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04508818615720092</v>
+        <v>0.06723490162614951</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1220613335702226</v>
+        <v>0.1243063757169281</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09368671206683102</v>
+        <v>0.07521670048215728</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1151775820039127</v>
+        <v>0.1239880821483811</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1483433977860897</v>
+        <v>0.02728956651706842</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1161141854342059</v>
+        <v>0.1254257700853765</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02601603915748755</v>
+        <v>0.02726325041001154</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1205040252455032</v>
+        <v>0.1262246603406973</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04510135157506635</v>
+        <v>0.06720450693203942</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1228387942935998</v>
+        <v>0.125098136071813</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09295444890392204</v>
+        <v>0.07335763202692897</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1159111971759122</v>
+        <v>0.1247778151556956</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1481441464322829</v>
+        <v>0.02726325041001154</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1168537662331499</v>
+        <v>0.1262246603406973</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02702202151446786</v>
+        <v>0.02673878184962822</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1212667089495887</v>
+        <v>0.1270235505960182</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04491532718309801</v>
+        <v>0.06655979258424341</v>
       </c>
       <c r="K224" t="n">
-        <v>0.123616255016977</v>
+        <v>0.1258898964266979</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0923146050841426</v>
+        <v>0.07440725239165563</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1166448123479116</v>
+        <v>0.1255675481630101</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1490451311568272</v>
+        <v>0.02673878184962822</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1175933470320938</v>
+        <v>0.1270235505960182</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02702886296488635</v>
+        <v>0.02691633891158693</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1220293926536741</v>
+        <v>0.1278224408513391</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04483015902662985</v>
+        <v>0.06620420261267645</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1243937157403542</v>
+        <v>0.1266816567815828</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09266718695901374</v>
+        <v>0.07376544077002301</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1173784275199111</v>
+        <v>0.1263572811703246</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1480463843139789</v>
+        <v>0.02691633891158693</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1183329278310378</v>
+        <v>0.1278224408513391</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02603662114754896</v>
+        <v>0.02629609967155616</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1227920763577596</v>
+        <v>0.12862133110666</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04434589315099582</v>
+        <v>0.06543927830851051</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1251711764637314</v>
+        <v>0.1274734171364677</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09121220088005658</v>
+        <v>0.07393207635571641</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1181120426919105</v>
+        <v>0.1271470141776392</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1482479382579939</v>
+        <v>0.02629609967155616</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1190725086299818</v>
+        <v>0.12862133110666</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02904535370126168</v>
+        <v>0.0261782422052045</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1235547600618451</v>
+        <v>0.1294202213619808</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04426257560152987</v>
+        <v>0.06536512032163802</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1259486371871086</v>
+        <v>0.1282651774913526</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09034965319879243</v>
+        <v>0.07390703834242157</v>
       </c>
       <c r="M227" t="n">
-        <v>0.11884565786391</v>
+        <v>0.1279367471849537</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1483498253431282</v>
+        <v>0.0261782422052045</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1198120894289258</v>
+        <v>0.1294202213619808</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0280551182648304</v>
+        <v>0.02596294458820038</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1243174437659305</v>
+        <v>0.1302191116173017</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04468025242356592</v>
+        <v>0.06508182930195133</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1267260979104858</v>
+        <v>0.1290569378462375</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09067955026674232</v>
+        <v>0.07319020592382403</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1195792730359094</v>
+        <v>0.1287264801922682</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1485520779236378</v>
+        <v>0.02596294458820038</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1205516702278698</v>
+        <v>0.1302191116173017</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02706597247706111</v>
+        <v>0.02565038489621234</v>
       </c>
       <c r="G229" t="n">
-        <v>0.125080127470016</v>
+        <v>0.1310180018726226</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04449896966243795</v>
+        <v>0.06498950589934269</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1275035586338631</v>
+        <v>0.1298486982011224</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08980189843542749</v>
+        <v>0.07248145829360925</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1203128882079088</v>
+        <v>0.1295162131995828</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1480547283537788</v>
+        <v>0.02565038489621234</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1212912510268138</v>
+        <v>0.1310180018726226</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02707797397675975</v>
+        <v>0.02554074120490891</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1258428111741015</v>
+        <v>0.1318168921279435</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0445187733634799</v>
+        <v>0.06438825076370447</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1282810193572403</v>
+        <v>0.1306404585560073</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08851670405636905</v>
+        <v>0.07248067464546276</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1210465033799083</v>
+        <v>0.1303059462068973</v>
       </c>
       <c r="N230" t="n">
-        <v>0.148957808987807</v>
+        <v>0.02554074120490891</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1220308318257578</v>
+        <v>0.1318168921279435</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02709118040273228</v>
+        <v>0.02523419158995857</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1266054948781869</v>
+        <v>0.1326157823832643</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04393970957202568</v>
+        <v>0.06357816454492901</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1290584800806175</v>
+        <v>0.1314322189108921</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08862397348108816</v>
+        <v>0.07158773417307029</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1217801185519077</v>
+        <v>0.1310956792142118</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1491613521799786</v>
+        <v>0.02523419158995857</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1227704126247017</v>
+        <v>0.1326157823832643</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02910564939378462</v>
+        <v>0.02513091412702986</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1273681785822724</v>
+        <v>0.1334146726385852</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04416182433340929</v>
+        <v>0.06285934789290867</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1298359408039947</v>
+        <v>0.132223979265777</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08772371306110613</v>
+        <v>0.07170251607011729</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1225137337239072</v>
+        <v>0.1318854122215264</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1476653902845494</v>
+        <v>0.02513091412702986</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1235099934236457</v>
+        <v>0.1334146726385852</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02612143858872274</v>
+        <v>0.02503108689179129</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1281308622863579</v>
+        <v>0.134213562893906</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04378516369296463</v>
+        <v>0.06253190145753576</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1306134015273719</v>
+        <v>0.1330157396206619</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08631592914794387</v>
+        <v>0.07202489953028923</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1232473488959066</v>
+        <v>0.1326751452288409</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1478699556557756</v>
+        <v>0.02503108689179129</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1242495742225897</v>
+        <v>0.134213562893906</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02713860562635258</v>
+        <v>0.02473488795991133</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1288935459904433</v>
+        <v>0.1350124531492269</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04380977369602569</v>
+        <v>0.0628959258887026</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1313908622507491</v>
+        <v>0.1338074999755468</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08610062809312266</v>
+        <v>0.07145476374727183</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1239809640679061</v>
+        <v>0.1334648782361554</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1484750806479131</v>
+        <v>0.02473488795991133</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1249891550215337</v>
+        <v>0.1350124531492269</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02615720814548009</v>
+        <v>0.02444249540705852</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1296562296945288</v>
+        <v>0.1358113434045478</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04373570038792637</v>
+        <v>0.06145152183630159</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1321683229741263</v>
+        <v>0.1345992603304317</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08487781624816373</v>
+        <v>0.07229198791475056</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1247145792399055</v>
+        <v>0.1342546112434699</v>
       </c>
       <c r="N235" t="n">
-        <v>0.148180797615218</v>
+        <v>0.02444249540705852</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1257287358204777</v>
+        <v>0.1358113434045478</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02817730378491123</v>
+        <v>0.0246540873089014</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1304189133986143</v>
+        <v>0.1366102336598687</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04386298981400065</v>
+        <v>0.06179878995022503</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1329457836975036</v>
+        <v>0.1353910206853166</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08464749996458823</v>
+        <v>0.07103645122641095</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1254481944119049</v>
+        <v>0.1350443442507845</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1480871389119461</v>
+        <v>0.0246540873089014</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1264683166194217</v>
+        <v>0.1366102336598687</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02619895018345193</v>
+        <v>0.02426984174110842</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1311815971026997</v>
+        <v>0.1374091239151895</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04379168801958244</v>
+        <v>0.06063783088036526</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1337232444208808</v>
+        <v>0.1361827810402015</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08370968559391731</v>
+        <v>0.07178803287593855</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1261818095839044</v>
+        <v>0.135834077258099</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1480941368923536</v>
+        <v>0.02426984174110842</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1272078974183657</v>
+        <v>0.1374091239151895</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02822220497990815</v>
+        <v>0.02408993677934815</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1319442808067852</v>
+        <v>0.1382080141705104</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04372184105000573</v>
+        <v>0.0605687452766146</v>
       </c>
       <c r="K238" t="n">
-        <v>0.134500705144258</v>
+        <v>0.1369745413950864</v>
       </c>
       <c r="L238" t="n">
-        <v>0.082664379487672</v>
+        <v>0.07204661205701901</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1269154247559038</v>
+        <v>0.1366238102654135</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1486018239106964</v>
+        <v>0.02408993677934815</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1279474782173096</v>
+        <v>0.1382080141705104</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02924712581308584</v>
+        <v>0.02411455049928905</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1327069645108706</v>
+        <v>0.1390069044258313</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04345349495060444</v>
+        <v>0.0602916337888654</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1352781658676352</v>
+        <v>0.1377663017499713</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0822115879973736</v>
+        <v>0.07041206796333782</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1276490399279033</v>
+        <v>0.1374135432727281</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1485102323212306</v>
+        <v>0.02411455049928905</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1286870590162537</v>
+        <v>0.1390069044258313</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02927377032179094</v>
+        <v>0.02364386097659968</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1334696482149561</v>
+        <v>0.1398057946811521</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0437866957667125</v>
+        <v>0.05910659706701002</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1360556265910124</v>
+        <v>0.1385580621048562</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08105131747454328</v>
+        <v>0.07048427978858052</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1283826550999027</v>
+        <v>0.1382032762800426</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1485193944782121</v>
+        <v>0.02364386097659968</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1294266398151976</v>
+        <v>0.1398057946811521</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02630219614482941</v>
+        <v>0.02387804628694849</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1342323319190416</v>
+        <v>0.140604684936473</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0434214895436639</v>
+        <v>0.05931373576094076</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1368330873143896</v>
+        <v>0.1393498224597411</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0812835742707021</v>
+        <v>0.07156312672643272</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1291162702719022</v>
+        <v>0.1389930092873571</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1482293427358968</v>
+        <v>0.02387804628694849</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1301662206141416</v>
+        <v>0.140604684936473</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02733246092100718</v>
+        <v>0.02351728450600404</v>
       </c>
       <c r="G242" t="n">
-        <v>0.134995015623127</v>
+        <v>0.1414035751917939</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04315792232679255</v>
+        <v>0.05851315052055001</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1376105480377668</v>
+        <v>0.140141582814626</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08050836473737133</v>
+        <v>0.07144848797057995</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1298498854439016</v>
+        <v>0.1397827422946716</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1490401094485409</v>
+        <v>0.02351728450600404</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1309058014130856</v>
+        <v>0.1414035751917939</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02736462228913023</v>
+        <v>0.02326175370943484</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1357576993272125</v>
+        <v>0.1422024654471147</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04359604016143243</v>
+        <v>0.05810494199573002</v>
       </c>
       <c r="K243" t="n">
-        <v>0.138388008761144</v>
+        <v>0.1409333431695108</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07932569522607208</v>
+        <v>0.07084024271470768</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1305835006159011</v>
+        <v>0.1405724753019862</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1491517269704004</v>
+        <v>0.02326175370943484</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1316453822120296</v>
+        <v>0.1422024654471147</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02739873788800447</v>
+        <v>0.02291163197290939</v>
       </c>
       <c r="G244" t="n">
-        <v>0.136520383031298</v>
+        <v>0.1430013557024356</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04353588909291742</v>
+        <v>0.05708921083637319</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1391654694845213</v>
+        <v>0.1417251035243957</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07883557208832556</v>
+        <v>0.07103827015250153</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1313171157879005</v>
+        <v>0.1413622083093007</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1485642276557311</v>
+        <v>0.02291163197290939</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1323849630109736</v>
+        <v>0.1430013557024356</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02743486535643589</v>
+        <v>0.02286709737209619</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1372830667353834</v>
+        <v>0.1438002459577565</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04327751516658153</v>
+        <v>0.05696605769237187</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1399429302078985</v>
+        <v>0.1425168638792806</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07743800167565282</v>
+        <v>0.06974244947764713</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1320507309598999</v>
+        <v>0.1421519413166152</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1492776438587892</v>
+        <v>0.02286709737209619</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1331245438099176</v>
+        <v>0.1438002459577565</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0264730623332304</v>
+        <v>0.02312832798266376</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1380457504394689</v>
+        <v>0.1445991362130774</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04312096442775869</v>
+        <v>0.05663558321361833</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1407203909312757</v>
+        <v>0.1433086242341655</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07703299033957511</v>
+        <v>0.07065265988382985</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1327843461318994</v>
+        <v>0.1429416743239298</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1482920079338306</v>
+        <v>0.02312832798266376</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1338641246088615</v>
+        <v>0.1445991362130774</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02851338645719397</v>
+        <v>0.02259550188028062</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1388084341435543</v>
+        <v>0.1453980264683982</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04296628292178284</v>
+        <v>0.05579788805000505</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1414978516546529</v>
+        <v>0.1441003845890504</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07592054443161364</v>
+        <v>0.07046878056473543</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1335179613038988</v>
+        <v>0.1437314073312443</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1489073522351114</v>
+        <v>0.02259550188028062</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1346037054078055</v>
+        <v>0.1453980264683982</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02755589536713255</v>
+        <v>0.02246879714061527</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1395711178476398</v>
+        <v>0.1461969167237191</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0432135166939879</v>
+        <v>0.05505307285142419</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1422753123780301</v>
+        <v>0.1448921449439353</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07560067030328946</v>
+        <v>0.07009069071404939</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1342515764758983</v>
+        <v>0.1445211403385588</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1483237091168875</v>
+        <v>0.02246879714061527</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1353432862067495</v>
+        <v>0.1461969167237191</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02760064670185208</v>
+        <v>0.02264839183933622</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1403338015517253</v>
+        <v>0.1469958069790399</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04306271178970787</v>
+        <v>0.05490123826776822</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1430527731014073</v>
+        <v>0.1456839052988202</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07407337430612379</v>
+        <v>0.07061826952545724</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1349851916478977</v>
+        <v>0.1453108733458733</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1483411109334149</v>
+        <v>0.02264839183933622</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1360828670056935</v>
+        <v>0.1469958069790399</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02864769810015851</v>
+        <v>0.02233446405211199</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1410964852558107</v>
+        <v>0.1477946972343608</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04321391425427668</v>
+        <v>0.05384248494892938</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1438302338247845</v>
+        <v>0.1464756656537051</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07343866279163777</v>
+        <v>0.0705513961926445</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1357188068198972</v>
+        <v>0.1461006063531879</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1486595900389497</v>
+        <v>0.02233446405211199</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1368224478046375</v>
+        <v>0.1477946972343608</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02769710720085779</v>
+        <v>0.02232719185461107</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1418591689598962</v>
+        <v>0.1485935874896817</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04296717013302823</v>
+        <v>0.05417691354480006</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1446076945481617</v>
+        <v>0.14726742600859</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07249654211135262</v>
+        <v>0.07028994990929688</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1364524219918966</v>
+        <v>0.1468903393605024</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1489791787877477</v>
+        <v>0.02232719185461107</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1375620286035815</v>
+        <v>0.1485935874896817</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02874893164275589</v>
+        <v>0.021926753322502</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1426218526639817</v>
+        <v>0.1493924777450026</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04262252547129652</v>
+        <v>0.05360462470527261</v>
       </c>
       <c r="K252" t="n">
-        <v>0.145385155271539</v>
+        <v>0.1480591863634749</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07194701861678943</v>
+        <v>0.07033380986909971</v>
       </c>
       <c r="M252" t="n">
-        <v>0.137186037163896</v>
+        <v>0.1476800723678169</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1479999095340652</v>
+        <v>0.021926753322502</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1383016094025255</v>
+        <v>0.1493924777450026</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02680322906465871</v>
+        <v>0.0223333265314533</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1433845363680671</v>
+        <v>0.1501913680003234</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04308002631441547</v>
+        <v>0.05232571908023934</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1461626159949162</v>
+        <v>0.1488509467183598</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07089009865946941</v>
+        <v>0.06928285526573869</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1379196523358955</v>
+        <v>0.1484698053751315</v>
       </c>
       <c r="N253" t="n">
-        <v>0.147921814632158</v>
+        <v>0.0223333265314533</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1390411902014695</v>
+        <v>0.1501913680003234</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02786005710537224</v>
+        <v>0.02204708955713343</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1441472200721526</v>
+        <v>0.1509902582556443</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04293971870771902</v>
+        <v>0.05254029731959253</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1469400767182934</v>
+        <v>0.1496427070732447</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0704257885909137</v>
+        <v>0.06963696529289931</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1386532675078949</v>
+        <v>0.149259538382446</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1489449264362821</v>
+        <v>0.02204708955713343</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1397807710004134</v>
+        <v>0.1509902582556443</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02791947340370243</v>
+        <v>0.02216822047521093</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1449099037762381</v>
+        <v>0.1517891485109652</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04250164869654113</v>
+        <v>0.05154846007322467</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1477175374416706</v>
+        <v>0.1504344674281295</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06935409476264348</v>
+        <v>0.07059601914426722</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1393868826798944</v>
+        <v>0.1500492713897605</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1492692773006936</v>
+        <v>0.02216822047521093</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1405203517993574</v>
+        <v>0.1517891485109652</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02898153559845518</v>
+        <v>0.02189689736135433</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1456725874803235</v>
+        <v>0.152588038766286</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04286586232621575</v>
+        <v>0.05065030799102799</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1484949981650478</v>
+        <v>0.1512262277830144</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06837502352617991</v>
+        <v>0.06975989601352783</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1401204978518938</v>
+        <v>0.150839004397075</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1481948995796483</v>
+        <v>0.02189689736135433</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1412599325983014</v>
+        <v>0.152588038766286</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0280463013284365</v>
+        <v>0.02193329829123213</v>
       </c>
       <c r="G257" t="n">
-        <v>0.146435271184409</v>
+        <v>0.1533869290216069</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04273240564207682</v>
+        <v>0.05064594172289483</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1492724588884251</v>
+        <v>0.1520179881378994</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06718858123304416</v>
+        <v>0.06912847509436687</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1408541130238933</v>
+        <v>0.1516287374043896</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1488218256274025</v>
+        <v>0.02193329829123213</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1419995133972454</v>
+        <v>0.1533869290216069</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02911382823245231</v>
+        <v>0.02187760134051281</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1471979548884944</v>
+        <v>0.1541858192769278</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04290132468945829</v>
+        <v>0.04963546191871754</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1500499196118023</v>
+        <v>0.1528097484927843</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06689477423475734</v>
+        <v>0.06980163558046976</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1415877281958927</v>
+        <v>0.1524184704117041</v>
       </c>
       <c r="N258" t="n">
-        <v>0.148050087798212</v>
+        <v>0.02187760134051281</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1427390941961894</v>
+        <v>0.1541858192769278</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02718417394930855</v>
+        <v>0.02162998458486493</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1479606385925799</v>
+        <v>0.1549847095322487</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04267266551369409</v>
+        <v>0.04921896922838848</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1508273803351795</v>
+        <v>0.1536015088476691</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06539360888284068</v>
+        <v>0.07007925666552206</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1423213433678922</v>
+        <v>0.1532082034190186</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1491797184463328</v>
+        <v>0.02162998458486493</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1434786749951334</v>
+        <v>0.1549847095322487</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02825739611781119</v>
+        <v>0.02189062609995694</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1487233222966654</v>
+        <v>0.1557835997875695</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04234647416011818</v>
+        <v>0.04789656430179995</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1516048410585567</v>
+        <v>0.154393269202554</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06528509152881531</v>
+        <v>0.0703612175432094</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1430549585398916</v>
+        <v>0.1539979364263332</v>
       </c>
       <c r="N260" t="n">
-        <v>0.149210749926021</v>
+        <v>0.02189062609995694</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1442182557940773</v>
+        <v>0.1557835997875695</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03033355237676615</v>
+        <v>0.02185970396145741</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1494860060007508</v>
+        <v>0.1565824900428904</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04232279667406449</v>
+        <v>0.04826834778884431</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1523823017819339</v>
+        <v>0.1551850295574389</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0633692285242024</v>
+        <v>0.06904739740721727</v>
       </c>
       <c r="M261" t="n">
-        <v>0.143788573711891</v>
+        <v>0.1547876694336477</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1495432145915325</v>
+        <v>0.02185970396145741</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1449578365930214</v>
+        <v>0.1565824900428904</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03041270036497942</v>
+        <v>0.02143739624503482</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1502486897048363</v>
+        <v>0.1573813802982112</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04240167910086699</v>
+        <v>0.04693442033941389</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1531597625053111</v>
+        <v>0.1559767899123238</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06344602622052312</v>
+        <v>0.06983767545123132</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1445221888838905</v>
+        <v>0.1555774024409622</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1480771447971234</v>
+        <v>0.02143739624503482</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1456974173919653</v>
+        <v>0.1573813802982112</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02849489772125691</v>
+        <v>0.02152388102635772</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1510113734089218</v>
+        <v>0.1581802705535321</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04228316748585961</v>
+        <v>0.04649488260340107</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1539372232286883</v>
+        <v>0.1567685502672087</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06251549096929859</v>
+        <v>0.07043193086893695</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1452558040558899</v>
+        <v>0.1563671354482767</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1497125728970496</v>
+        <v>0.02152388102635772</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1464369981909093</v>
+        <v>0.1581802705535321</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02958020208440459</v>
+        <v>0.02141933638109456</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1517740571130072</v>
+        <v>0.158979160808853</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0426673078743763</v>
+        <v>0.0456498352306981</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1547146839520655</v>
+        <v>0.1575603106220936</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06107762912204998</v>
+        <v>0.06983004285401984</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1459894192278894</v>
+        <v>0.1571568684555913</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1487495312455672</v>
+        <v>0.02141933638109456</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1471765789898533</v>
+        <v>0.158979160808853</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.0516112843401877</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.0516112843401877</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.08257805494430032</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1065577706041126</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02561330622407687</v>
+        <v>0.03996677060411261</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0158969541890738</v>
+        <v>0.0151956663124719</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001959322090412413</v>
+        <v>7.680805266916529e-05</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007988902553208694</v>
+        <v>0.0005572289526512313</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005719407640613017</v>
+        <v>0.002026367351014691</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007917603548848924</v>
+        <v>0.0007988902553208694</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006254174787378386</v>
+        <v>0.005053209259149094</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007897330073145291</v>
+        <v>0.0007867663349338198</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001959322090412413</v>
+        <v>0.008854679825249567</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007988902553208694</v>
+        <v>0.0007916142155470524</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004451352593817084</v>
+        <v>0.0003031386131162814</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001597780510641739</v>
+        <v>0.001114457905302463</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01197627554416519</v>
+        <v>0.00361296269774547</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001583520709769785</v>
+        <v>0.001597780510641739</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01740899999999995</v>
+        <v>0.01040899999999997</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001927809533081366</v>
+        <v>0.00164333704666523</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004451352593817084</v>
+        <v>0.01671847756306749</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001597780510641739</v>
+        <v>0.001583228431094105</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006059259776962103</v>
+        <v>0.000672851285000782</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002396670765962608</v>
+        <v>0.001671686857953694</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0167301972876242</v>
+        <v>0.005810373834818708</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002375281064654677</v>
+        <v>0.002396670765962608</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01998850045085981</v>
+        <v>0.01405494140422567</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002369199021943587</v>
+        <v>0.002360299004801459</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.006059259776962103</v>
+        <v>0.02612843051955793</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002396670765962608</v>
+        <v>0.002374842646641157</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008166211906595541</v>
+        <v>0.001179805671982101</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003195561021283478</v>
+        <v>0.002228915810604925</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02174076644795755</v>
+        <v>0.007469188556860823</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00316704141953957</v>
+        <v>0.003195561021283478</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02553522451783224</v>
+        <v>0.01807150302531169</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003158932029258116</v>
+        <v>0.003147065339735279</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.008166211906595541</v>
+        <v>0.0343215760008253</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003195561021283478</v>
+        <v>0.00316645686218821</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.007128997065217389</v>
+        <v>0.01345371544615632</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01640899999999999</v>
+        <v>0.03096677060411262</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009955377249465422</v>
+        <v>0.001817861377719672</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003994451276604347</v>
+        <v>0.002786144763256157</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02686757660213299</v>
+        <v>0.009408999999999987</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003958801774424462</v>
+        <v>0.004087801413043472</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03102173736098596</v>
+        <v>0.02148058079151291</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003948665036572645</v>
+        <v>0.003933831674669099</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.009955377249465422</v>
+        <v>0.04073495131297367</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003994451276604347</v>
+        <v>0.003958071077735262</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01180992407231987</v>
+        <v>0.002580878005872908</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004793341531925216</v>
+        <v>0.003343373715907388</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03097022132711805</v>
+        <v>0.01044876335835399</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004750562129309355</v>
+        <v>0.004793341531925216</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03654213209442486</v>
+        <v>0.02537287314072859</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004738398043887174</v>
+        <v>0.004720598009602919</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01180992407231987</v>
+        <v>0.04770559376210742</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004793341531925216</v>
+        <v>0.004749685293282314</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01371302064190692</v>
+        <v>0.003462715160101271</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005592231787246086</v>
+        <v>0.003900602668558619</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03510829419988035</v>
+        <v>0.01199430680583284</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005542322484194247</v>
+        <v>0.005592231787246086</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04149050183225317</v>
+        <v>0.0285390785108581</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005528131051201704</v>
+        <v>0.005507364344536738</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01371302064190692</v>
+        <v>0.05367054065433075</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005592231787246086</v>
+        <v>0.005541299508829367</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01504783522497465</v>
+        <v>0.004457232444064173</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006391122042566955</v>
+        <v>0.004457831621209851</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03884138879738755</v>
+        <v>0.01298191834252786</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006334082839079139</v>
+        <v>0.006391122042566955</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04776093968857476</v>
+        <v>0.03206989533980065</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006317864058516233</v>
+        <v>0.006294130679470558</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01504783522497465</v>
+        <v>0.05926682929574795</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006391122042566955</v>
+        <v>0.006332913724376419</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01640899999999999</v>
+        <v>0.005558289461421041</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007128997065217389</v>
+        <v>0.005015060573861083</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04202909869660715</v>
+        <v>0.01421569341353227</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007125843193964032</v>
+        <v>0.007190012297887824</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05104753877749385</v>
+        <v>0.03625602206545561</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007107597065830761</v>
+        <v>0.007080897014404378</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01640899999999999</v>
+        <v>0.0625314969924633</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007128997065217389</v>
+        <v>0.007124527939923471</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01720313487877992</v>
+        <v>0.006759745815831324</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007988902553208693</v>
+        <v>0.005572289526512314</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04440899999999998</v>
+        <v>0.01569972746393926</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007869646792698229</v>
+        <v>0.007988902553208693</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05644439221311454</v>
+        <v>0.03948815712572226</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007897330073145289</v>
+        <v>0.007867663349338198</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01720313487877992</v>
+        <v>0.066409</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007988902553208693</v>
+        <v>0.007666823422022647</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01851185313811135</v>
+        <v>0.00805546111095444</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008787792808529562</v>
+        <v>0.006129518479163545</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04617313061321149</v>
+        <v>0.01673811593884207</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008709363903733816</v>
+        <v>0.008787792808529562</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06154559310954072</v>
+        <v>0.04215699895849997</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008687063080459819</v>
+        <v>0.008654429684272017</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01851185313811135</v>
+        <v>0.06970973431580607</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008787792808529562</v>
+        <v>0.008707756371017577</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0195382046529594</v>
+        <v>0.009439294950449817</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006686747431814776</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01783495428333394</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009586683063850432</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04732599638017643</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009501124258618709</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06514523458087673</v>
+        <v>0.04525324600168787</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009476796087774348</v>
+        <v>0.009441196019205837</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0195382046529594</v>
+        <v>0.07208465448863277</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009586683063850432</v>
+        <v>0.009499370586564629</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02039644220499003</v>
+        <v>0.01090510693797691</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007243976384466007</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01869433794250808</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.0103855733191713</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04866561336818861</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.0102928846135036</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.0686374097412264</v>
+        <v>0.04806759669318539</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01026652909508888</v>
+        <v>0.01022796235413966</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02039644220499003</v>
+        <v>0.07365385208098008</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0103855733191713</v>
+        <v>0.01029098480211168</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02090081857586921</v>
+        <v>0.01244675667719513</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007801205337117239</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.02002036236145771</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01118446357449217</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04976750834991572</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01108464496838849</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07381621170469382</v>
+        <v>0.05019074947089178</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01105626210240341</v>
+        <v>0.01101472868907348</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02090081857586921</v>
+        <v>0.07532496258270754</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01118446357449217</v>
+        <v>0.01108259901765873</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02176558654726288</v>
+        <v>0.01405810377176393</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008358434289768471</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02091712298527605</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01198335382981304</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0511072080980256</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01187640532327339</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.0768757335853833</v>
+        <v>0.05311340277270638</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01184599510971794</v>
+        <v>0.0118014950240073</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02176558654726288</v>
+        <v>0.07850562148367429</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01198335382981304</v>
+        <v>0.01187421323320579</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02230499890083704</v>
+        <v>0.0157330078253427</v>
       </c>
       <c r="G81" t="n">
+        <v>0.008915663242419701</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02168871525905633</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01278224408513391</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.0527602393851859</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01266816567815828</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.0797100684973987</v>
+        <v>0.05463741568253536</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01263572811703247</v>
+        <v>0.01232280983834846</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02230499890083704</v>
+        <v>0.08050346427373978</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01278224408513391</v>
+        <v>0.01266582744875284</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0232333084182576</v>
+        <v>0.01746532844159091</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009472892195070933</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02283923462789177</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01358113434045478</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05463741568253536</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01383172532875848</v>
-      </c>
       <c r="L82" t="n">
+        <v>0.05711540962079747</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01337502769387494</v>
+      </c>
+      <c r="N82" t="n">
         <v>0.08366152514099384</v>
       </c>
-      <c r="M82" t="n">
-        <v>0.01323481989766662</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0232333084182576</v>
-      </c>
       <c r="O82" t="n">
-        <v>0.01358113434045478</v>
+        <v>0.01379800372309924</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02406476788119057</v>
+        <v>0.01924892522416798</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01003012114772217</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02377277653687558</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01438002459577565</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05459024476601909</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01425168638792806</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.085972718859959</v>
+        <v>0.05888828699825305</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01421519413166152</v>
+        <v>0.01416179402880876</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02406476788119057</v>
+        <v>0.08355187590291357</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01438002459577565</v>
+        <v>0.01424905587984694</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02491363007130189</v>
+        <v>0.02107765777673335</v>
       </c>
       <c r="G84" t="n">
+        <v>0.0105873501003734</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02459343643110101</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01517891485109652</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05587137021254462</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01504344674281296</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08943330464481231</v>
+        <v>0.06145455763993404</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01500492713897605</v>
+        <v>0.01494856036374258</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02491363007130189</v>
+        <v>0.08640539087708449</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01517891485109652</v>
+        <v>0.015040670095394</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02294538570294644</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01114457905302463</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.02561330622407687</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.0158969541890738</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05772772325304321</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01583520709769785</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09339728573527389</v>
+        <v>0.06321158201564231</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01579466014629058</v>
+        <v>0.0157353266986764</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02561330622407687</v>
+        <v>0.08966393694298669</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0158969541890738</v>
+        <v>0.01583228431094105</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02601211942985709</v>
+        <v>0.02484596860646667</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01170180800567586</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02662853780220746</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01677669536173826</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.0600527374912479</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01662696745258274</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09615958456594675</v>
+        <v>0.06475672059517953</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01658439315360511</v>
+        <v>0.01652209303361021</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02601211942985709</v>
+        <v>0.09211790501697525</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01677669536173826</v>
+        <v>0.0166238985264881</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02716332165881061</v>
+        <v>0.02677326609095349</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01225903695832709</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02737233444033499</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01757558561705912</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06173984653089185</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01741872780746763</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1002151235714339</v>
+        <v>0.0666873338483476</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01737412616091964</v>
+        <v>0.01730885936854403</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02716332165881061</v>
+        <v>0.09435768601540523</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01757558561705912</v>
+        <v>0.01741551274203515</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02814422001549693</v>
+        <v>0.02872113776006634</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01281626591097832</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02803392441632757</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01837447587237999</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06278248397570824</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01821048816235252</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1019588251863385</v>
+        <v>0.06910078224494828</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01816385916823417</v>
+        <v>0.01809562570347786</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02814422001549693</v>
+        <v>0.09627367085463151</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01837447587237999</v>
+        <v>0.01820712695758221</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02885132117167437</v>
+        <v>0.03096677060411262</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01345371544615632</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02921038497006653</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01917336612770086</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06487408342943013</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01900224851723742</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1048856118452634</v>
+        <v>0.07079442625478322</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0189535921755487</v>
+        <v>0.01888239203841167</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02885132117167437</v>
+        <v>0.09985625045100943</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01917336612770086</v>
+        <v>0.01899874117312926</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02978113179910129</v>
+        <v>0.0333096082816858</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01393072381628079</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02999879334143328</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01997225638302174</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06630807849579068</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01979400887212231</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1093904059828119</v>
+        <v>0.07356562634765443</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01974332518286323</v>
+        <v>0.0196691583733455</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02978113179910129</v>
+        <v>0.102795815720894</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01997225638302174</v>
+        <v>0.01979035538867631</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03053015856953596</v>
+        <v>0.03679217840203713</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01448795276893201</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0313962267703092</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02077114663834261</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06857790277852299</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0205857692270072</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1124681300335869</v>
+        <v>0.07561174299336351</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02053305819017776</v>
+        <v>0.02045592470827931</v>
       </c>
       <c r="N91" t="n">
-        <v>0.03053015856953596</v>
+        <v>0.1049827575806401</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02077114663834261</v>
+        <v>0.02058196960422336</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03199490815473675</v>
+        <v>0.03996677060411261</v>
       </c>
       <c r="G92" t="n">
+        <v>0.0151956663124719</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0323997624965757</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02157003689366347</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06997698988136025</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02137752958189209</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1151137064321914</v>
+        <v>0.07683013666171229</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02132279119749228</v>
+        <v>0.02124269104321313</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03199490815473675</v>
+        <v>0.107907466946603</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02157003689366347</v>
+        <v>0.02137358381977042</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03297188722646201</v>
+        <v>0.04080603174950832</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01560241067423448</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03350647776011415</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02236892714898434</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07279877340803556</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02216928993677699</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1185220576132286</v>
+        <v>0.07911816782250261</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02211252420480682</v>
+        <v>0.02202945737814695</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03297188722646201</v>
+        <v>0.1111603347351376</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02236892714898434</v>
+        <v>0.02216519803531747</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03355760245647003</v>
+        <v>0.04188680639873451</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01615963962688571</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03441344980080592</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02316781740430521</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.073736686962282</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02296105029166188</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1202881060113014</v>
+        <v>0.08077319694553622</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02290225721212134</v>
+        <v>0.02281622371308078</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03355760245647003</v>
+        <v>0.1136317518625992</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02316781740430521</v>
+        <v>0.02295681225086452</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03474856051651917</v>
+        <v>0.04289121332126786</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01671686857953694</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.03531775585853242</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02396670765962608</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07568416414783274</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02375281064654677</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.124306774061013</v>
+        <v>0.08259258450061491</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02369199021943587</v>
+        <v>0.02360299004801459</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03474856051651917</v>
+        <v>0.1177121092453426</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02396670765962608</v>
+        <v>0.02374842646641157</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03544126807836774</v>
+        <v>0.04382298130259651</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01727409753218817</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03631647317317505</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02476559791494695</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07773463856842094</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02454457100143166</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1269729841969664</v>
+        <v>0.08407369095754044</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0244817232267504</v>
+        <v>0.02438975638294841</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03544126807836774</v>
+        <v>0.1199917977997231</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02476559791494695</v>
+        <v>0.02454004068195862</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03683223181377407</v>
+        <v>0.04468583912820858</v>
       </c>
       <c r="G97" t="n">
+        <v>0.0178313264848394</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03710667898461516</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02556448817026782</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07988154382777965</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02533633135631656</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1300816588537646</v>
+        <v>0.08641387678611465</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02527145623406493</v>
+        <v>0.02517652271788223</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03683223181377407</v>
+        <v>0.1223612084420956</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02556448817026782</v>
+        <v>0.02533165489750568</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03791795839449652</v>
+        <v>0.04548351558359224</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01838855543749063</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03818545053273419</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02636337842558869</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.08211831352964208</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02612809171120145</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1314277204660106</v>
+        <v>0.0875105024561392</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02606118924137946</v>
+        <v>0.02596328905281605</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03791795839449652</v>
+        <v>0.1269107320888151</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02636337842558869</v>
+        <v>0.02612326911305273</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03889495449229337</v>
+        <v>0.04621973945423562</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01894578439014187</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03894986505741348</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02716226868090956</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.08343838127774131</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02691985206608634</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1348060914683076</v>
+        <v>0.08916092843741599</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02685092224869398</v>
+        <v>0.02675005538774987</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03889495449229337</v>
+        <v>0.128730759656237</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02716226868090956</v>
+        <v>0.02691488332859978</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03975972677892299</v>
+        <v>0.04689823952562689</v>
       </c>
       <c r="G100" t="n">
+        <v>0.0195030133427931</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.04029699979853443</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02796115893623043</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0853351806758105</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02771161242097123</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1368116942952585</v>
+        <v>0.09086251519974683</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02764065525600852</v>
+        <v>0.02753682172268369</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03975972677892299</v>
+        <v>0.131311682060716</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02796115893623043</v>
+        <v>0.02770649754414683</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04050878192614371</v>
+        <v>0.04752274458325417</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02006024229544433</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04082393199597846</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02876004919155129</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08810214532758279</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02850337277585613</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1398394513814664</v>
+        <v>0.09221262321293336</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02843038826332304</v>
+        <v>0.02832358805761751</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04050878192614371</v>
+        <v>0.1342438902186074</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02876004919155129</v>
+        <v>0.02849811175969388</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04133862660571383</v>
+        <v>0.04809698341260561</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02061747124809556</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04172773888962691</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02955893944687217</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08963270883679123</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02929513313074102</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1418842851615344</v>
+        <v>0.09430861294677753</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02922012127063757</v>
+        <v>0.02911035439255133</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04133862660571383</v>
+        <v>0.1377177750462662</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02955893944687217</v>
+        <v>0.02928972597524094</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04244576748939169</v>
+        <v>0.04862468479916935</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02117470020074679</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.04280549771936121</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03035782970219304</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.091720304807169</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03008689348562591</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1453411180700656</v>
+        <v>0.09574784487108098</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0300098542779521</v>
+        <v>0.02989712072748515</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04244576748939169</v>
+        <v>0.1410237274600474</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03035782970219304</v>
+        <v>0.03008134019078799</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04322671124893565</v>
+        <v>0.04910957752843356</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02173192915339802</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.04345428572506271</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03115671995751391</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09335836684244922</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03087865384051081</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1471048725416628</v>
+        <v>0.09692767945564565</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03079958728526663</v>
+        <v>0.03068388706241897</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04322671124893565</v>
+        <v>0.1433521383763061</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03115671995751391</v>
+        <v>0.03087295440633504</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04397796455610399</v>
+        <v>0.04955539038588638</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02228915810604926</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04447118014661282</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03195561021283477</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09474032854636502</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03167041419539569</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1493704710109293</v>
+        <v>0.0980454771702732</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03158932029258116</v>
+        <v>0.03147065339735279</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04397796455610399</v>
+        <v>0.1455933987113974</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03195561021283477</v>
+        <v>0.0316645686218821</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04489603408265511</v>
+        <v>0.04996585215701594</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02284638705870048</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04525325822389292</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03275450046815565</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.09635962352264951</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03246217455028059</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.151532835912468</v>
+        <v>0.09969859848476545</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03237905329989569</v>
+        <v>0.03225741973228661</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04489603408265511</v>
+        <v>0.1471378993816763</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03275450046815565</v>
+        <v>0.03245618283742915</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04597742650034725</v>
+        <v>0.05034469162731039</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02340361601135172</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04619759719678443</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03355339072347651</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09790968537503589</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03325393490516548</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1529868896808821</v>
+        <v>0.1008844038689241</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03316878630721022</v>
+        <v>0.03304418606722043</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04597742650034725</v>
+        <v>0.149376031303498</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03355339072347651</v>
+        <v>0.0332477970529762</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04621864848093882</v>
+        <v>0.05069563758225786</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02396084496400295</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.04700127430516868</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03435228097879738</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.09928394770725726</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03404569526005037</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1558275547507745</v>
+        <v>0.1022002537925512</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03395851931452475</v>
+        <v>0.03383095240215425</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04621864848093882</v>
+        <v>0.1527981853932174</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03435228097879738</v>
+        <v>0.03403941126852326</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04731620669618812</v>
+        <v>0.05102241880734652</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02451807391665418</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04716136678892709</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03515117123411825</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1011758441230467</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03483745561493527</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1561497535567484</v>
+        <v>0.1028435087254482</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03474825232183928</v>
+        <v>0.03461771873708807</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04731620669618812</v>
+        <v>0.1548947525671898</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03515117123411825</v>
+        <v>0.03483102548407031</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04796660781785346</v>
+        <v>0.05132876408806452</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02507530286930541</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04807495188794106</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03595006148943912</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1024788082261374</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03562921596982016</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1587484085334066</v>
+        <v>0.1033115291374171</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03553798532915381</v>
+        <v>0.03540448507202189</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04796660781785346</v>
+        <v>0.1568561237417699</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03595006148943912</v>
+        <v>0.03562263969961735</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04856635851769321</v>
+        <v>0.05161840220989999</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02563253182195664</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04833910684209194</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03674895174475998</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1037862736202624</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03642097632470505</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1597184421153524</v>
+        <v>0.1046016754982596</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03632771833646833</v>
+        <v>0.03619125140695571</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04856635851769321</v>
+        <v>0.1590726898333132</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03674895174475998</v>
+        <v>0.03641425391516441</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04871196546746567</v>
+        <v>0.05189506195834107</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02618976077460787</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04925090889126117</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03754784200008086</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1040916739091549</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03721273667958994</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1609547767371888</v>
+        <v>0.1052113082777775</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03711745134378287</v>
+        <v>0.03697801774188952</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04871196546746567</v>
+        <v>0.1598348417581744</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03754784200008086</v>
+        <v>0.03720586813071146</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04919993533892919</v>
+        <v>0.05216336271453764</v>
       </c>
       <c r="G113" t="n">
+        <v>0.0267469897272591</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04970743527533007</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03834673225540173</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1051884426965481</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03800449703447484</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1631523348335187</v>
+        <v>0.1064377879457726</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03790718435109739</v>
+        <v>0.03776478407682335</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04919993533892919</v>
+        <v>0.1614329704327087</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03834673225540173</v>
+        <v>0.03799748234625851</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05012677480384208</v>
+        <v>0.05242838399428989</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02730421867991034</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04980576323418009</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0391456225107226</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1062700135861749</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03879625738935973</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1632060388389453</v>
+        <v>0.1065784749720467</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03869691735841192</v>
+        <v>0.03855155041175717</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05012677480384208</v>
+        <v>0.1621574667732712</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0391456225107226</v>
+        <v>0.03878909656180557</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05008899053396268</v>
+        <v>0.05269037580772277</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02786144763256157</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0500429700076926</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03994451276604347</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1067298201817686</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03958801774424462</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1636108111880716</v>
+        <v>0.1075307298264015</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03948665036572645</v>
+        <v>0.03933831674669099</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05008899053396268</v>
+        <v>0.1643987216962171</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03994451276604347</v>
+        <v>0.03958071077735262</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0505830892010493</v>
+        <v>0.05294924851629997</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0284186765852128</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.05051613283574899</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04074340302136434</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1071612960870624</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04037977809912951</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1653615743155006</v>
+        <v>0.108291912978639</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04027638337304098</v>
+        <v>0.04012508308162481</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0505830892010493</v>
+        <v>0.1644471261179011</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04074340302136434</v>
+        <v>0.04037232499289967</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05080557747686029</v>
+        <v>0.05320491248148519</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02897590553786403</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.05062232895823061</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04154229327668521</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1082578749057892</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0411715384540144</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1654532506558355</v>
+        <v>0.1085593848985607</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04106611638035551</v>
+        <v>0.04091184941655863</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05080557747686029</v>
+        <v>0.1660930709546785</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04154229327668521</v>
+        <v>0.04116393920844672</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.050652962033154</v>
+        <v>0.0534572780647421</v>
       </c>
       <c r="G118" t="n">
+        <v>0.02953313449051527</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.05085863561501891</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04234118353200608</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1089129902416824</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.0419632988088993</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1656807626436791</v>
+        <v>0.1089305060559685</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04185584938767004</v>
+        <v>0.04169861575149245</v>
       </c>
       <c r="N118" t="n">
-        <v>0.050652962033154</v>
+        <v>0.1657269471229045</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04234118353200608</v>
+        <v>0.04195555342399378</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.05370625562753443</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03009036344316649</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.05122661244815373</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04314007378732695</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.1092748313650707</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04275505916378419</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
+        <v>0.04248538208642626</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.1673230502819877</v>
       </c>
-      <c r="M119" t="n">
-        <v>0.04264558239498457</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.05122661244815373</v>
-      </c>
       <c r="O119" t="n">
-        <v>0.04314007378732695</v>
+        <v>0.04274716763954083</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05092244998663949</v>
+        <v>0.05395175553132584</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03064759239581772</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.05082448456530575</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04393896404264781</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1091741938880219</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04354681951866908</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1671230295585902</v>
+        <v>0.1092731379624496</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0434353154022991</v>
+        <v>0.04327214842136009</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05092244998663949</v>
+        <v>0.1660225380458332</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04393896404264781</v>
+        <v>0.04353878185508788</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05080059896041404</v>
+        <v>0.05419368813758007</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03120482134846896</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.05101324293834068</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04473785429796868</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.109044471654678</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04433857987355398</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1669941218214507</v>
+        <v>0.1086644949601282</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04422504840961363</v>
+        <v>0.04405891475629391</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05080059896041404</v>
+        <v>0.1656958624100377</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04473785429796868</v>
+        <v>0.04433039607063494</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05116087401424249</v>
+        <v>0.05443196380776078</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03176205030112018</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.05099264032230334</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04553674455328955</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1088716985688173</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04513034022843886</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1658117421811875</v>
+        <v>0.1083245148165229</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04501478141692816</v>
+        <v>0.04484568109122773</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05116087401424249</v>
+        <v>0.1657297951617646</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04553674455328955</v>
+        <v>0.04512201028618199</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05060423856187801</v>
+        <v>0.05466649290333169</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03231927925377142</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.05076301369033043</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04633563480861042</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.108457737097018</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04592210058332376</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1654778577412017</v>
+        <v>0.10825547368695</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04580451442424269</v>
+        <v>0.04563244742616155</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05060423856187801</v>
+        <v>0.1666258390628712</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04633563480861042</v>
+        <v>0.04591362450172903</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05083165601707386</v>
+        <v>0.05489718578575648</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03287650820642265</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.05062470001555859</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04713452506393129</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1086044497058581</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04671386093820865</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1657944356048943</v>
+        <v>0.1081584579339718</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04659424743155721</v>
+        <v>0.04641921376109537</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05083165601707386</v>
+        <v>0.1663854968752148</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04713452506393129</v>
+        <v>0.04670523871727609</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05084408979358321</v>
+        <v>0.05512395281649887</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03343373715907388</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.05067803627112456</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04793341531925216</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.108213698861916</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04750562129309354</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1665634428756662</v>
+        <v>0.1088345539201507</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04738398043887174</v>
+        <v>0.04720598009602919</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05084408979358321</v>
+        <v>0.1663102713606525</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04793341531925216</v>
+        <v>0.04749685293282314</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05074250330515929</v>
+        <v>0.05534670435702251</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03399096611172511</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.05082335943016501</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04873230557457303</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1084873470317696</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04829738164797844</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1659868466569185</v>
+        <v>0.1078848480080491</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04817371344618628</v>
+        <v>0.047992746430963</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05074250330515929</v>
+        <v>0.1665016652810417</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04873230557457303</v>
+        <v>0.04828846714837019</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05052785996555535</v>
+        <v>0.05556535076879116</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03454819506437635</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.05076100646581663</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.0495311958298939</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1080272566819972</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04908914200286333</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1651666140520524</v>
+        <v>0.1078104265602294</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0489634464535008</v>
+        <v>0.04877951276589682</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05052785996555535</v>
+        <v>0.1651611813982396</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0495311958298939</v>
+        <v>0.04908008136391725</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05030112318852457</v>
+        <v>0.05577980241326846</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03510542401702758</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.05039131435121612</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05033008608521477</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1072352902791767</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04988090235774822</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1641047121644686</v>
+        <v>0.107612375939254</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04975317946081533</v>
+        <v>0.04956627910083065</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05030112318852457</v>
+        <v>0.1650903224741034</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05033008608521477</v>
+        <v>0.0498716955794643</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05026325638782017</v>
+        <v>0.05598996965191812</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03566265296967881</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.05071462005950014</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05112897634053564</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1071133102898864</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05067266271263311</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1643031080975685</v>
+        <v>0.1079917825076854</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05054291246812986</v>
+        <v>0.05035304543576447</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05026325638782017</v>
+        <v>0.1650905912704904</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05112897634053564</v>
+        <v>0.05066330979501135</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04991522297719536</v>
+        <v>0.05619576284620387</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03621988192233003</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.05023126056380542</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05192786659585651</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1067631791807045</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05146442306751801</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.164263768954753</v>
+        <v>0.1070497326280858</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05133264547544439</v>
+        <v>0.05113981177069828</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04991522297719536</v>
+        <v>0.1643634905492577</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05192786659585651</v>
+        <v>0.05145492401055841</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04975798637040338</v>
+        <v>0.05639709235758936</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03677711087498127</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.05054157283726862</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05272675685117739</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1060867594182089</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.0522561834224029</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.163288661839423</v>
+        <v>0.1075873126630178</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05212237848275892</v>
+        <v>0.05192657810563211</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04975798637040338</v>
+        <v>0.1637105230722627</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05272675685117739</v>
+        <v>0.05224653822610546</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04999250998119741</v>
+        <v>0.05659386854753832</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03733433982763251</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.05034589385302644</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05352564710649824</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1063859134689779</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05304794377728779</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1622797538549797</v>
+        <v>0.1073056089750437</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05291211149007344</v>
+        <v>0.05271334444056593</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04999250998119741</v>
+        <v>0.1640331916013626</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05352564710649824</v>
+        <v>0.0530381524416525</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04951975722333068</v>
+        <v>0.05678600177751442</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03789156878028373</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.05024456058421559</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05432453736181912</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1052625037995897</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05383970413217268</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1620390121048239</v>
+        <v>0.106405707926726</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05370184449738797</v>
+        <v>0.05350011077549974</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04951975722333068</v>
+        <v>0.1638329988984146</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05432453736181912</v>
+        <v>0.05382976665719956</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04914069151055642</v>
+        <v>0.05697340240898138</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03844879773293496</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.05023791000397272</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05512342761713999</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1055183928766222</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05463146448705758</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.162368403692357</v>
+        <v>0.1063886958806268</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0544915775047025</v>
+        <v>0.05428687711043357</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04914069151055642</v>
+        <v>0.162511447725276</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05512342761713999</v>
+        <v>0.05462138087274662</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04895627625662782</v>
+        <v>0.0571559808034029</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03900602668558619</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.05022627908543455</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05592231787246086</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1044554431666536</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05542322484194247</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1607698957209798</v>
+        <v>0.1057556591993088</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05528131051201703</v>
+        <v>0.05507364344536738</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04895627625662782</v>
+        <v>0.1620700408438041</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05592231787246086</v>
+        <v>0.05541299508829366</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04916747487529813</v>
+        <v>0.05733364732224264</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03956325563823743</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04971000480173776</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05672120812778172</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1039755171362623</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05621498519682736</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1604454552940934</v>
+        <v>0.1056076842453344</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05607104351933156</v>
+        <v>0.05586040978030121</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04916747487529813</v>
+        <v>0.162410281015856</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05672120812778172</v>
+        <v>0.05620460930384072</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04857525078032053</v>
+        <v>0.05750631232696431</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04012048459088866</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04968942412601904</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05752009838310259</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.103380477252026</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05700674555171226</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1593970495150987</v>
+        <v>0.1053458573812658</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05686077652664609</v>
+        <v>0.05664717611523502</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04857525078032053</v>
+        <v>0.162533671003289</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05752009838310259</v>
+        <v>0.05699622351938777</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04888056738544826</v>
+        <v>0.05767388617903164</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04067771354353989</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04986487403141507</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05831898863842346</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1033721859805231</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05779850590659714</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1589266454873969</v>
+        <v>0.1048712649696656</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05765050953396061</v>
+        <v>0.05743394245016884</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04888056738544826</v>
+        <v>0.1614417135679603</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05831898863842346</v>
+        <v>0.05778783773493482</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04868438810443451</v>
+        <v>0.05783627923990829</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04123494249619112</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04933669149106254</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05911787889374433</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1031525057883318</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05859026626148203</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.159136210314389</v>
+        <v>0.104984993373096</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05844024254127515</v>
+        <v>0.05822070878510267</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04868438810443451</v>
+        <v>0.1604359114717273</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05911787889374433</v>
+        <v>0.05857945195048188</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04808767635103252</v>
+        <v>0.05799340187105795</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04179217144884235</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04950521347809815</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.0599167691490652</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.10162329914203</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05938202661636693</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.157427711099476</v>
+        <v>0.1036881289541195</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05922997554858968</v>
+        <v>0.05900747512003648</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04808767635103252</v>
+        <v>0.160017767476447</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0599167691490652</v>
+        <v>0.05937106616602893</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04799139553899549</v>
+        <v>0.05814516443394436</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04234940040149358</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04917077696565861</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06071565940438607</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1018864285081959</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06017378697125182</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1572031149460589</v>
+        <v>0.1039817580752987</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0600197085559042</v>
+        <v>0.05979424145497031</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04799139553899549</v>
+        <v>0.1590887843439769</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06071565940438607</v>
+        <v>0.06016268038157598</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04769650908207664</v>
+        <v>0.05829147729003118</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04290662935414482</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04933371892688057</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06151454965970694</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1015437563534078</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06096554732613671</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1562643889575389</v>
+        <v>0.1034669670991955</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06080944156321873</v>
+        <v>0.06058100778990412</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04769650908207664</v>
+        <v>0.1598504648361742</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06151454965970694</v>
+        <v>0.06095429459712304</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04760398039402917</v>
+        <v>0.05843225080078212</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04346385830679605</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04869437633490074</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06231343991502782</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1008971451442436</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06175730768102161</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1562135002373168</v>
+        <v>0.1030448423883728</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06159917457053327</v>
+        <v>0.06136777412483795</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04760398039402917</v>
+        <v>0.1579043117148959</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06231343991502782</v>
+        <v>0.06174590881267009</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04761477288860633</v>
+        <v>0.05856739532766089</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04402108725944728</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04905308616285582</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06311233017034867</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0999484573472815</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0625490680359065</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1549524158887938</v>
+        <v>0.1027164703053929</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06238890757784779</v>
+        <v>0.06215454045977176</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04761477288860633</v>
+        <v>0.1576518277419995</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06311233017034867</v>
+        <v>0.06253752302821713</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04702984997956132</v>
+        <v>0.05869682123213115</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04457831621209851</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04851018538388248</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06391122042566955</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09949955542909975</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06334082839079139</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1544831030153709</v>
+        <v>0.101882937212818</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06317864058516232</v>
+        <v>0.06294130679470558</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04702984997956132</v>
+        <v>0.1578945156793421</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06391122042566955</v>
+        <v>0.0633291372437642</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04705017508064734</v>
+        <v>0.05882043887565661</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04513554516474974</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04846601097111741</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06471011068099042</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09895230185627632</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06413258874567629</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1533075287204491</v>
+        <v>0.1017453294732105</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06396837359247685</v>
+        <v>0.06372807312963941</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04705017508064734</v>
+        <v>0.156433878288781</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06471011068099042</v>
+        <v>0.06412075145931125</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04697671160561762</v>
+        <v>0.05893815861970098</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04569277411740097</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04822089989769732</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06550900093631129</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09810855909538949</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06492434910056118</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1525276601074295</v>
+        <v>0.1009047334491331</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06475810659979138</v>
+        <v>0.06451483946457322</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04697671160561762</v>
+        <v>0.1566714183321735</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06550900093631129</v>
+        <v>0.06491236567485829</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04701042296822536</v>
+        <v>0.05904989082572796</v>
       </c>
       <c r="G148" t="n">
+        <v>0.0462500030700522</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04817518913675886</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06630789119163216</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09727018961301728</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06571610945544606</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.151945464279713</v>
+        <v>0.1008622355031478</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0655478396071059</v>
+        <v>0.06530160579950704</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04701042296822536</v>
+        <v>0.1562086385713767</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06630789119163216</v>
+        <v>0.06570397989040536</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04655227258222379</v>
+        <v>0.0591555458552012</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04680723202270343</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04792921566143878</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06710678144695302</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.09753905587573788</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06650786981033097</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1514629083407008</v>
+        <v>0.1005189219978174</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06633757261442044</v>
+        <v>0.06608837213444085</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04655227258222379</v>
+        <v>0.1552470417682479</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06710678144695302</v>
+        <v>0.0664955941059524</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04650086834312048</v>
+        <v>0.05925503406958445</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04736446097535467</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04788331644487372</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06790567170227389</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09671702035012933</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06729963016521585</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1509819593937938</v>
+        <v>0.099775879295704</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06712730562173497</v>
+        <v>0.06687513846937469</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04650086834312048</v>
+        <v>0.1551881306846444</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06790567170227389</v>
+        <v>0.06728720832149945</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04625263504856701</v>
+        <v>0.0593482658303414</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0479216899280059</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04773782846020039</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06870456195759476</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.09580594550276986</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06809139052010074</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1490045845423931</v>
+        <v>0.09913419375937008</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06791703862904949</v>
+        <v>0.0676619048043085</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04625263504856701</v>
+        <v>0.1547334080824235</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06870456195759476</v>
+        <v>0.06807882253704652</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0461072942806631</v>
+        <v>0.05943515149893571</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04847891888065713</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04739308868055546</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06950345221291564</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.09590769380023753</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06888315087498564</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1487327508898998</v>
+        <v>0.09919495175137813</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06870677163636403</v>
+        <v>0.06844867113924231</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0461072942806631</v>
+        <v>0.1530843767234423</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06950345221291564</v>
+        <v>0.06887043675259356</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04626461887711951</v>
+        <v>0.05951560143683111</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04903614783330836</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04774943407907564</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0703023424682365</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.09532412770911056</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06967491122987053</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1479684255397148</v>
+        <v>0.09865923963429044</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06949650464367856</v>
+        <v>0.06923543747417614</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04626461887711951</v>
+        <v>0.1523425393695581</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0703023424682365</v>
+        <v>0.06966205096814061</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04572438167564701</v>
+        <v>0.05958952600549128</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04959337678595959</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04710720162889763</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07110123272355737</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.09435710969596697</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07046667158475542</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1477135755952392</v>
+        <v>0.09842814377066947</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07028623765099308</v>
+        <v>0.07002220380910995</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04572438167564701</v>
+        <v>0.1517093987826282</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07110123272355737</v>
+        <v>0.07045366518368767</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0456863555139564</v>
+        <v>0.05965683556637994</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05015060573861083</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0471667283031581</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07190012297887824</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.09459322190754008</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07125843193964032</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1473701681598741</v>
+        <v>0.09750275052307758</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07107597065830762</v>
+        <v>0.07080897014404379</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0456863555139564</v>
+        <v>0.1516864577245097</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07190012297887824</v>
+        <v>0.07124527939923471</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04555031322975843</v>
+        <v>0.05971744048096075</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05070783469126205</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04682835107499374</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07269901323419911</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.09431505822716815</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07205019229452521</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1466401703370204</v>
+        <v>0.09698414625407722</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07186570366562214</v>
+        <v>0.0715957364789776</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04555031322975843</v>
+        <v>0.1515752189570599</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07269901323419911</v>
+        <v>0.07203689361478176</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04541602766076387</v>
+        <v>0.05977125111069744</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05126506364391328</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04689240691754125</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07349790348951997</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.0929235154193124</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0728419526494101</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1459255492300792</v>
+        <v>0.0963734173262307</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07265543667293667</v>
+        <v>0.07238250281391143</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04541602766076387</v>
+        <v>0.1514771852421361</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07349790348951997</v>
+        <v>0.07282850783032882</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04548327164468351</v>
+        <v>0.05981817781705368</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05182229259656451</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04655783048887421</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07429679374484084</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.09281953601824197</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.073633713004295</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1440282719424515</v>
+        <v>0.09686480484868373</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07344516968025121</v>
+        <v>0.07316926914884524</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04548327164468351</v>
+        <v>0.1498892457021836</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07429679374484084</v>
+        <v>0.07362012204587587</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04535181801922811</v>
+        <v>0.05985813096149318</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05237952154921575</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04642233506459954</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07509568400016171</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.09280406255822596</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07442547335917989</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1434503055775385</v>
+        <v>0.0955476419804541</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07423490268756573</v>
+        <v>0.07395603548377905</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04535181801922811</v>
+        <v>0.1504035464423759</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07509568400016171</v>
+        <v>0.07441173626142292</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04522143962210841</v>
+        <v>0.05989102090547963</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05293675050186698</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0465857422674496</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07589457425548259</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.09137803757353327</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07521723371406477</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.143193617238741</v>
+        <v>0.09502190773985056</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07502463569488026</v>
+        <v>0.07474280181871289</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04522143962210841</v>
+        <v>0.1487192434364112</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07589457425548259</v>
+        <v>0.07520335047696998</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04479190929103524</v>
+        <v>0.05991675801047674</v>
       </c>
       <c r="G161" t="n">
+        <v>0.0534939794545182</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04664790887915594</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07669346451080346</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.091442403598433</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07600899406894968</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1419601740294602</v>
+        <v>0.09478773907405705</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07581436870219478</v>
+        <v>0.0755295681536467</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04479190929103524</v>
+        <v>0.1484356350599201</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07669346451080346</v>
+        <v>0.07599496469251703</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04486299986371933</v>
+        <v>0.05993525263794818</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05405120840716944</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04650869168145014</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07749235476612433</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.09069810316719432</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07680075442383456</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.141551943053097</v>
+        <v>0.09494527293025726</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07660410170950932</v>
+        <v>0.07631633448858052</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04486299986371933</v>
+        <v>0.1492520196885336</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07749235476612433</v>
+        <v>0.07678657890806408</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04463448417787147</v>
+        <v>0.05994641514935769</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05460843735982068</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04596794745606377</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.0782912450214452</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.09064607881408618</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07759251477871945</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1411708914130526</v>
+        <v>0.09459464625563477</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07739383471682384</v>
+        <v>0.07710310082351433</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04463448417787147</v>
+        <v>0.1487676956978823</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0782912450214452</v>
+        <v>0.07757819312361114</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0448061350712024</v>
+        <v>0.05995015590616892</v>
       </c>
       <c r="G164" t="n">
+        <v>0.0551656663124719</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0459255329847284</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07909013527676607</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.0897872730733775</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07838427513360434</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1400189862127278</v>
+        <v>0.09413599599737357</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07818356772413837</v>
+        <v>0.07788986715844816</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0448061350712024</v>
+        <v>0.1483819614635969</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07909013527676607</v>
+        <v>0.07836980733915819</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04437772538142294</v>
+        <v>0.05995015590616892</v>
       </c>
       <c r="G165" t="n">
+        <v>0.0551656663124719</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04558130504917557</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07988902553208695</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08852262847933759</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07917603548848924</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1400979146801887</v>
+        <v>0.0931694591026572</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07897330073145291</v>
+        <v>0.07867663349338198</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04437772538142294</v>
+        <v>0.1476941153613082</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07988902553208695</v>
+        <v>0.07916142155470524</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04404902794624382</v>
+        <v>0.05892234052831819</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05516539778400788</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04583512043113688</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.0806879157874078</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08795308756623529</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07996779584337413</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1404067145260712</v>
+        <v>0.0922951725186695</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07976303373876743</v>
+        <v>0.07946339982831579</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04404902794624382</v>
+        <v>0.1468034557666468</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0806879157874078</v>
+        <v>0.0799530357702523</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04411981560337584</v>
+        <v>0.05790622412884642</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05516512925554387</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0454868359123439</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08148680604272868</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08777959286833978</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08075955619825902</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1385430338021397</v>
+        <v>0.09201327319259414</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08055276674608196</v>
+        <v>0.08025016616324962</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04411981560337584</v>
+        <v>0.1453092810552438</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08148680604272868</v>
+        <v>0.08074464998579935</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04418986119052973</v>
+        <v>0.05690240182680315</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05516486072707984</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04523630827452818</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08228569629804955</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08750308691992001</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08155131655314392</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.139504513992059</v>
+        <v>0.09212389807161495</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0813424997533965</v>
+        <v>0.08103693249818343</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04418986119052973</v>
+        <v>0.1449108896027296</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08228569629804955</v>
+        <v>0.0815362642013464</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04375893754541632</v>
+        <v>0.05591146874136874</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05516459219861583</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04548339429942128</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08308458655337042</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08722451225524511</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08234307690802881</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1382887965794936</v>
+        <v>0.09132718410291571</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08213223276071102</v>
+        <v>0.08182369883311726</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04375893754541632</v>
+        <v>0.1444075797847351</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08308458655337042</v>
+        <v>0.08232787841689344</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04372681750574633</v>
+        <v>0.05493401999159218</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05516432367015182</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0449279507687548</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08388347680869128</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.08664481140858407</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08313483726291369</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1375935230481082</v>
+        <v>0.09072326823368002</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08292196576802555</v>
+        <v>0.08261046516805108</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04372681750574633</v>
+        <v>0.1449986499768911</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08388347680869128</v>
+        <v>0.08311949263244051</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04359327390923057</v>
+        <v>0.05397065069656642</v>
       </c>
       <c r="G171" t="n">
+        <v>0.0551640551416878</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04466983446426032</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08468236706401215</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.08536492691420597</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.0839265976177986</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1368163348815674</v>
+        <v>0.0902122874110918</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08371169877534008</v>
+        <v>0.08339723150298491</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04359327390923057</v>
+        <v>0.1443833985548283</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08468236706401215</v>
+        <v>0.08391110684798755</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04365807959357973</v>
+        <v>0.05302195597534343</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05516378661322378</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04460890216766936</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08548125731933302</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.08528580130637989</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08471835797268348</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1379548735635359</v>
+        <v>0.08969437858233456</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08450143178265461</v>
+        <v>0.08418399783791872</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04365807959357973</v>
+        <v>0.1443611238941774</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08548125731933302</v>
+        <v>0.0847027210635346</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04332100739650471</v>
+        <v>0.05208853094709883</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05516351808475976</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.0446450106607135</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.0862801475746539</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.08390837711937479</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08551011832756837</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1369067805776781</v>
+        <v>0.08976967869459221</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08529116478996913</v>
+        <v>0.08497076417285253</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04332100739650471</v>
+        <v>0.1429311243705692</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0862801475746539</v>
+        <v>0.08549433527908167</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04298183015571617</v>
+        <v>0.0511709707308839</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05516324955629575</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04447801672512434</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08707903782997475</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.08373359688745982</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08630187868245327</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.136969697407659</v>
+        <v>0.08913832469504843</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08608089779728367</v>
+        <v>0.08575753050778635</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04298183015571617</v>
+        <v>0.1431926983596344</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08707903782997475</v>
+        <v>0.08628594949462871</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04304032070892493</v>
+        <v>0.05026987044579161</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05516298102783174</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04450777714263343</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08787792808529563</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.08326240314490393</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08709363903733816</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1355412655371429</v>
+        <v>0.08870045353088699</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0868706308045982</v>
+        <v>0.08654429684272018</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04304032070892493</v>
+        <v>0.1413451442370037</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08787792808529563</v>
+        <v>0.08707756371017576</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04289625189384177</v>
+        <v>0.04938582521087682</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05516271249936771</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04383414869497236</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.0886768183406165</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.08259573842597626</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08788539939222305</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1352191264497946</v>
+        <v>0.08725620214929161</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08766036381191272</v>
+        <v>0.087331063177654</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04289625189384177</v>
+        <v>0.1414877603783081</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0886768183406165</v>
+        <v>0.08786917792572282</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04284939654817743</v>
+        <v>0.04851943014530948</v>
       </c>
       <c r="G177" t="n">
+        <v>0.0551624439709037</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.04365698816387265</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08947570859593737</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0820345452649458</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08867715974710795</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1352009216292787</v>
+        <v>0.08730570749744607</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08845009681922726</v>
+        <v>0.08811782951258781</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04284939654817743</v>
+        <v>0.1415198451591781</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08947570859593737</v>
+        <v>0.08866079214126987</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04269952750964269</v>
+        <v>0.04767128036814367</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05516217544243968</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0439761523310659</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09027459885125824</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.08207976619608165</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08946892010199284</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1347842925592597</v>
+        <v>0.08614910652253407</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08923982982654179</v>
+        <v>0.08890459584752164</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04269952750964269</v>
+        <v>0.1395406969552445</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09027459885125824</v>
+        <v>0.08945240635681692</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04264641761594835</v>
+        <v>0.04684197099847235</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05516190691397566</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.04339149797828371</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.0910734891065791</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.08133234375365278</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09026068045687773</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1342668807234025</v>
+        <v>0.08608653617173942</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09002956283385631</v>
+        <v>0.08969136218245545</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04264641761594835</v>
+        <v>0.139049614142138</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0910734891065791</v>
+        <v>0.09024402057236398</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04248983970480515</v>
+        <v>0.04603209715535366</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05516163838551164</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.04350288188725757</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09187237936189997</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.08029322047192833</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09105244081176263</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1342463276053715</v>
+        <v>0.08531813339224578</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09081929584117084</v>
+        <v>0.09047812851738928</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04248983970480515</v>
+        <v>0.1396458950954895</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09187237936189997</v>
+        <v>0.09103563478791103</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04222956661392387</v>
+        <v>0.04524225395795105</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05516136985704762</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0434101608397191</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09267126961722084</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.0798633388851773</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09184420116664752</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1339202746888315</v>
+        <v>0.08484403513123687</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09160902884848537</v>
+        <v>0.0912648948523231</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04222956661392387</v>
+        <v>0.1387288381909297</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09267126961722084</v>
+        <v>0.09182724900345807</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04196537118101527</v>
+        <v>0.04447303652532184</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05516110132858361</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04271319161739988</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09347015987254172</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.07944364152766878</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.0926359615215324</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.133586363457447</v>
+        <v>0.08396437833589651</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0923987618557999</v>
+        <v>0.09205166118725691</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04196537118101527</v>
+        <v>0.1374977418040892</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09347015987254172</v>
+        <v>0.09261886321900513</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04209702624379015</v>
+        <v>0.04372503997655897</v>
       </c>
       <c r="G183" t="n">
+        <v>0.0551608328001196</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.04251183100203146</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09426905012786257</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07893507093367175</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09342772187641731</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1329422353948826</v>
+        <v>0.08327929995340841</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09318849486311442</v>
+        <v>0.09283842752219074</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04209702624379015</v>
+        <v>0.136351904310599</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09426905012786257</v>
+        <v>0.09341047743455218</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04182430463995924</v>
+        <v>0.04299885943072428</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05516056427165557</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0427059357753454</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09506794038318345</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.07853856963745529</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09421948223130219</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.133985531984803</v>
+        <v>0.08298893693095641</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09397822787042896</v>
+        <v>0.09362519385712455</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04182430463995924</v>
+        <v>0.1368906240860897</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09506794038318345</v>
+        <v>0.09420209165009923</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04154697920723335</v>
+        <v>0.04229509000697392</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05516029574319155</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.04219536271907329</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09586683063850432</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.07845508017328848</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09501124258618708</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1333138947108728</v>
+        <v>0.082293426215724</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09476796087774349</v>
+        <v>0.09441196019205837</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04154697920723335</v>
+        <v>0.135213199506192</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09586683063850432</v>
+        <v>0.09499370586564629</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04156482278332323</v>
+        <v>0.04161432682436878</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05516002721472754</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.04207996861494669</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09666572089382519</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.07748554507544031</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09580300294107198</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1324249650567568</v>
+        <v>0.08219290475489521</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09555769388505801</v>
+        <v>0.0951987265269922</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04156482278332323</v>
+        <v>0.1345189289465367</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09666572089382519</v>
+        <v>0.09578532008119334</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04127760820593963</v>
+        <v>0.04095716500200183</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05515975868626353</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.04185961024469714</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09746461114914606</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.07693090687817994</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09659476329595687</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1327163845061194</v>
+        <v>0.08088750949565357</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09634742689237255</v>
+        <v>0.09598549286192601</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04127760820593963</v>
+        <v>0.1346071107827546</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09746461114914606</v>
+        <v>0.09657693429674039</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04088510831279339</v>
+        <v>0.04032419965893901</v>
       </c>
       <c r="G188" t="n">
+        <v>0.0551594901577995</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.04163414439005626</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09826350140446694</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.07699210811577628</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09738652365084176</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1315857945426253</v>
+        <v>0.08067737738518294</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09713715989968708</v>
+        <v>0.09677225919685983</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04088510831279339</v>
+        <v>0.1328770433904763</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09826350140446694</v>
+        <v>0.09736854851228745</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04078709594159519</v>
+        <v>0.03971602591432837</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05515922162933549</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.04170342783275559</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09906239165978781</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.07617009132249844</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09817828400572666</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1319308366499392</v>
+        <v>0.08056264537066704</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0979268929070016</v>
+        <v>0.09755902553179364</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04078709594159519</v>
+        <v>0.1336280251453328</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09906239165978781</v>
+        <v>0.0981601627278345</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04028334393005586</v>
+        <v>0.03913080881760541</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05515895310087147</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.04136731735452669</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09986128191510868</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0756657990326155</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09897004436061155</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1314491523117257</v>
+        <v>0.07974345039928957</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09871662591431614</v>
+        <v>0.09834579186672747</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04028334393005586</v>
+        <v>0.1315593544229546</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09986128191510868</v>
+        <v>0.09895177694338154</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04007362511588619</v>
+        <v>0.03855456307008554</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05515868457240745</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.04122566973710116</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1006601721704295</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.07538017378039646</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09976180471549644</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1303383830116494</v>
+        <v>0.07861992941823434</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09950635892163066</v>
+        <v>0.09913255820166129</v>
       </c>
       <c r="N191" t="n">
-        <v>0.04007362511588619</v>
+        <v>0.1318703295989726</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1006601721704295</v>
+        <v>0.09974339115892861</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0403577123367969</v>
+        <v>0.03798545372120728</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05515841604394343</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.04097834176221055</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1014590624257504</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.07511415810011038</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1005535650703813</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1290961702333749</v>
+        <v>0.07789221937468499</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1002960919289452</v>
+        <v>0.09991932453659512</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0403577123367969</v>
+        <v>0.1313602490490175</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1014590624257504</v>
+        <v>0.1005350053744757</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04013537843049876</v>
+        <v>0.03742407589011314</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05515814751547941</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.04061021467443342</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1022579526810713</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.07506704355354687</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1013453254252662</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1290201554605668</v>
+        <v>0.07803773098269656</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1010858249362597</v>
+        <v>0.1007060908715289</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04013537843049876</v>
+        <v>0.1296964227852168</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1022579526810713</v>
+        <v>0.1013266195900227</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0394063962347026</v>
+        <v>0.03687102469587118</v>
       </c>
       <c r="G194" t="n">
+        <v>0.0551578789870154</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.04000428639759998</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1030568429363922</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.07473476815790872</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1021370857801511</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1290079801768899</v>
+        <v>0.07723020769487754</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1018755579435743</v>
+        <v>0.1014928572064627</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0394063962347026</v>
+        <v>0.1286410306087649</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1030568429363922</v>
+        <v>0.1021182338055698</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03927053858711914</v>
+        <v>0.03632689525757433</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05515761045855139</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03966292869797317</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.103855733191713</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07431619564663164</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.102928846135036</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1277572858660087</v>
+        <v>0.07647343269037329</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1026652909508888</v>
+        <v>0.1022796235413966</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03927053858711914</v>
+        <v>0.1274990981593345</v>
       </c>
       <c r="O195" t="n">
-        <v>0.103855733191713</v>
+        <v>0.1029098480211168</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03902757832545915</v>
+        <v>0.0357922826942925</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05515734193008736</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03918856435261486</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1046546234470339</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.07401035187453106</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1037206064899209</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1276657140115879</v>
+        <v>0.07487128777338795</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1034550239582033</v>
+        <v>0.1030663898763304</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03902757832545915</v>
+        <v>0.126075801465562</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1046546234470339</v>
+        <v>0.1037014622366639</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03877033715504198</v>
+        <v>0.03526778212516522</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05515707340162335</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03878361613858694</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1054535137023548</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07301626269642239</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1045123668448058</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1265309060972921</v>
+        <v>0.07422765474812557</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1042447569655178</v>
+        <v>0.1038531562112642</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03877033715504198</v>
+        <v>0.125476316556084</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1054535137023548</v>
+        <v>0.1044930764522109</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03886581876655454</v>
+        <v>0.03475398866926193</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05515680487315933</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03865050683295131</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1062524039576756</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07343295396712099</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1053041271996907</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1256505036067858</v>
+        <v>0.0734464154187903</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1050344899728324</v>
+        <v>0.104639922546198</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03886581876655454</v>
+        <v>0.1245058194595368</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1062524039576756</v>
+        <v>0.105284690667758</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0381136610345945</v>
+        <v>0.03425149744567563</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05515653634469532</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03829165921276988</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1070512942129965</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07325945154144239</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1060958875545756</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1251221480237338</v>
+        <v>0.07243145158958614</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1058242229801469</v>
+        <v>0.1054266888811319</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0381136610345945</v>
+        <v>0.1219694862045567</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1070512942129965</v>
+        <v>0.106076304883305</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03811841165501337</v>
+        <v>0.03376090357347817</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05515626781623129</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03750949605510452</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1078501844683174</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07219478127420187</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1068876479094605</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1231434808318008</v>
+        <v>0.07118664506471722</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1066139559874614</v>
+        <v>0.1062134552160657</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03811841165501337</v>
+        <v>0.1206724928197802</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1078501844683174</v>
+        <v>0.1068679190988521</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03748461832366266</v>
+        <v>0.03328280217180524</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05515599928776728</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03700644013701709</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1086490747236382</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.0727379690202149</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1076794082643454</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1235121435146511</v>
+        <v>0.0712158776483876</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1074036889947759</v>
+        <v>0.1070002215509995</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03748461832366266</v>
+        <v>0.1202200153338436</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1086490747236382</v>
+        <v>0.1076595333143991</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03671682873639391</v>
+        <v>0.03281778835972817</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05515573075930327</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03678491423556957</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1094479649789591</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.0719880406342969</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1084711686192302</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1214405145749884</v>
+        <v>0.07022303114480138</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1081934220020905</v>
+        <v>0.1077869878859333</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03671682873639391</v>
+        <v>0.1189172297753833</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1094479649789591</v>
+        <v>0.1084511475299462</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03631959058905861</v>
+        <v>0.03236645725633994</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05515546223083925</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03604734112782378</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.11024685523428</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07214402197126321</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1092629289741152</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1187453677456022</v>
+        <v>0.0691119873581626</v>
       </c>
       <c r="M203" t="n">
-        <v>0.108983155009405</v>
+        <v>0.1085737542208671</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03631959058905861</v>
+        <v>0.1170693121730358</v>
       </c>
       <c r="O203" t="n">
-        <v>0.11024685523428</v>
+        <v>0.1092427617454932</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03589745157750826</v>
+        <v>0.03192940398071478</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05515519370237523</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03529614359084164</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1110457454896008</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07210493888592936</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.110054689329</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1155334564190014</v>
+        <v>0.06778662809267536</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1097728880167195</v>
+        <v>0.1093605205558009</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03589745157750826</v>
+        <v>0.1159814385554375</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1110457454896008</v>
+        <v>0.1100343759610403</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03525495939759438</v>
+        <v>0.0315072236519837</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05515492517391121</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03493374440168501</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1118446357449217</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07186981723311064</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1108464496838849</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1113180802511287</v>
+        <v>0.06675083515254382</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1105626210240341</v>
+        <v>0.1101472868907348</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03525495939759438</v>
+        <v>0.1135587849512247</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1118446357449217</v>
+        <v>0.1108259901765873</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03459666174516851</v>
+        <v>0.03110051138922035</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05515465664544719</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03446256633741583</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1126435260002426</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07143768286762256</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1116382100387698</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1060125388979266</v>
+        <v>0.06540849034197199</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1113523540313486</v>
+        <v>0.1109340532256686</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03459666174516851</v>
+        <v>0.1116065273890338</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1126435260002426</v>
+        <v>0.1116176043921344</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03432710631608211</v>
+        <v>0.03070986231151768</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05515438811698318</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03408503217509597</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1134424162555634</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07060756164428048</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1124299703936547</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1008301320153378</v>
+        <v>0.06456347546516392</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1121420870386631</v>
+        <v>0.1117208195606024</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03432710631608211</v>
+        <v>0.1104298418975012</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1134424162555634</v>
+        <v>0.1124092186076814</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03395084080618675</v>
+        <v>0.03033587153795276</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05515411958851915</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03320356469178731</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1142413065108843</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07067847941789979</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1132217307485396</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0971841592593049</v>
+        <v>0.06331967232632374</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1129318200459776</v>
+        <v>0.1125075858955362</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03395084080618675</v>
+        <v>0.1078339045052633</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1142413065108843</v>
+        <v>0.1132008328232285</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0329724129113339</v>
+        <v>0.02997913418765107</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05515385106005514</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03262058666455178</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1150401967662052</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07074946204329596</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1140134911034245</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.09088792028577047</v>
+        <v>0.06238096272965554</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1137215530532922</v>
+        <v>0.11329435223047</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0329724129113339</v>
+        <v>0.1072238912409565</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1150401967662052</v>
+        <v>0.1139924470387755</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03229637032737509</v>
+        <v>0.02964024537968896</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05515358253159112</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03233852087045122</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1158390870215261</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07021953537528439</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1148052514583094</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08635471475067719</v>
+        <v>0.06175122847936337</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1145112860606067</v>
+        <v>0.1140811185654039</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03229637032737509</v>
+        <v>0.1053049781332173</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1158390870215261</v>
+        <v>0.1147840612543226</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03202726075016184</v>
+        <v>0.02931980023315937</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05515331400312711</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03125979008654757</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1166379772768469</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.06948772526868044</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1155970118131943</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.08279784230996767</v>
+        <v>0.06013435137965134</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1153010190679212</v>
+        <v>0.1148678849003377</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03202726075016184</v>
+        <v>0.103982341210682</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1166379772768469</v>
+        <v>0.1155756754698696</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03146963187554563</v>
+        <v>0.02901839386714259</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05515304547466308</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03108681708990271</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1174368675321678</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.06955305757829955</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1163887721680792</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.0800306026195845</v>
+        <v>0.05973421323472353</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1160907520752358</v>
+        <v>0.1156546512352715</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03146963187554563</v>
+        <v>0.1015611565019868</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1174368675321678</v>
+        <v>0.1163672896854167</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03102803139937799</v>
+        <v>0.02873662140075781</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05515277694619907</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0305220246575785</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1182357577874887</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.06981455815895718</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1171805325229641</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07796629533547028</v>
+        <v>0.05855469584878398</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1168804850825503</v>
+        <v>0.1164414175702053</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03102803139937799</v>
+        <v>0.1003466000357686</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1182357577874887</v>
+        <v>0.1171589039009638</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03050700701751045</v>
+        <v>0.02847507795308445</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05515250841773506</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.0297678355666369</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1190346480428095</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.06947125286546865</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.117972292877849</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.07661654240009846</v>
+        <v>0.05759968102603683</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1176702180898648</v>
+        <v>0.1172281839051391</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03050700701751045</v>
+        <v>0.09834384784066319</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1190346480428095</v>
+        <v>0.1179505181165108</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03001110642579452</v>
+        <v>0.02847507795308445</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05515250841773506</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02902667259413973</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1198335382981304</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06952216755264939</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1187640532327339</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.07668361435790988</v>
+        <v>0.05697305057068613</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1184599510971794</v>
+        <v>0.118014950240073</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03001110642579452</v>
+        <v>0.0961580759453074</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1198335382981304</v>
+        <v>0.1187421323320579</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02934487732008167</v>
+        <v>0.02772112331258694</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05506894115698428</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02880095851714889</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1206324285534513</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.06836632807531484</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1195558135876188</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.07586034158619187</v>
+        <v>0.05567868628693595</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1192496841044939</v>
+        <v>0.1188017165750068</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02934487732008167</v>
+        <v>0.09529446037833744</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1206324285534513</v>
+        <v>0.1195337465476049</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02911286739622346</v>
+        <v>0.02697564605301399</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05498537389623351</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02799311611272633</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1214313188087721</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.06870276028828048</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1203475739425036</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07584660327862996</v>
+        <v>0.05462046997899037</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1200394171118084</v>
+        <v>0.1195884829099406</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02911286739622346</v>
+        <v>0.09305817716838982</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1214313188087721</v>
+        <v>0.120325360763152</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02881962435007138</v>
+        <v>0.02623905212950387</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05490180663548273</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02780556815793388</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.122230209064093</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.06783049004636155</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1211393342973885</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07594227862890979</v>
+        <v>0.05450228345105357</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1208291501191229</v>
+        <v>0.1203752492448744</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02881962435007138</v>
+        <v>0.09245440234410079</v>
       </c>
       <c r="O218" t="n">
-        <v>0.122230209064093</v>
+        <v>0.121116974978699</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02796969587747694</v>
+        <v>0.0255117474971952</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05481823937473195</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02744073742983349</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1230290993194139</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06794854320437363</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1219310946522734</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07514724683071689</v>
+        <v>0.05332800850732952</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1216188831264375</v>
+        <v>0.1211620155798082</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02796969587747694</v>
+        <v>0.09038831193410685</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1230290993194139</v>
+        <v>0.1219085891942461</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02776762967429165</v>
+        <v>0.02479413811122651</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05473467211398118</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02690104670548701</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1238279895747347</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06715594561713201</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1227228550071583</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07546138707773681</v>
+        <v>0.05270152695202232</v>
       </c>
       <c r="M220" t="n">
-        <v>0.122408616133752</v>
+        <v>0.1219487819147421</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02776762967429165</v>
+        <v>0.08796508196704433</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1238279895747347</v>
+        <v>0.1227002034097931</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02781755209513029</v>
+        <v>0.02408662992673612</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05465110485323041</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02628891876195635</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1246268798300556</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06725172313945219</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1235146153620432</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07398457856365503</v>
+        <v>0.05192672058933609</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1231983491410665</v>
+        <v>0.1227355482496759</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02781755209513029</v>
+        <v>0.08728988847154961</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1246268798300556</v>
+        <v>0.1234918176253402</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02728956651706842</v>
+        <v>0.02338962889886263</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05456753759247963</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.0260067763763034</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1254257700853765</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06723490162614951</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1243063757169281</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07521670048215728</v>
+        <v>0.05090747122347489</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1239880821483811</v>
+        <v>0.1235223145846097</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02728956651706842</v>
+        <v>0.08626790747625918</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1254257700853765</v>
+        <v>0.1242834318408872</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02726325041001154</v>
+        <v>0.02270354098274455</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05448397033172886</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02555704232559004</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1262246603406973</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.06720450693203942</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.125098136071813</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07335763202692897</v>
+        <v>0.05074766065864278</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1247778151556956</v>
+        <v>0.1243090809195435</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02726325041001154</v>
+        <v>0.08430431500980939</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1262246603406973</v>
+        <v>0.1250750460564343</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02673878184962822</v>
+        <v>0.02202877213352025</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05440040307097808</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02534213938687817</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1270235505960182</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06655979258424341</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1258898964266979</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07440725239165563</v>
+        <v>0.04965117069904393</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1255675481630101</v>
+        <v>0.1250958472544773</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02673878184962822</v>
+        <v>0.08340428710083669</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1270235505960182</v>
+        <v>0.1258666602719813</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02691633891158693</v>
+        <v>0.02136572830632825</v>
       </c>
       <c r="G225" t="n">
+        <v>0.0543168358102273</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02496449033722969</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1278224408513391</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06620420261267645</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1266816567815828</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07376544077002301</v>
+        <v>0.0496218831488823</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1263572811703246</v>
+        <v>0.1258826135894112</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02691633891158693</v>
+        <v>0.08177299977797725</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1278224408513391</v>
+        <v>0.1266582744875284</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02629609967155616</v>
+        <v>0.02071481545630715</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05423326854947654</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02502651795370647</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.12862133110666</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06543927830851051</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1274734171364677</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07393207635571641</v>
+        <v>0.04906367981236201</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1271470141776392</v>
+        <v>0.126669379924345</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02629609967155616</v>
+        <v>0.08041562906986782</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12862133110666</v>
+        <v>0.1274498887030754</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0261782422052045</v>
+        <v>0.02007643953859525</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05414970128872576</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02493064501337044</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1294202213619808</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06536512032163802</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1282651774913526</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07390703834242157</v>
+        <v>0.04928044249368721</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1279367471849537</v>
+        <v>0.1274561462592788</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0261782422052045</v>
+        <v>0.08013735100514441</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1294202213619808</v>
+        <v>0.1282415029186225</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02596294458820038</v>
+        <v>0.01945100650833121</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05406613402797499</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02457929429328347</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1302191116173017</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06508182930195133</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1290569378462375</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07319020592382403</v>
+        <v>0.04857605299706191</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1287264801922682</v>
+        <v>0.1282429125942126</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02596294458820038</v>
+        <v>0.07924334161244373</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1302191116173017</v>
+        <v>0.1290331171341695</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02565038489621234</v>
+        <v>0.01883892232065334</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05398256676722422</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02467488857050744</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1310180018726226</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06498950589934269</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1298486982011224</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.07248145829360925</v>
+        <v>0.04895439312669023</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1295162131995828</v>
+        <v>0.1290296789291464</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02565038489621234</v>
+        <v>0.07703877692040195</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1310180018726226</v>
+        <v>0.1298247313497166</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02554074120490891</v>
+        <v>0.0182405929307002</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05389899950647344</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.0241195463302781</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1318168921279435</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06438825076370447</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1306404585560073</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07248067464546276</v>
+        <v>0.04871884006375896</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1303059462068973</v>
+        <v>0.1298164452640803</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02554074120490891</v>
+        <v>0.07632833720487081</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1318168921279435</v>
+        <v>0.1306163455652636</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02523419158995857</v>
+        <v>0.01765642429361038</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05381543224572267</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02418486266863086</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1326157823832643</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06357816454492901</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1314322189108921</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.07158773417307029</v>
+        <v>0.04921905330568574</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1310956792142118</v>
+        <v>0.1306032115990141</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02523419158995857</v>
+        <v>0.0769594474832343</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1326157823832643</v>
+        <v>0.1314079597808107</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02513091412702986</v>
+        <v>0.01708682236452217</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05373186498497189</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02425103821779517</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1334146726385852</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06285934789290867</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.132223979265777</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07170251607011729</v>
+        <v>0.04912031382558493</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1318854122215264</v>
+        <v>0.1313899779339479</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02513091412702986</v>
+        <v>0.07549476843398378</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1334146726385852</v>
+        <v>0.1321995739963577</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02503108689179129</v>
+        <v>0.01653219309857416</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05364829772422111</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02431808381690045</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.134213562893906</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.06253190145753576</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1330157396206619</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07202489953028923</v>
+        <v>0.04832356871253018</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1326751452288409</v>
+        <v>0.1321767442688817</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02503108689179129</v>
+        <v>0.07523523430282669</v>
       </c>
       <c r="O233" t="n">
-        <v>0.134213562893906</v>
+        <v>0.1329911882119048</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02473488795991133</v>
+        <v>0.01599294245090487</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05356473046347034</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02408601030507619</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1350124531492269</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.0628959258887026</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1338074999755468</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07145476374727183</v>
+        <v>0.04852976505559528</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1334648782361554</v>
+        <v>0.1329635106038155</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02473488795991133</v>
+        <v>0.07418177933547065</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1350124531492269</v>
+        <v>0.1337828024274519</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02444249540705852</v>
+        <v>0.01546947637665268</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05348116320271957</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02435482852145181</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1358113434045478</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06145152183630159</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1345992603304317</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07229198791475056</v>
+        <v>0.04903984994385388</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1342546112434699</v>
+        <v>0.1337502769387494</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02444249540705852</v>
+        <v>0.07373533777762331</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1358113434045478</v>
+        <v>0.1345744166429989</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0246540873089014</v>
+        <v>0.01496220083095613</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05339759594196879</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02392454930515675</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1366102336598687</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.06179878995022503</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1353910206853166</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07103645122641095</v>
+        <v>0.04905477046637974</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1350443442507845</v>
+        <v>0.1345370432736832</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0246540873089014</v>
+        <v>0.07279684387499219</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1366102336598687</v>
+        <v>0.135366030858546</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02426984174110842</v>
+        <v>0.01447152176895376</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05331402868121802</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02409518349532046</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1374091239151895</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.06063783088036526</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1361827810402015</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.07178803287593855</v>
+        <v>0.04877547371224653</v>
       </c>
       <c r="M237" t="n">
-        <v>0.135834077258099</v>
+        <v>0.135323809608617</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02426984174110842</v>
+        <v>0.07106723187328495</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1374091239151895</v>
+        <v>0.136157645074093</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02408993677934815</v>
+        <v>0.0139978451457839</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05323046142046724</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02436674193107238</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1382080141705104</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0605687452766146</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1369745413950864</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.07204661205701901</v>
+        <v>0.04850290677052801</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1366238102654135</v>
+        <v>0.1361105759435508</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02408993677934815</v>
+        <v>0.07034743601820914</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1382080141705104</v>
+        <v>0.1369492592896401</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02411455049928905</v>
+        <v>0.01354157691658518</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05314689415971646</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02383923545154196</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1390069044258313</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0602916337888654</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1377663017499713</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.07041206796333782</v>
+        <v>0.04873801673029787</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1374135432727281</v>
+        <v>0.1368973422784846</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02411455049928905</v>
+        <v>0.06983839055547242</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1390069044258313</v>
+        <v>0.1377408735051871</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02364386097659968</v>
+        <v>0.01310146538634723</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0530633268989657</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02381267489585863</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1398057946811521</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05910659706701002</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1385580621048562</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.07048427978858052</v>
+        <v>0.04878175068062982</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1382032762800426</v>
+        <v>0.1376841086134185</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02364386097659968</v>
+        <v>0.06904102973078224</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1398057946811521</v>
+        <v>0.1385324877207342</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02387804628694849</v>
+        <v>0.01266797060931566</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05297975963821492</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02398707110315186</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.140604684936473</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05931373576094076</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1393498224597411</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.07156312672643272</v>
+        <v>0.04923505571059758</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1389930092873571</v>
+        <v>0.1384708749483523</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02387804628694849</v>
+        <v>0.06805628778984629</v>
       </c>
       <c r="O241" t="n">
-        <v>0.140604684936473</v>
+        <v>0.1393241019362812</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02351728450600404</v>
+        <v>0.01223984089048017</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05289619237746414</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02406243491255104</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1414035751917939</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.05851315052055001</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.140141582814626</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.07144848797057995</v>
+        <v>0.04879887890927487</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1397827422946716</v>
+        <v>0.1392576412832861</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02351728450600404</v>
+        <v>0.06738509897837219</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1414035751917939</v>
+        <v>0.1401157161518283</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02326175370943484</v>
+        <v>0.01181748218497932</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05281262511671338</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02413877716318567</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1422024654471147</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05810494199573002</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1409333431695108</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.07084024271470768</v>
+        <v>0.04937416736573538</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1405724753019862</v>
+        <v>0.1400444076182199</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02326175370943484</v>
+        <v>0.06742839754206742</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1422024654471147</v>
+        <v>0.1409073303673753</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02291163197290939</v>
+        <v>0.01140130044795145</v>
       </c>
       <c r="G244" t="n">
+        <v>0.0527290578559626</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02391610869418519</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1430013557024356</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05708921083637319</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1417251035243957</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.07103827015250153</v>
+        <v>0.04946186816905285</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1413622083093007</v>
+        <v>0.1408311739531537</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02291163197290939</v>
+        <v>0.06758711772663978</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1430013557024356</v>
+        <v>0.1416989445829224</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02286709737209619</v>
+        <v>0.01099170163453515</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05264549059521182</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02419444034467901</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1438002459577565</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05696605769237187</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1425168638792806</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.06974244947764713</v>
+        <v>0.04966292840830103</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1421519413166152</v>
+        <v>0.1416179402880876</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02286709737209619</v>
+        <v>0.06686219377779667</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1438002459577565</v>
+        <v>0.1424905587984694</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02312832798266376</v>
+        <v>0.01058909169986888</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05256192333446105</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02387378295379658</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1445991362130774</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05663558321361833</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1433086242341655</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.07065265988382985</v>
+        <v>0.04917829517255351</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1429416743239298</v>
+        <v>0.1424047066230214</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02312832798266376</v>
+        <v>0.06515455994124553</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1445991362130774</v>
+        <v>0.1432821730140165</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02259550188028062</v>
+        <v>0.01019387659909109</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05247835607371027</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02415414736066734</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1453980264683982</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05579788805000505</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1441003845890504</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.07046878056473543</v>
+        <v>0.04980891555088413</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1437314073312443</v>
+        <v>0.1431914729579552</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02259550188028062</v>
+        <v>0.06496515046269441</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1453980264683982</v>
+        <v>0.1440737872295635</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02246879714061527</v>
+        <v>0.009806462287340313</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0523947888129595</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02393554440442076</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1461969167237191</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05505307285142419</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1448921449439353</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.07009069071404939</v>
+        <v>0.04915573663236655</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1445211403385588</v>
+        <v>0.143978239292889</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02246879714061527</v>
+        <v>0.06369489958785046</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1461969167237191</v>
+        <v>0.1448654014451106</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02264839183933622</v>
+        <v>0.009427254719754995</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05231122155220873</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02381798492418628</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1469958069790399</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05490123826776822</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1456839052988202</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.07061826952545724</v>
+        <v>0.05021970550607452</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1453108733458733</v>
+        <v>0.1447650056278229</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02264839183933622</v>
+        <v>0.06444474156242153</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1469958069790399</v>
+        <v>0.1456570156606576</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02233446405211199</v>
+        <v>0.009056659851473609</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05222765429145795</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02400147975909331</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1477946972343608</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05384248494892938</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1464756656537051</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0705513961926445</v>
+        <v>0.04990176926108172</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1461006063531879</v>
+        <v>0.1455517719627567</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02233446405211199</v>
+        <v>0.06331561063211516</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1477946972343608</v>
+        <v>0.1464486298762047</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02232719185461107</v>
+        <v>0.008695083637634687</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05214408703070718</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02398603974827131</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1485935874896817</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05417691354480006</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.14726742600859</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.07028994990929688</v>
+        <v>0.04980287498646183</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1468903393605024</v>
+        <v>0.1463385382976905</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02232719185461107</v>
+        <v>0.06250844104263886</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1485935874896817</v>
+        <v>0.1472402440917517</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.021926753322502</v>
+        <v>0.008342932033376681</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0520605197699564</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02407167573084973</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1493924777450026</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05360462470527261</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1480591863634749</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.07033380986909971</v>
+        <v>0.05012396977128863</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1476800723678169</v>
+        <v>0.1471253046326243</v>
       </c>
       <c r="N252" t="n">
-        <v>0.021926753322502</v>
+        <v>0.06232416703970023</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1493924777450026</v>
+        <v>0.1480318583072988</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0223333265314533</v>
+        <v>0.008000610993838059</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05197695250920562</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02405839854595802</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1501913680003234</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.05232571908023934</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1488509467183598</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.06928285526573869</v>
+        <v>0.05116600070463581</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1484698053751315</v>
+        <v>0.1479120709675581</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0223333265314533</v>
+        <v>0.06136372286900693</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1501913680003234</v>
+        <v>0.1488234725228458</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02204708955713343</v>
+        <v>0.007668526474157333</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05189338524845485</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02404621903272561</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1509902582556443</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.05254029731959253</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1496427070732447</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.06963696529289931</v>
+        <v>0.05072991487557707</v>
       </c>
       <c r="M254" t="n">
-        <v>0.149259538382446</v>
+        <v>0.1486988373024919</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02204708955713343</v>
+        <v>0.06232804277626658</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1509902582556443</v>
+        <v>0.1496150867383929</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02216822047521093</v>
+        <v>0.007347084429472982</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05180981798770408</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02383514803028192</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1517891485109652</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.05154846007322467</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1504344674281295</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.07059601914426722</v>
+        <v>0.05101665937318614</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1500492713897605</v>
+        <v>0.1494856036374258</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02216822047521093</v>
+        <v>0.06091806100718672</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1517891485109652</v>
+        <v>0.15040670095394</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02189689736135433</v>
+        <v>0.00703669081492346</v>
       </c>
       <c r="G256" t="n">
+        <v>0.0517262507269533</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02402519637775645</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.152588038766286</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05065030799102799</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1512262277830144</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.06975989601352783</v>
+        <v>0.05202718128653674</v>
       </c>
       <c r="M256" t="n">
-        <v>0.150839004397075</v>
+        <v>0.1502723699723596</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02189689736135433</v>
+        <v>0.06063471180747482</v>
       </c>
       <c r="O256" t="n">
-        <v>0.152588038766286</v>
+        <v>0.151198315169487</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02193329829123213</v>
+        <v>0.006737751585647295</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05164268346620253</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.0240163749142786</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1533869290216069</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.05064594172289483</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1520179881378994</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.06912847509436687</v>
+        <v>0.05196242770470258</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1516287374043896</v>
+        <v>0.1510591363072934</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02193329829123213</v>
+        <v>0.06037892942283868</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1533869290216069</v>
+        <v>0.1519899293850341</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02187760134051281</v>
+        <v>0.006450672696782941</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05155911620545175</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02350869447897783</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1541858192769278</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.04963546191871754</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1528097484927843</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.06980163558046976</v>
+        <v>0.05192334571675736</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1524184704117041</v>
+        <v>0.1518459026422272</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02187760134051281</v>
+        <v>0.06055164809898578</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1541858192769278</v>
+        <v>0.1527815436005811</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02162998458486493</v>
+        <v>0.006175860103468891</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05147554894470099</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02390216591098357</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1549847095322487</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.04921896922838848</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1536015088476691</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.07007925666552206</v>
+        <v>0.05261088241177481</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1532082034190186</v>
+        <v>0.152632668977161</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02162998458486493</v>
+        <v>0.05895380208162382</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1549847095322487</v>
+        <v>0.1535731578161282</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02189062609995694</v>
+        <v>0.005913719760843601</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05139198168395021</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02379680004942528</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1557835997875695</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04789656430179995</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.154393269202554</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.0703612175432094</v>
+        <v>0.05262598487882861</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1539979364263332</v>
+        <v>0.1534194353120949</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02189062609995694</v>
+        <v>0.0591863256164602</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1557835997875695</v>
+        <v>0.1543647720316752</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02185970396145741</v>
+        <v>0.005664657624045596</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05130841442319943</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.0235926077334324</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1565824900428904</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04826834778884431</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1551850295574389</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.06904739740721727</v>
+        <v>0.05326960020699253</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1547876694336477</v>
+        <v>0.1542062016470287</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02185970396145741</v>
+        <v>0.05855015294920263</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1565824900428904</v>
+        <v>0.1551563862472223</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02143739624503482</v>
+        <v>0.00542907964821334</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05122484716244866</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02368959980213435</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1573813802982112</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.04693442033941389</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1559767899123238</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.06983767545123132</v>
+        <v>0.05394267548534024</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1555774024409622</v>
+        <v>0.1549929679819625</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02143739624503482</v>
+        <v>0.05914621832555866</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1573813802982112</v>
+        <v>0.1559480004627693</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02152388102635772</v>
+        <v>0.00520739178848531</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05114127990169788</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0239877870946606</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1581802705535321</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.04649488260340107</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1567685502672087</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.07043193086893695</v>
+        <v>0.05404615780294547</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1563671354482767</v>
+        <v>0.1557797343168963</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02152388102635772</v>
+        <v>0.0587754559912359</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1581802705535321</v>
+        <v>0.1567396146783164</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02141933638109456</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05105771264094711</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02368718045014058</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.158979160808853</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.0456498352306981</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1575603106220936</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.06983004285401984</v>
+        <v>0.05498099424888195</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1571568684555913</v>
+        <v>0.1565665006518301</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02141933638109456</v>
+        <v>0.05793880019194203</v>
       </c>
       <c r="O264" t="n">
-        <v>0.158979160808853</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1575312288938634</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05104455474621027</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005758271030804771</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05104482327467428</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006512109821608165</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0510450918031383</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007261462092467981</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05104536033160232</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008006273563507416</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05104562886006634</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00874648995478465</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05104589738853035</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009482056986422467</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05104616591699437</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01021292037847948</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05104643444545839</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01093902585107808</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05104670297392241</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01166031912427721</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05104697150238642</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01237674591819894</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05104724003085044</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01308825195290262</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05104750855931445</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.0137947829485098</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05104777708777847</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01449628462508035</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05104804561624249</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01519270270273541</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05104831414470651</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01588398290153522</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05104858267317053</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01657007094160046</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05104885120163455</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01725091254299189</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05104911973009856</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01792645342581508</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05104938825856258</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01859663931017511</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0510496567870266</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01926141591613347</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05104992531549061</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01992072896380966</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05105019384395463</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02057452417326556</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05105046237241864</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02122274726462021</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05105073090088266</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02186534395793602</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05105099942934668</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02250248161629494</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0510512679578107</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02313543581754033</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05105153648627472</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02376437392475376</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05105180501473874</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02438924165799845</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05105207354320275</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02500998473739219</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05105234207166677</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02562654888299856</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05105261060013078</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02623887981493495</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0510528791285948</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02684692325326537</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05105314765705882</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02745062491809373</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05105341618552283</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02804993052952363</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05105368471398685</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02864478580761958</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05105395324245086</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02923513647249806</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05105422177091488</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02982092824422396</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0510544902993789</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03040210684291338</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05105475882784292</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03097861798863163</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05105502735630694</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03155040740149436</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05105529588477096</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03211742080156727</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05105556441323497</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03267960390896566</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05105583294169899</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03323690244375566</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05105610147016301</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03378926212605207</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05105636999862703</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03433662867592147</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05105663852709104</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0348789478134783</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05105690705555506</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03541616525878952</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05105717558401907</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03594822673196909</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05105744411248309</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03647507795308446</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05105771264094711</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03647507795308446</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05104455474621027</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03707197860189502</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05112865906388907</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03766335750872849</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05121276338156789</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03824906623998352</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0512968676992467</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03882895636205889</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05138097201692551</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03940287944135328</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05146507633460431</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03997068704426551</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05154918065228312</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04053223073719418</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05163328496996193</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04108736208653806</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05171738928764074</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04163593265869591</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05180149360531955</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04217779402006645</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05188559792299836</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04271279773704833</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05196970224067717</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04324079537604033</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05205380655835597</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04376163850344118</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05213791087603478</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04427517868564961</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05222201519371359</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04478126748906428</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0523061195113924</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04527975648008397</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05239022382907121</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04577049722510741</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05247432814675002</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04625334129053326</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05255843246442883</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04672814024276028</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05264253678210764</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04719474564818723</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05272664109978644</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04765300907321276</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05281074541746525</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04810278208423566</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05289484973514406</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04854391624765469</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05297895405282288</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04897626312986845</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05306305837050168</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0494002804011476</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05314716268818049</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04981945625112213</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0532312670058593</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05023424835006269</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05331537132353811</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05064450826436797</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05339947564121691</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05105008756043667</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05348357995889572</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05145083780466763</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05356768427657454</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0518466105634594</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05365178859425335</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0522372574032108</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05373589291193216</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05262262989032054</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05381999722961096</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05300257959118734</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05390410154728977</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05337695807220993</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05398820586496857</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05374561689978704</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05407231018264738</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05410840764031736</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05415641450032619</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05446518186019971</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05424051881800501</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05481579112583267</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05432462313568381</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05516008700361504</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05440872745336262</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05549792105994553</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05449283177104143</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05582914486122289</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05457693608872024</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05615360997384581</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05466104040639905</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05647116796421304</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05474514472407786</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05678167039872329</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05482924904175667</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05708496884377528</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05491335335943548</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05738091486576773</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05499745767711429</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05766936003109937</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0550815619947931</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05795015590616891</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0551656663124719</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04896677060411261</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0551656663124719</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05816419262850155</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05673876134656505</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05836238665639815</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0583118563806582</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05854534715028401</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05988495141475134</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05871368327058444</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06145804644884451</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05886800417772476</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06303114148293765</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05900891903213024</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0646042365170308</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05913703699422624</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06617733155112394</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05925296722443806</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0677504265852171</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05935731888319098</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06932352161931025</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05945070113091033</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07089661665340341</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0595337231280214</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07246971168749655</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05960699403494955</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07404280672158971</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05967112301212003</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07561590175568285</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05972671921995817</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07718899678977599</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05977439181888931</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07876209182386915</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05981474996933871</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0803351868579623</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05984840283173171</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08190828189205546</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05987595956649362</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.0834813769261486</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05989802933404972</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08505447196024175</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05991522129482534</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08662756699433491</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05992814460924582</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08820066202842805</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05993740843773642</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08977375706252119</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05994362194072247</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09134685209661435</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05994739427862928</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.0929199471307075</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05994933461188214</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09449304216480064</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05995005210090642</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.0960661371988938</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05995015590612735</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09763923223298696</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05991651642391756</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.0992123272670801</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05981746572284474</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1007854223011732</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0596573485105415</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1023585173352664</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05944051141726322</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1039316123693595</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0591713010732653</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1055047074034527</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05885406410880311</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1070778024375458</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05849314715413207</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.108650897471639</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05809289683950757</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1102239925057321</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05765765979518497</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1117970875398253</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05719178265141971</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1133701825739184</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05669961203846714</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1149432776080116</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05618549458658267</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1165163726421048</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0556537769260217</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1180894676761979</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05510880568703961</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.119662562710291</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05455492749989179</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1212356577443842</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05399648899483366</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1228087527784773</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05343783680212056</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1243818478125705</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05288331755200795</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1259549428466636</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05233727787475114</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1275280378807568</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05180406440060561</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.12910113291485</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0512880237598267</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1306742279489431</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0507935025826698</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1322473229830362</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05032484749939031</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1338204180171294</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04988100335586001</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1353935130512225</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04942862240032172</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1369666080853157</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04896262742262624</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1385397031194089</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04848472539901889</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.140112798153502</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0479966233057449</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1416858931875952</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0475000281190496</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1432589882216883</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04699664681517823</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1448320832557815</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04648818637037607</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1464051782898746</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04597635376088844</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1479782733239677</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04546285596296058</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04494939995283779</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.151124463392154</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04443769270676535</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1526975584262472</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04392944120098851</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1542706534603404</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04342635241175261</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1558437484944335</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04293013331530288</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1574168435285266</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04244249088788459</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1589899385626198</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0419651321057431</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.160563033596713</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04149976394512361</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1621361286308061</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04104809338227141</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1637092236648993</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04061182739343182</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1652823186989924</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04019267295485008</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1668554137330855</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0397923370427715</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1684285087671787</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03941252663344134</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1700016038012719</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03905494870310489</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.171574698835365</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03872131022800742</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1731477938694581</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03841331818439422</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1747208889035513</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03812087996561939</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1762939839376444</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03783213703342504</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1778670789717376</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03754751757817591</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1794401740058308</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03726745427412644</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1810132690399239</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0369923797955311</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.182586364074017</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03672272681664428</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1841594591081102</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03645892801172041</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1857325541422034</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0362014160550139</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1873056491762965</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03595062362077924</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1888787442103896</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03570698338327077</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1904518392444828</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03547092801674296</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1920249342785759</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03524289019545025</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1935980293126691</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03502330259364703</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1951711243467622</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03481259788558775</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1967442193808554</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03461120874552682</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1983173144149485</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03441956784771868</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1998904094490417</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03423810786641775</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2014635044831349</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03406726147587847</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.203036599517228</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03390746135035522</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2046096945513212</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03375914016410247</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2061827895854143</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03362273059137464</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2077558846195074</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03349866530642614</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2093289796536006</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03338737698351141</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2109020746876938</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1065577706041126</v>
+        <v>0.08284855456715912</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03996677060411261</v>
+        <v>0.01625755456715911</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0151956663124719</v>
+        <v>0.01009028658461723</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>7.680805266916529e-05</v>
+        <v>0.004158152564738393</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005572289526512313</v>
+        <v>0.001632927111064662</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002026367351014691</v>
+        <v>0.00379681641988909</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007988902553208694</v>
+        <v>0.001647643773491755</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005053209259149094</v>
+        <v>0.008827500534273253</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007867663349338198</v>
+        <v>0.001654114043615366</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008854679825249567</v>
+        <v>0.01745691742458622</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007916142155470524</v>
+        <v>0.001645127557332572</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0003031386131162814</v>
+        <v>0.007741692651028149</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001114457905302463</v>
+        <v>0.003363428861539079</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00361296269774547</v>
+        <v>0.007469454796312724</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001597780510641739</v>
+        <v>0.003295287546983509</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01040899999999997</v>
+        <v>0.0183158433711299</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00164333704666523</v>
+        <v>0.003308228087230732</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01671847756306749</v>
+        <v>0.03236360791960269</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001583228431094105</v>
+        <v>0.003290255114665144</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.000672851285000782</v>
+        <v>0.009177558798180267</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001671686857953694</v>
+        <v>0.004898781333193985</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005810373834818708</v>
+        <v>0.009988650000000002</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002396670765962608</v>
+        <v>0.004339634135869567</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01405494140422567</v>
+        <v>0.02498865</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002360299004801459</v>
+        <v>0.004768828720735786</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02612843051955793</v>
+        <v>0.03998864999999996</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002374842646641157</v>
+        <v>0.00417272513064381</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.001179805671982101</v>
+        <v>0.01043698912851888</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002228915810604925</v>
+        <v>0.006531708444258647</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007469188556860823</v>
+        <v>0.01416161973347974</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003195561021283478</v>
+        <v>0.006590575093967019</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01807150302531169</v>
+        <v>0.0314897990997299</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003147065339735279</v>
+        <v>0.006616456174461463</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0343215760008253</v>
+        <v>0.05472081954280955</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00316645686218821</v>
+        <v>0.006580510229330289</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01345371544615632</v>
+        <v>0.003363428861539079</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03096677060411262</v>
+        <v>0.007741692651028149</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.001817861377719672</v>
+        <v>0.01337135797373674</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002786144763256157</v>
+        <v>0.008164635555323308</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009408999999999987</v>
+        <v>0.01757906740763249</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004087801413043472</v>
+        <v>0.008238218867458773</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02148058079151291</v>
+        <v>0.03761930397131222</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003933831674669099</v>
+        <v>0.008270570218076829</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04073495131297367</v>
+        <v>0.06338026604058605</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003958071077735262</v>
+        <v>0.008225637786662861</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.002580878005872908</v>
+        <v>0.01625755456715911</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003343373715907388</v>
+        <v>0.01009028658461723</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01044876335835399</v>
+        <v>0.02038739818894836</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004793341531925216</v>
+        <v>0.009885862640950529</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02537287314072859</v>
+        <v>0.04254713954010386</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004720598009602919</v>
+        <v>0.009924684261692194</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04770559376210742</v>
+        <v>0.0718697654355771</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004749685293282314</v>
+        <v>0.009870765343995433</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.003462715160101271</v>
+        <v>0.01741268581562457</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003900602668558619</v>
+        <v>0.01143048977745263</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01199430680583284</v>
+        <v>0.0231980779135736</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005592231787246086</v>
+        <v>0.01153350641444228</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0285390785108581</v>
+        <v>0.04687092285151898</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005507364344536738</v>
+        <v>0.01157879830530756</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05367054065433075</v>
+        <v>0.07801541211735485</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005541299508829367</v>
+        <v>0.01151589290132801</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.004457232444064173</v>
+        <v>0.01877698121034061</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004457831621209851</v>
+        <v>0.01306341688851729</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01298191834252786</v>
+        <v>0.02561330622407687</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006391122042566955</v>
+        <v>0.0130189024076087</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03206989533980065</v>
+        <v>0.05088827095097168</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006294130679470558</v>
+        <v>0.01323291234892293</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05926682929574795</v>
+        <v>0.08366152514099384</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006332913724376419</v>
+        <v>0.01251817539193143</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.005558289461421041</v>
+        <v>0.01808833593774906</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005015060573861083</v>
+        <v>0.01469634399958196</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01421569341353227</v>
+        <v>0.02755141997178917</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007190012297887824</v>
+        <v>0.01482879396142579</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03625602206545561</v>
+        <v>0.05463741568253536</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007080897014404378</v>
+        <v>0.01430648616220736</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0625314969924633</v>
+        <v>0.09222305987606683</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007124527939923471</v>
+        <v>0.01480614801599315</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.006759745815831324</v>
+        <v>0.02034084009402062</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005572289526512314</v>
+        <v>0.01632927111064662</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01569972746393926</v>
+        <v>0.029632108228254</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007988902553208693</v>
+        <v>0.01647643773491755</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03948815712572226</v>
+        <v>0.06002790032443975</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007867663349338198</v>
+        <v>0.01654114043615366</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.066409</v>
+        <v>0.09829985301761801</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007666823422022647</v>
+        <v>0.01645127557332572</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.00805546111095444</v>
+        <v>0.02152858377532587</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006129518479163545</v>
+        <v>0.01796219822171128</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01673811593884207</v>
+        <v>0.03155285949510107</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008787792808529562</v>
+        <v>0.0181240815084093</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04215699895849997</v>
+        <v>0.06365109994133589</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008654429684272017</v>
+        <v>0.01819525447976902</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06970973431580607</v>
+        <v>0.1048427930440098</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008707756371017577</v>
+        <v>0.01809640313065829</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009439294950449817</v>
+        <v>0.02164565707783545</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006686747431814776</v>
+        <v>0.01959512533277594</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01783495428333394</v>
+        <v>0.03399977400960782</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009586683063850432</v>
+        <v>0.01977172528190106</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04525324600168787</v>
+        <v>0.06783282305324964</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009441196019205837</v>
+        <v>0.01984936852338439</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07208465448863277</v>
+        <v>0.1115945552428321</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009499370586564629</v>
+        <v>0.01974153068799087</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01090510693797691</v>
+        <v>0.02368615009771997</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007243976384466007</v>
+        <v>0.0212280524438406</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01869433794250808</v>
+        <v>0.03575895200905173</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0103855733191713</v>
+        <v>0.02141936905539281</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04806759669318539</v>
+        <v>0.07182752565224701</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01022796235413966</v>
+        <v>0.02150348256699975</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07365385208098008</v>
+        <v>0.1171978149016746</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01029098480211168</v>
+        <v>0.02138665824532344</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01244675667719513</v>
+        <v>0.02364415293115008</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007801205337117239</v>
+        <v>0.02286097955490526</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02002036236145771</v>
+        <v>0.03731649373071023</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01118446357449217</v>
+        <v>0.02306701282888457</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05019074947089178</v>
+        <v>0.076289663730394</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01101472868907348</v>
+        <v>0.02315759661061512</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07532496258270754</v>
+        <v>0.1234952473081271</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01108259901765873</v>
+        <v>0.02303178580265601</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01405810377176393</v>
+        <v>0.02351375567429639</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008358434289768471</v>
+        <v>0.02449390666596993</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02091712298527605</v>
+        <v>0.03915849941186081</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01198335382981304</v>
+        <v>0.02471465660237632</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05311340277270638</v>
+        <v>0.08007369327975666</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0118014950240073</v>
+        <v>0.02481171065423049</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07850562148367429</v>
+        <v>0.1280295277497794</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01187421323320579</v>
+        <v>0.02467691335998858</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0157330078253427</v>
+        <v>0.02428904842332948</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008915663242419701</v>
+        <v>0.02612683377703459</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02168871525905633</v>
+        <v>0.0406710692897809</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01278224408513391</v>
+        <v>0.02636230037586807</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05463741568253536</v>
+        <v>0.08373407029240107</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01232280983834846</v>
+        <v>0.02646582469784585</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08050346427373978</v>
+        <v>0.1334433315142212</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01266582744875284</v>
+        <v>0.02632204091732115</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01746532844159091</v>
+        <v>0.02596412127442003</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009472892195070933</v>
+        <v>0.02775976088809925</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02283923462789177</v>
+        <v>0.04194030360174797</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01358113434045478</v>
+        <v>0.02800994414935983</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05711540962079747</v>
+        <v>0.08692525076039323</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01337502769387494</v>
+        <v>0.02811993874146122</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08366152514099384</v>
+        <v>0.1374793338890424</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01379800372309924</v>
+        <v>0.02796716847465372</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01924892522416798</v>
+        <v>0.02553306432373863</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01003012114772217</v>
+        <v>0.02939268799916391</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02377277653687558</v>
+        <v>0.0433523025850395</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01438002459577565</v>
+        <v>0.02965758792285159</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05888828699825305</v>
+        <v>0.0899016906757992</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01416179402880876</v>
+        <v>0.02977405278507658</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08355187590291357</v>
+        <v>0.1424802101618327</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01424905587984694</v>
+        <v>0.0296122960319863</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02107765777673335</v>
+        <v>0.02698996766745593</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0105873501003734</v>
+        <v>0.03102561511022857</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02459343643110101</v>
+        <v>0.04439316647693291</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01517891485109652</v>
+        <v>0.03130523169634334</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06145455763993404</v>
+        <v>0.093017846030685</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01494856036374258</v>
+        <v>0.03142816682869195</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08640539087708449</v>
+        <v>0.1448886356201819</v>
       </c>
       <c r="O84" t="n">
-        <v>0.015040670095394</v>
+        <v>0.03125742358931887</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02294538570294644</v>
+        <v>0.02937799811525445</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01114457905302463</v>
+        <v>0.03265854222129323</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02561330622407687</v>
+        <v>0.04524899551470569</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0158969541890738</v>
+        <v>0.03295287546983509</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06321158201564231</v>
+        <v>0.09482817281711672</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0157353266986764</v>
+        <v>0.03308228087230732</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08966393694298669</v>
+        <v>0.1476472855516797</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01583228431094105</v>
+        <v>0.03290255114665144</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02484596860646667</v>
+        <v>0.02975491122817257</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01170180800567586</v>
+        <v>0.0342914693323579</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02662853780220746</v>
+        <v>0.04551679471533542</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01677669536173826</v>
+        <v>0.03460051924332685</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06475672059517953</v>
+        <v>0.09628712702716039</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01652209303361021</v>
+        <v>0.03473639491592267</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09211790501697525</v>
+        <v>0.1502265419577664</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0166238985264881</v>
+        <v>0.03454767870398402</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02677326609095349</v>
+        <v>0.02911837234438173</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01225903695832709</v>
+        <v>0.03592439644342255</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02737233444033499</v>
+        <v>0.04632685842970159</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01757558561705912</v>
+        <v>0.0362481630168186</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0666873338483476</v>
+        <v>0.09824874126357572</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01730885936854403</v>
+        <v>0.03639050895953805</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09435768601540523</v>
+        <v>0.1509005421904083</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01741551274203515</v>
+        <v>0.03619280626131659</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02872113776006634</v>
+        <v>0.02946585699642287</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01281626591097832</v>
+        <v>0.03755732355448722</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02803392441632757</v>
+        <v>0.04671775530183679</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01837447587237999</v>
+        <v>0.03789580679031036</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06910078224494828</v>
+        <v>0.09924354946397099</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01809562570347786</v>
+        <v>0.03804462300315341</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09627367085463151</v>
+        <v>0.1531085319144426</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01820712695758221</v>
+        <v>0.03783793381864916</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03096677060411262</v>
+        <v>0.0287948407168369</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01345371544615632</v>
+        <v>0.03919025066555188</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02921038497006653</v>
+        <v>0.04728539960079439</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01917336612770086</v>
+        <v>0.03954345056380212</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07079442625478322</v>
+        <v>0.09999443688886858</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01888239203841167</v>
+        <v>0.03969873704676877</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09985625045100943</v>
+        <v>0.1550372268301058</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01899874117312926</v>
+        <v>0.03948306137598173</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0333096082816858</v>
+        <v>0.02810279903816482</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01393072381628079</v>
+        <v>0.04082317777661654</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02999879334143328</v>
+        <v>0.04772570559562787</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01997225638302174</v>
+        <v>0.04119109433729386</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07356562634765443</v>
+        <v>0.101892584917766</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0196691583733455</v>
+        <v>0.04135285109038414</v>
       </c>
       <c r="N90" t="n">
-        <v>0.102795815720894</v>
+        <v>0.1572733426376337</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01979035538867631</v>
+        <v>0.0411281889333143</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03679217840203713</v>
+        <v>0.03138720749294757</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01448795276893201</v>
+        <v>0.0424561048876812</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0313962267703092</v>
+        <v>0.0485345875553907</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02077114663834261</v>
+        <v>0.04283873811078562</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07561174299336351</v>
+        <v>0.1030291749301603</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02045592470827931</v>
+        <v>0.04300696513399951</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1049827575806401</v>
+        <v>0.1581035950372625</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02058196960422336</v>
+        <v>0.04277331649064688</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03996677060411261</v>
+        <v>0.02864554161372603</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0151956663124719</v>
+        <v>0.04408903199874586</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0323997624965757</v>
+        <v>0.04880795974913629</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02157003689366347</v>
+        <v>0.04448638188427738</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07683013666171229</v>
+        <v>0.1034953883055488</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02124269104321313</v>
+        <v>0.04466107917761488</v>
       </c>
       <c r="N92" t="n">
-        <v>0.107907466946603</v>
+        <v>0.1601146997292283</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02137358381977042</v>
+        <v>0.04441844404797945</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04080603174950832</v>
+        <v>0.02987527693304121</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01560241067423448</v>
+        <v>0.04572195910981053</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03350647776011415</v>
+        <v>0.04934173644591813</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02236892714898434</v>
+        <v>0.04613402565776913</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07911816782250261</v>
+        <v>0.1048824064234289</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02202945737814695</v>
+        <v>0.04631519322123024</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1111603347351376</v>
+        <v>0.1624933724137672</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02216519803531747</v>
+        <v>0.04606357160531202</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04188680639873451</v>
+        <v>0.02907388898343403</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01615963962688571</v>
+        <v>0.04735488622087519</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03441344980080592</v>
+        <v>0.04993183191478963</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02316781740430521</v>
+        <v>0.04778166943126089</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08077319694553622</v>
+        <v>0.1058814106632978</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02281622371308078</v>
+        <v>0.04796930726484561</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1136317518625992</v>
+        <v>0.1631263287911153</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02295681225086452</v>
+        <v>0.04770869916264459</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04289121332126786</v>
+        <v>0.03023885329744542</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01671686857953694</v>
+        <v>0.04898781333193986</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03531775585853242</v>
+        <v>0.04987416042480428</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02396670765962608</v>
+        <v>0.04942931320475264</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08259258450061491</v>
+        <v>0.1065835824046528</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02360299004801459</v>
+        <v>0.04962342130846097</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1177121092453426</v>
+        <v>0.1633002845615086</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02374842646641157</v>
+        <v>0.04935382671997716</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04382298130259651</v>
+        <v>0.03136764540761635</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01727409753218817</v>
+        <v>0.05062074044300451</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03631647317317505</v>
+        <v>0.0504646362450155</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02476559791494695</v>
+        <v>0.05107695697824439</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08407369095754044</v>
+        <v>0.1072801030269912</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02438975638294841</v>
+        <v>0.05127753535207633</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1199917977997231</v>
+        <v>0.1647019554251835</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02454004068195862</v>
+        <v>0.05099895427730974</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04468583912820858</v>
+        <v>0.03045774084648774</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0178313264848394</v>
+        <v>0.05225366755406918</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03710667898461516</v>
+        <v>0.05039917364447677</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02556448817026782</v>
+        <v>0.05272460075173615</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08641387678611465</v>
+        <v>0.1075621539098102</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02517652271788223</v>
+        <v>0.05293164939569171</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1223612084420956</v>
+        <v>0.1650180570823758</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02533165489750568</v>
+        <v>0.05264408183464231</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04548351558359224</v>
+        <v>0.03251510913431823</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01838855543749063</v>
+        <v>0.05388659466513383</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03818545053273419</v>
+        <v>0.05077368689224152</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02636337842558869</v>
+        <v>0.05437224452522791</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0875105024561392</v>
+        <v>0.1078209164326072</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02596328905281605</v>
+        <v>0.05458576343930707</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1269107320888151</v>
+        <v>0.1667353052333218</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02612326911305273</v>
+        <v>0.05428920939197488</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04621973945423562</v>
+        <v>0.02951348394460582</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01894578439014187</v>
+        <v>0.0555195217761985</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03894986505741348</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02716226868090956</v>
+        <v>0.05601988829871966</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08916092843741599</v>
+        <v>0.1083475719748793</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02675005538774987</v>
+        <v>0.05623987748292244</v>
       </c>
       <c r="N99" t="n">
-        <v>0.128730759656237</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02691488332859978</v>
+        <v>0.05593433694930745</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04689823952562689</v>
+        <v>0.03149442972545528</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0195030133427931</v>
+        <v>0.05715244888726316</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04029699979853443</v>
+        <v>0.05092629800889524</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02796115893623043</v>
+        <v>0.05766753207221142</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09086251519974683</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02753682172268369</v>
+        <v>0.05789399152653781</v>
       </c>
       <c r="N100" t="n">
-        <v>0.131311682060716</v>
+        <v>0.1660216149370033</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02770649754414683</v>
+        <v>0.05757946450664003</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04752274458325417</v>
+        <v>0.03045501377480671</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02006024229544433</v>
+        <v>0.05878537599832782</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04082393199597846</v>
+        <v>0.05121223490819928</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02876004919155129</v>
+        <v>0.05931517584570317</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09221262321293336</v>
+        <v>0.1084721422609499</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02832358805761751</v>
+        <v>0.05954810557015316</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1342438902186074</v>
+        <v>0.1659471594582568</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02849811175969388</v>
+        <v>0.0592245920639726</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04809698341260561</v>
+        <v>0.03039656655981268</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02061747124809556</v>
+        <v>0.06041830310939249</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04172773888962691</v>
+        <v>0.05096435095788543</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02955893944687217</v>
+        <v>0.06096281961919493</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09430861294677753</v>
+        <v>0.1082150668404972</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02911035439255133</v>
+        <v>0.06120221961376853</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1377177750462662</v>
+        <v>0.1666648367612932</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02928972597524094</v>
+        <v>0.06086971962130517</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04862468479916935</v>
+        <v>0.0313204185476257</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02117470020074679</v>
+        <v>0.06205123022045714</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04280549771936121</v>
+        <v>0.05108495921924859</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03035782970219304</v>
+        <v>0.06261046339268668</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09574784487108098</v>
+        <v>0.1082873060405471</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02989712072748515</v>
+        <v>0.0628563336573839</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1410237274600474</v>
+        <v>0.1658816480551857</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03008134019078799</v>
+        <v>0.06251484717863774</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04910957752843356</v>
+        <v>0.0292279002053983</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02173192915339802</v>
+        <v>0.0636841573315218</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04345428572506271</v>
+        <v>0.05067621299032356</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03115671995751391</v>
+        <v>0.06425810716617843</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09692767945564565</v>
+        <v>0.1085935075284195</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03068388706241897</v>
+        <v>0.06451044770099927</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1433521383763061</v>
+        <v>0.1659045945490083</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03087295440633504</v>
+        <v>0.06415997473597032</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04955539038588638</v>
+        <v>0.029120342000283</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02228915810604926</v>
+        <v>0.06531708444258646</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04447118014661282</v>
+        <v>0.05034026556914509</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03195561021283477</v>
+        <v>0.06590575093967019</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0980454771702732</v>
+        <v>0.1083383189714343</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03147065339735279</v>
+        <v>0.06616456174461463</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1455933987113974</v>
+        <v>0.1653406774518343</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0316645686218821</v>
+        <v>0.06580510229330289</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04996585215701594</v>
+        <v>0.02899907439943233</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02284638705870048</v>
+        <v>0.06695001155365113</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04525325822389292</v>
+        <v>0.05047927025374797</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03275450046815565</v>
+        <v>0.06755339471316195</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09969859848476545</v>
+        <v>0.1076263880369113</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03225741973228661</v>
+        <v>0.06781867578823</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1471378993816763</v>
+        <v>0.1647968979727372</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03245618283742915</v>
+        <v>0.06745022985063547</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05034469162731039</v>
+        <v>0.03186542786999882</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02340361601135172</v>
+        <v>0.06858293866471579</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04619759719678443</v>
+        <v>0.05029538034216698</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03355339072347651</v>
+        <v>0.0692010384866537</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1008844038689241</v>
+        <v>0.1074623623921703</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03304418606722043</v>
+        <v>0.06947278983184535</v>
       </c>
       <c r="N107" t="n">
-        <v>0.149376031303498</v>
+        <v>0.1647802573207906</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0332477970529762</v>
+        <v>0.06909535740796803</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05069563758225786</v>
+        <v>0.02972073287913499</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02396084496400295</v>
+        <v>0.07021586577578046</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04700127430516868</v>
+        <v>0.04979074913243692</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03435228097879738</v>
+        <v>0.07084868226014546</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1022002537925512</v>
+        <v>0.1074508897045312</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03383095240215425</v>
+        <v>0.07112690387546072</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1527981853932174</v>
+        <v>0.1633977567050681</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03403941126852326</v>
+        <v>0.0707404849653006</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05102241880734652</v>
+        <v>0.02856631989399339</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02451807391665418</v>
+        <v>0.07184879288684511</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04716136678892709</v>
+        <v>0.04986752992259254</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03515117123411825</v>
+        <v>0.0724963260336372</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1028435087254482</v>
+        <v>0.1068966176413138</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03461771873708807</v>
+        <v>0.0727810179190761</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1548947525671898</v>
+        <v>0.1629563973346431</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03483102548407031</v>
+        <v>0.07238561252263317</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05132876408806452</v>
+        <v>0.02840351938172653</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02507530286930541</v>
+        <v>0.07348171999790977</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04807495188794106</v>
+        <v>0.04972787601066864</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03595006148943912</v>
+        <v>0.07414396980712896</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1033115291374171</v>
+        <v>0.105904193869838</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03540448507202189</v>
+        <v>0.07443513196269146</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1568561237417699</v>
+        <v>0.1623631804185892</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03562263969961735</v>
+        <v>0.07403074007996575</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05161840220989999</v>
+        <v>0.02823366180948695</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02563253182195664</v>
+        <v>0.07511464710897443</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04833910684209194</v>
+        <v>0.04917394069469999</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03674895174475998</v>
+        <v>0.07579161358062073</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1046016754982596</v>
+        <v>0.1057782660574237</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03619125140695571</v>
+        <v>0.07608924600630683</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1590726898333132</v>
+        <v>0.16142510716598</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03641425391516441</v>
+        <v>0.07567586763729832</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05189506195834107</v>
+        <v>0.03005807764442717</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02618976077460787</v>
+        <v>0.0767475742200391</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04925090889126117</v>
+        <v>0.04900787727272138</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03754784200008086</v>
+        <v>0.07743925735411247</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1052113082777775</v>
+        <v>0.1052234818713906</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03697801774188952</v>
+        <v>0.07774336004992219</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1598348417581744</v>
+        <v>0.159449178785889</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03720586813071146</v>
+        <v>0.07732099519463088</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05216336271453764</v>
+        <v>0.02987809735369972</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0267469897272591</v>
+        <v>0.07838050133110376</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04970743527533007</v>
+        <v>0.04883183904276756</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03834673225540173</v>
+        <v>0.07908690112760423</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1064377879457726</v>
+        <v>0.1047444889790588</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03776478407682335</v>
+        <v>0.07939747409353755</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1614329704327087</v>
+        <v>0.1596423964873898</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03799748234625851</v>
+        <v>0.07896612275196346</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05242838399428989</v>
+        <v>0.02969505140445711</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02730421867991034</v>
+        <v>0.08001342844216842</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04980576323418009</v>
+        <v>0.04864797930287333</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0391456225107226</v>
+        <v>0.08073454490109598</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1065784749720467</v>
+        <v>0.1036459350477478</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03855155041175717</v>
+        <v>0.08105158813715292</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1621574667732712</v>
+        <v>0.1590117614795559</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03878909656180557</v>
+        <v>0.08061125030929604</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05269037580772277</v>
+        <v>0.02851027026385191</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02786144763256157</v>
+        <v>0.08164635555323307</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0500429700076926</v>
+        <v>0.04815845135107349</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03994451276604347</v>
+        <v>0.08238218867458773</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1075307298264015</v>
+        <v>0.1036324677447777</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03933831674669099</v>
+        <v>0.08270570218076828</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1643987216962171</v>
+        <v>0.1578642749714608</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03958071077735262</v>
+        <v>0.08225637786662861</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05294924851629997</v>
+        <v>0.0283250843990366</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0284186765852128</v>
+        <v>0.08327928266429774</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05051613283574899</v>
+        <v>0.04766540848540279</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04074340302136434</v>
+        <v>0.08402983244807949</v>
       </c>
       <c r="L116" t="n">
-        <v>0.108291912978639</v>
+        <v>0.1024087347374682</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04012508308162481</v>
+        <v>0.08435981622438365</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1644471261179011</v>
+        <v>0.1570069381721779</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04037232499289967</v>
+        <v>0.08390150542396117</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05320491248148519</v>
+        <v>0.03014082427716375</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02897590553786403</v>
+        <v>0.0849122097753624</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05062232895823061</v>
+        <v>0.04787100400389602</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04154229327668521</v>
+        <v>0.08567747622157125</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1085593848985607</v>
+        <v>0.1024793836931393</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04091184941655863</v>
+        <v>0.08601393026799901</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1660930709546785</v>
+        <v>0.154946752290781</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04116393920844672</v>
+        <v>0.08554663298129375</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0534572780647421</v>
+        <v>0.02695860859427406</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02953313449051527</v>
+        <v>0.08654513688642707</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05085863561501891</v>
+        <v>0.04737739120458795</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04234118353200608</v>
+        <v>0.087325119995063</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1089305060559685</v>
+        <v>0.1015490622791108</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04169861575149245</v>
+        <v>0.08766804431161439</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1657269471229045</v>
+        <v>0.1549907185363435</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04195555342399378</v>
+        <v>0.08719176053862633</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05370625562753443</v>
+        <v>0.02875992084701214</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03009036344316649</v>
+        <v>0.08817806399749173</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05122661244815373</v>
+        <v>0.04688672338551338</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04314007378732695</v>
+        <v>0.08897276376855476</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1092748313650707</v>
+        <v>0.1008224181627025</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04248538208642626</v>
+        <v>0.08932215835522976</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1673230502819877</v>
+        <v>0.1532457691984866</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04274716763954083</v>
+        <v>0.0888368880959589</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05395175553132584</v>
+        <v>0.02853520817433807</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03064759239581772</v>
+        <v>0.08981099110855639</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05082448456530575</v>
+        <v>0.04648370577655563</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04393896404264781</v>
+        <v>0.09062040754204652</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1092731379624496</v>
+        <v>0.1003007227533184</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04327214842136009</v>
+        <v>0.09097627239884511</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1660225380458332</v>
+        <v>0.1520274058233404</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04353878185508788</v>
+        <v>0.09048201565329146</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05419368813758007</v>
+        <v>0.02928880539727246</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03120482134846896</v>
+        <v>0.09144391821962106</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05101324293834068</v>
+        <v>0.04623791139934258</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04473785429796868</v>
+        <v>0.09226805131553827</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1086644949601282</v>
+        <v>0.09951122225447348</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04405891475629391</v>
+        <v>0.09263038644246048</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1656958624100377</v>
+        <v>0.1506713907576359</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04433039607063494</v>
+        <v>0.09212714321062404</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05443196380776078</v>
+        <v>0.0290250473368359</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03176205030112018</v>
+        <v>0.09307684533068572</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05099264032230334</v>
+        <v>0.04585531827278937</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04553674455328955</v>
+        <v>0.09391569508903003</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1083245148165229</v>
+        <v>0.09873413598421529</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04484568109122773</v>
+        <v>0.09428450048607584</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1657297951617646</v>
+        <v>0.1498005347774261</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04512201028618199</v>
+        <v>0.09377227076795661</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05466649290333169</v>
+        <v>0.02574826881404908</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03231927925377142</v>
+        <v>0.09470977244175038</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05076301369033043</v>
+        <v>0.04554294209928829</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04633563480861042</v>
+        <v>0.09556333886252177</v>
       </c>
       <c r="L123" t="n">
-        <v>0.10825547368695</v>
+        <v>0.0977846065982321</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04563244742616155</v>
+        <v>0.09593861452969121</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1666258390628712</v>
+        <v>0.1481376486587635</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04591362450172903</v>
+        <v>0.09541739832528918</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05489718578575648</v>
+        <v>0.02546280464993256</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03287650820642265</v>
+        <v>0.09634269955281505</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05062470001555859</v>
+        <v>0.04540779858123159</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04713452506393129</v>
+        <v>0.09721098263601352</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1081584579339718</v>
+        <v>0.09707777675221183</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04641921376109537</v>
+        <v>0.09759272857330659</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1663854968752148</v>
+        <v>0.1478055431777009</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04670523871727609</v>
+        <v>0.09706252588262176</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05512395281649887</v>
+        <v>0.02517298966550702</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03343373715907388</v>
+        <v>0.09797562666387971</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05067803627112456</v>
+        <v>0.04495690342101157</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04793341531925216</v>
+        <v>0.09885862640950528</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1088345539201507</v>
+        <v>0.09542878910184252</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04720598009602919</v>
+        <v>0.09924684261692195</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1663102713606525</v>
+        <v>0.1449270291102908</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04749685293282314</v>
+        <v>0.09870765343995433</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05534670435702251</v>
+        <v>0.02688315868179305</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03399096611172511</v>
+        <v>0.09960855377494438</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05082335943016501</v>
+        <v>0.04419727232102048</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04873230557457303</v>
+        <v>0.100506270182997</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1078848480080491</v>
+        <v>0.09505278630281225</v>
       </c>
       <c r="M126" t="n">
-        <v>0.047992746430963</v>
+        <v>0.1009009566605373</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1665016652810417</v>
+        <v>0.144124917232586</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04828846714837019</v>
+        <v>0.1003527809972869</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05556535076879116</v>
+        <v>0.02559764651981131</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03454819506437635</v>
+        <v>0.101241480886009</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05076100646581663</v>
+        <v>0.04383592098365061</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0495311958298939</v>
+        <v>0.1021539139564888</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1078104265602294</v>
+        <v>0.09436491101080893</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04877951276589682</v>
+        <v>0.1025550707041527</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1651611813982396</v>
+        <v>0.1425220183206392</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04908008136391725</v>
+        <v>0.1019979085546195</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05577980241326846</v>
+        <v>0.02432078800058238</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03510542401702758</v>
+        <v>0.1028744079970737</v>
       </c>
       <c r="J128" t="n">
-        <v>0.05039131435121612</v>
+        <v>0.04337986511129427</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05033008608521477</v>
+        <v>0.1038015577299806</v>
       </c>
       <c r="L128" t="n">
-        <v>0.107612375939254</v>
+        <v>0.09328030588152061</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04956627910083065</v>
+        <v>0.104209184747768</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1650903224741034</v>
+        <v>0.1417411431505031</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0498716955794643</v>
+        <v>0.1036430361119521</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05598996965191812</v>
+        <v>0.02505690725805986</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03566265296967881</v>
+        <v>0.1045073351081384</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05071462005950014</v>
+        <v>0.04293612040634368</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05112897634053564</v>
+        <v>0.1054492015034723</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1079917825076854</v>
+        <v>0.09251411357063541</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05035304543576447</v>
+        <v>0.1058632987913834</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1650905912704904</v>
+        <v>0.1402051024982303</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05066330979501135</v>
+        <v>0.1052881636692846</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05619576284620387</v>
+        <v>0.02578569874965698</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03621988192233003</v>
+        <v>0.106140262219203</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05023126056380542</v>
+        <v>0.04241170257119115</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05192786659585651</v>
+        <v>0.107096845276964</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1070497326280858</v>
+        <v>0.09108147673384129</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05113981177069828</v>
+        <v>0.1075174128349988</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1643634905492577</v>
+        <v>0.1389366581364854</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05145492401055841</v>
+        <v>0.1069332912266172</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05639709235758936</v>
+        <v>0.02349009629071373</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03677711087498127</v>
+        <v>0.1077731893302677</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05054157283726862</v>
+        <v>0.0422883437963581</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05272675685117739</v>
+        <v>0.1087444890504558</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1075873126630178</v>
+        <v>0.09029052935645651</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05192657810563211</v>
+        <v>0.1091715268786141</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1637105230722627</v>
+        <v>0.1367302454822719</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05224653822610546</v>
+        <v>0.1085784187839498</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05659386854753832</v>
+        <v>0.02517630517879103</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03733433982763251</v>
+        <v>0.1094061164413323</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05034589385302644</v>
+        <v>0.04142519801163347</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05352564710649824</v>
+        <v>0.1103921328239476</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1073056089750437</v>
+        <v>0.08914180951801745</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05271334444056593</v>
+        <v>0.1108256409222295</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1640331916013626</v>
+        <v>0.1356966223065205</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0530381524416525</v>
+        <v>0.1102235463412823</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05678600177751442</v>
+        <v>0.02585053071144979</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03789156878028373</v>
+        <v>0.111039043552397</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05024456058421559</v>
+        <v>0.04093099012393235</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05432453736181912</v>
+        <v>0.1120397765974393</v>
       </c>
       <c r="L133" t="n">
-        <v>0.106405707926726</v>
+        <v>0.08871511521951111</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05350011077549974</v>
+        <v>0.1124797549658449</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1638329988984146</v>
+        <v>0.1337684422418333</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05382976665719956</v>
+        <v>0.1118686738986149</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05697340240898138</v>
+        <v>0.02251897818625092</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03844879773293496</v>
+        <v>0.1126719706634617</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05023791000397272</v>
+        <v>0.04051576311328461</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05512342761713999</v>
+        <v>0.1136874203709311</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1063886958806268</v>
+        <v>0.08703212317699091</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05428687711043357</v>
+        <v>0.1141338690094602</v>
       </c>
       <c r="N134" t="n">
-        <v>0.162511447725276</v>
+        <v>0.1324783589208122</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05462138087274662</v>
+        <v>0.1135138014559475</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0571559808034029</v>
+        <v>0.02418785290075536</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03900602668558619</v>
+        <v>0.1143048977745263</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05022627908543455</v>
+        <v>0.03988955995971996</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05592231787246086</v>
+        <v>0.1153350641444228</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1057556591993088</v>
+        <v>0.08631451010651028</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05507364344536738</v>
+        <v>0.1157879830530756</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1620700408438041</v>
+        <v>0.130859025976059</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05541299508829366</v>
+        <v>0.1151589290132801</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05733364732224264</v>
+        <v>0.022863360152524</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03956325563823743</v>
+        <v>0.115937824885591</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04971000480173776</v>
+        <v>0.03956242364326829</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05672120812778172</v>
+        <v>0.1169827079179146</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1056076842453344</v>
+        <v>0.08438395272412261</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05586040978030121</v>
+        <v>0.117442097096691</v>
       </c>
       <c r="N136" t="n">
-        <v>0.162410281015856</v>
+        <v>0.1291430970401755</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05620460930384072</v>
+        <v>0.1168040565706126</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05750631232696431</v>
+        <v>0.02155170523911778</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04012048459088866</v>
+        <v>0.1175707519966556</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04968942412601904</v>
+        <v>0.03914439714395933</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05752009838310259</v>
+        <v>0.1186303516914063</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1053458573812658</v>
+        <v>0.08366212774588158</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05664717611523502</v>
+        <v>0.1190962111403063</v>
       </c>
       <c r="N137" t="n">
-        <v>0.162533671003289</v>
+        <v>0.1278632257457638</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05699622351938777</v>
+        <v>0.1184491841279452</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05767388617903164</v>
+        <v>0.02325909345809759</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04067771354353989</v>
+        <v>0.1192036791077203</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04986487403141507</v>
+        <v>0.03834552344182292</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05831898863842346</v>
+        <v>0.1202779954648981</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1048712649696656</v>
+        <v>0.08307071188784054</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05743394245016884</v>
+        <v>0.1207503251839217</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1614417135679603</v>
+        <v>0.1254520657254254</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05778783773493482</v>
+        <v>0.1200943116852778</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05783627923990829</v>
+        <v>0.02299173010702438</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04123494249619112</v>
+        <v>0.120836606218785</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04933669149106254</v>
+        <v>0.03787584551688886</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05911787889374433</v>
+        <v>0.1219256392383899</v>
       </c>
       <c r="L139" t="n">
-        <v>0.104984993373096</v>
+        <v>0.08113138186605284</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05822070878510267</v>
+        <v>0.1224044392275371</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1604359114717273</v>
+        <v>0.1238422706117625</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05857945195048188</v>
+        <v>0.1217394392426103</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05799340187105795</v>
+        <v>0.02375582048345904</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04179217144884235</v>
+        <v>0.1224695333298496</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04950521347809815</v>
+        <v>0.03774540634918694</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0599167691490652</v>
+        <v>0.1235732830118816</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1036881289541195</v>
+        <v>0.08026581439657207</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05900747512003648</v>
+        <v>0.1240585532711524</v>
       </c>
       <c r="N140" t="n">
-        <v>0.160017767476447</v>
+        <v>0.1222664940373769</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05937106616602893</v>
+        <v>0.1233845667999429</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05814516443394436</v>
+        <v>0.02055756988496248</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04234940040149358</v>
+        <v>0.1241024604409143</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04917077696565861</v>
+        <v>0.03726424891874698</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06071565940438607</v>
+        <v>0.1252209267853734</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1039817580752987</v>
+        <v>0.07929568619545171</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05979424145497031</v>
+        <v>0.1257126673147678</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1590887843439769</v>
+        <v>0.1206573896348703</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06016268038157598</v>
+        <v>0.1250296943572755</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05829147729003118</v>
+        <v>0.02240318360909566</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04290662935414482</v>
+        <v>0.1257353875519789</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04933371892688057</v>
+        <v>0.03674241620559875</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06151454965970694</v>
+        <v>0.1268685705588651</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1034669670991955</v>
+        <v>0.07914267397874516</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06058100778990412</v>
+        <v>0.1273667813583831</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1598504648361742</v>
+        <v>0.1199476110368446</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06095429459712304</v>
+        <v>0.126674821914608</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05843225080078212</v>
+        <v>0.02129886695341945</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04346385830679605</v>
+        <v>0.1273683146630436</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04869437633490074</v>
+        <v>0.03648995118977209</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06231343991502782</v>
+        <v>0.1285162143323569</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1030448423883728</v>
+        <v>0.07802845446250589</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06136777412483795</v>
+        <v>0.1290208954019985</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1579043117148959</v>
+        <v>0.1202698118759018</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06174590881267009</v>
+        <v>0.1283199494719406</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05856739532766089</v>
+        <v>0.02025082521549478</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04402108725944728</v>
+        <v>0.1290012417741083</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04905308616285582</v>
+        <v>0.03621689685129674</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06311233017034867</v>
+        <v>0.1301638581058486</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1027164703053929</v>
+        <v>0.07807470436278738</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06215454045977176</v>
+        <v>0.1306750094456139</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1576518277419995</v>
+        <v>0.1183566457846437</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06253752302821713</v>
+        <v>0.1299650770292732</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05869682123213115</v>
+        <v>0.02025069210917537</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04457831621209851</v>
+        <v>0.1306341688851729</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04851018538388248</v>
+        <v>0.03623329617020259</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06391122042566955</v>
+        <v>0.1318115018793404</v>
       </c>
       <c r="L145" t="n">
-        <v>0.101882937212818</v>
+        <v>0.0779031003956431</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06294130679470558</v>
+        <v>0.1323291234892293</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1578945156793421</v>
+        <v>0.1185407663956722</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0633291372437642</v>
+        <v>0.1316102045866058</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05882043887565661</v>
+        <v>0.02226174631694634</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04513554516474974</v>
+        <v>0.1322670959962376</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04846601097111741</v>
+        <v>0.03653015946214692</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06471011068099042</v>
+        <v>0.1334591456528322</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1017453294732105</v>
+        <v>0.0771320556855338</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06372807312963941</v>
+        <v>0.1339832375328446</v>
       </c>
       <c r="N146" t="n">
-        <v>0.156433878288781</v>
+        <v>0.1184526270976134</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06412075145931125</v>
+        <v>0.1332553321439383</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05893815861970098</v>
+        <v>0.02328138253556019</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04569277411740097</v>
+        <v>0.1339000231073023</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04822089989769732</v>
+        <v>0.036546904434179</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06550900093631129</v>
+        <v>0.1351067894263239</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1009047334491331</v>
+        <v>0.07805374061639278</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06451483946457322</v>
+        <v>0.13563735157646</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1566714183321735</v>
+        <v>0.1197154948339695</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06491236567485829</v>
+        <v>0.1349004597012709</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05904989082572796</v>
+        <v>0.02230914480201258</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0462500030700522</v>
+        <v>0.1355329502183669</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04817518913675886</v>
+        <v>0.03667745475010167</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06630789119163216</v>
+        <v>0.1367544331998156</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1008622355031478</v>
+        <v>0.07760583533319165</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06530160579950704</v>
+        <v>0.1372914656200754</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1562086385713767</v>
+        <v>0.1197228883933446</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06570397989040536</v>
+        <v>0.1365455872586035</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0591555458552012</v>
+        <v>0.02334457715329912</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04680723202270343</v>
+        <v>0.1371658773294316</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04792921566143878</v>
+        <v>0.03672107245540067</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06710678144695302</v>
+        <v>0.1384020769733074</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1005189219978174</v>
+        <v>0.07748674703873096</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06608837213444085</v>
+        <v>0.1389455796636907</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1552470417682479</v>
+        <v>0.1189724083987096</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0664955941059524</v>
+        <v>0.1381907148159361</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05925503406958445</v>
+        <v>0.02238722362641542</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04736446097535467</v>
+        <v>0.1387988044404962</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04788331644487372</v>
+        <v>0.03657701959556173</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06790567170227389</v>
+        <v>0.1400497207467992</v>
       </c>
       <c r="L150" t="n">
-        <v>0.099775879295704</v>
+        <v>0.07769488293581123</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06687513846937469</v>
+        <v>0.1405996937073061</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1551881306846444</v>
+        <v>0.1196616554730356</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06728720832149945</v>
+        <v>0.1398358423732686</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0593482658303414</v>
+        <v>0.02243662825835709</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0479216899280059</v>
+        <v>0.1404317315515609</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04773782846020039</v>
+        <v>0.03664455821607063</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06870456195759476</v>
+        <v>0.1416973645202909</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09913419375937008</v>
+        <v>0.07772865022723294</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0676619048043085</v>
+        <v>0.1422538077509214</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1547334080824235</v>
+        <v>0.1194882302392939</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06807882253704652</v>
+        <v>0.1414809699306012</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05943515149893571</v>
+        <v>0.02049233508611974</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04847891888065713</v>
+        <v>0.1420646586626256</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04739308868055546</v>
+        <v>0.0366229503624131</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06950345221291564</v>
+        <v>0.1433450082937827</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09919495175137813</v>
+        <v>0.07858645611579668</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06844867113924231</v>
+        <v>0.1439079217945368</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1530843767234423</v>
+        <v>0.1192497333204554</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06887043675259356</v>
+        <v>0.1431260974879338</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05951560143683111</v>
+        <v>0.02155388814669901</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04903614783330836</v>
+        <v>0.1436975857736902</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04774943407907564</v>
+        <v>0.03681145808007487</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0703023424682365</v>
+        <v>0.1449926520672744</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09865923963429044</v>
+        <v>0.07816670780430296</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06923543747417614</v>
+        <v>0.1455620358381522</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1523425393695581</v>
+        <v>0.1196437653394912</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06966205096814061</v>
+        <v>0.1447712250452663</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05958952600549128</v>
+        <v>0.02362083147709051</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04959337678595959</v>
+        <v>0.1453305128847549</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04710720162889763</v>
+        <v>0.03670934341454175</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07110123272355737</v>
+        <v>0.1466402958407662</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09842814377066947</v>
+        <v>0.07856781249555231</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07002220380910995</v>
+        <v>0.1472161498817676</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1517093987826282</v>
+        <v>0.1201679269193725</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07045366518368767</v>
+        <v>0.1464163526025989</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05965683556637994</v>
+        <v>0.02169270911428984</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05015060573861083</v>
+        <v>0.1469634399958195</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0471667283031581</v>
+        <v>0.03721586841129941</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07190012297887824</v>
+        <v>0.1482879396142579</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09750275052307758</v>
+        <v>0.07848817739234523</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07080897014404379</v>
+        <v>0.1488702639253829</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1516864577245097</v>
+        <v>0.1200198186830704</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07124527939923471</v>
+        <v>0.1480614801599315</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05971744048096075</v>
+        <v>0.02376906509529263</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05070783469126205</v>
+        <v>0.1485963671068842</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04682835107499374</v>
+        <v>0.03733029511583363</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07269901323419911</v>
+        <v>0.1499355833877497</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09698414625407722</v>
+        <v>0.07952620969748228</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0715957364789776</v>
+        <v>0.1505243779689983</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1515752189570599</v>
+        <v>0.1219970412535558</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07203689361478176</v>
+        <v>0.1497066077172641</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05977125111069744</v>
+        <v>0.02386747287759954</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05126506364391328</v>
+        <v>0.1502292942179489</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04689240691754125</v>
+        <v>0.03745188557363018</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07349790348951997</v>
+        <v>0.1515832271612415</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0963734173262307</v>
+        <v>0.07938031661376393</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07238250281391143</v>
+        <v>0.1521784920126137</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1514771852421361</v>
+        <v>0.1212971952537999</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07282850783032882</v>
+        <v>0.1513517352745966</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05981817781705368</v>
+        <v>0.02203764624097047</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05182229259656451</v>
+        <v>0.1518622213290135</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04655783048887421</v>
+        <v>0.03711209437972793</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07429679374484084</v>
+        <v>0.1532308709347332</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09686480484868373</v>
+        <v>0.07916122125857331</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07316926914884524</v>
+        <v>0.153832606056229</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1498892457021836</v>
+        <v>0.1228745012330558</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07362012204587587</v>
+        <v>0.1529968628319292</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05985813096149318</v>
+        <v>0.02227013052367089</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05237952154921575</v>
+        <v>0.1534951484400782</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04642233506459954</v>
+        <v>0.03778798118791417</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07509568400016171</v>
+        <v>0.1548785147082249</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0955476419804541</v>
+        <v>0.07975042791785319</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07395603548377905</v>
+        <v>0.1554867200998444</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1504035464423759</v>
+        <v>0.1228310758515537</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07441173626142292</v>
+        <v>0.1546419903892618</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05989102090547963</v>
+        <v>0.0235511613031044</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05293675050186698</v>
+        <v>0.1551280755511429</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0465857422674496</v>
+        <v>0.03796262905427102</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07589457425548259</v>
+        <v>0.1565261584817167</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09502190773985056</v>
+        <v>0.08097171465735808</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07474280181871289</v>
+        <v>0.1571408341434598</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1487192434364112</v>
+        <v>0.1238976199318226</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07520335047696998</v>
+        <v>0.1562871179465943</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05991675801047674</v>
+        <v>0.0248669741566746</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0534939794545182</v>
+        <v>0.1567610026622075</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04664790887915594</v>
+        <v>0.03851376091312987</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07669346451080346</v>
+        <v>0.1581738022552085</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09478773907405705</v>
+        <v>0.08137699877398907</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0755295681536467</v>
+        <v>0.1587949481870751</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1484356350599201</v>
+        <v>0.1261017020724629</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07599496469251703</v>
+        <v>0.1579322455039269</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05993525263794818</v>
+        <v>0.023203804661785</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05405120840716944</v>
+        <v>0.1583939297732722</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04650869168145014</v>
+        <v>0.03911909969882221</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07749235476612433</v>
+        <v>0.1598214460287002</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09494527293025726</v>
+        <v>0.08261819756464722</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07631633448858052</v>
+        <v>0.1604490622306905</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1492520196885336</v>
+        <v>0.1281708908720745</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07678657890806408</v>
+        <v>0.1595773730612595</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05994641514935769</v>
+        <v>0.02554788839583929</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05460843735982068</v>
+        <v>0.1600268568843368</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04596794745606377</v>
+        <v>0.03955636834567944</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0782912450214452</v>
+        <v>0.161469089802192</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09459464625563477</v>
+        <v>0.08404722832623343</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07710310082351433</v>
+        <v>0.1621031762743058</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1487676956978823</v>
+        <v>0.1287327549292576</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07757819312361114</v>
+        <v>0.1612225006185921</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05995015590616892</v>
+        <v>0.02588546093624098</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0551656663124719</v>
+        <v>0.1616597839954015</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0459255329847284</v>
+        <v>0.040203289788033</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07909013527676607</v>
+        <v>0.1631167335756837</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09413599599737357</v>
+        <v>0.08461600835564889</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07788986715844816</v>
+        <v>0.1637572903179212</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1483819614635969</v>
+        <v>0.1305148628426125</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07836980733915819</v>
+        <v>0.1628676281759247</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05995015590616892</v>
+        <v>0.0242027578603937</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0551656663124719</v>
+        <v>0.1632927111064661</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04558130504917557</v>
+        <v>0.04073758696021433</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07988902553208695</v>
+        <v>0.1647643773491755</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0931694591026572</v>
+        <v>0.08657645494979457</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07867663349338198</v>
+        <v>0.1654114043615366</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1476941153613082</v>
+        <v>0.1331447832107393</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07916142155470524</v>
+        <v>0.1645127557332572</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05892234052831819</v>
+        <v>0.02548601474570101</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05516539778400788</v>
+        <v>0.1649256382175308</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04583512043113688</v>
+        <v>0.04083698279655486</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0806879157874078</v>
+        <v>0.1664120211226672</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0922951725186695</v>
+        <v>0.0877804854055714</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07946339982831579</v>
+        <v>0.1670655184051519</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1468034557666468</v>
+        <v>0.1340500846322381</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0799530357702523</v>
+        <v>0.1661578832905898</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05790622412884642</v>
+        <v>0.02473187160498167</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05516512925554387</v>
+        <v>0.1665585653285955</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0454868359123439</v>
+        <v>0.04167920023138599</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08148680604272868</v>
+        <v>0.168059664896159</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09201327319259414</v>
+        <v>0.08838001701988049</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08025016616324962</v>
+        <v>0.1687196324487673</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1453092810552438</v>
+        <v>0.1363583357057091</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08074464998579935</v>
+        <v>0.1678030108479223</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05690240182680315</v>
+        <v>0.02596885439708948</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05516486072707984</v>
+        <v>0.1681914924396601</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04523630827452818</v>
+        <v>0.04196616948036398</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08228569629804955</v>
+        <v>0.1697073086696508</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09212389807161495</v>
+        <v>0.08964018024262385</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08103693249818343</v>
+        <v>0.1703737464923827</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1449108896027296</v>
+        <v>0.1367103640064039</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0815362642013464</v>
+        <v>0.1694481384052549</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05591146874136874</v>
+        <v>0.02520012989479024</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05516459219861583</v>
+        <v>0.1698244195507248</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04548339429942128</v>
+        <v>0.04244158885927196</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08308458655337042</v>
+        <v>0.1713549524431425</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09132718410291571</v>
+        <v>0.09025181878732205</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08182369883311726</v>
+        <v>0.172027860535998</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1444075797847351</v>
+        <v>0.1383302848927692</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08232787841689344</v>
+        <v>0.1710932659625875</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05493401999159218</v>
+        <v>0.02642613474699661</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05516432367015182</v>
+        <v>0.1714573466617895</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0449279507687548</v>
+        <v>0.04290795448457899</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08388347680869128</v>
+        <v>0.1730025962166342</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09072326823368002</v>
+        <v>0.09124342537817867</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08261046516805108</v>
+        <v>0.1736819745796134</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1449986499768911</v>
+        <v>0.1394210573488628</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08311949263244051</v>
+        <v>0.1727383935199201</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05397065069656642</v>
+        <v>0.02564730560262132</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0551640551416878</v>
+        <v>0.1730902737728541</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04466983446426032</v>
+        <v>0.04306597305185722</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08468236706401215</v>
+        <v>0.174650239990126</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0902122874110918</v>
+        <v>0.09201652534325475</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08339723150298491</v>
+        <v>0.1753360886232288</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1443833985548283</v>
+        <v>0.1413849791167398</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08391110684798755</v>
+        <v>0.1743835210772527</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05302195597534343</v>
+        <v>0.02486407911057704</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05516378661322378</v>
+        <v>0.1747232008839188</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04460890216766936</v>
+        <v>0.04331635125667883</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08548125731933302</v>
+        <v>0.1762978837636177</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08969437858233456</v>
+        <v>0.091772644010611</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08418399783791872</v>
+        <v>0.1769902026668441</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1443611238941774</v>
+        <v>0.1416243479384554</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0847027210635346</v>
+        <v>0.1760286486345852</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05208853094709883</v>
+        <v>0.02707689191977646</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05516351808475976</v>
+        <v>0.1763561279949835</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0446450106607135</v>
+        <v>0.04365979579461599</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0862801475746539</v>
+        <v>0.1779455275371095</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08976967869459221</v>
+        <v>0.09321330670830827</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08497076417285253</v>
+        <v>0.1786443167104595</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1429311243705692</v>
+        <v>0.1424414615560649</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08549433527908167</v>
+        <v>0.1776737761919178</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0511709707308839</v>
+        <v>0.02628618067913231</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05516324955629575</v>
+        <v>0.1779890551060481</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04447801672512434</v>
+        <v>0.04409701336124081</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08707903782997475</v>
+        <v>0.1795931713106013</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08913832469504843</v>
+        <v>0.09324003876440748</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08575753050778635</v>
+        <v>0.1802984307540749</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1431926983596344</v>
+        <v>0.1445386177116237</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08628594949462871</v>
+        <v>0.1793189037492504</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05026987044579161</v>
+        <v>0.02749238203755722</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05516298102783174</v>
+        <v>0.1796219822171128</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04450777714263343</v>
+        <v>0.04452871065212548</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08787792808529563</v>
+        <v>0.181240815084093</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08870045353088699</v>
+        <v>0.09395436550696942</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08654429684272018</v>
+        <v>0.1819525447976902</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1413451442370037</v>
+        <v>0.1459181141471869</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08707756371017576</v>
+        <v>0.1809640313065829</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04938582521087682</v>
+        <v>0.02869593264396392</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05516271249936771</v>
+        <v>0.1812549093281774</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04383414869497236</v>
+        <v>0.04465559436284215</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0886768183406165</v>
+        <v>0.1828884588575848</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08725620214929161</v>
+        <v>0.0948578122640549</v>
       </c>
       <c r="M176" t="n">
-        <v>0.087331063177654</v>
+        <v>0.1836066588413056</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1414877603783081</v>
+        <v>0.1463822486048099</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08786917792572282</v>
+        <v>0.1826091588639155</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04851943014530948</v>
+        <v>0.02789726914726513</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0551624439709037</v>
+        <v>0.1828878364392421</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04365698816387265</v>
+        <v>0.04517837118896295</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08947570859593737</v>
+        <v>0.1845361026310765</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08730570749744607</v>
+        <v>0.09635190436372473</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08811782951258781</v>
+        <v>0.185260772884921</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1415198451591781</v>
+        <v>0.1477333188265477</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08866079214126987</v>
+        <v>0.1842542864212481</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04767128036814367</v>
+        <v>0.02809799856571015</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05516217544243968</v>
+        <v>0.1845207635503068</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0439761523310659</v>
+        <v>0.04509774782606005</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09027459885125824</v>
+        <v>0.1861837464045683</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08614910652253407</v>
+        <v>0.09633816713403984</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08890459584752164</v>
+        <v>0.1869148869285363</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1395406969552445</v>
+        <v>0.1474736225544557</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08945240635681692</v>
+        <v>0.1858994139785806</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04684197099847235</v>
+        <v>0.02730969718477564</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05516190691397566</v>
+        <v>0.1861536906613714</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04339149797828371</v>
+        <v>0.04541934130826748</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0910734891065791</v>
+        <v>0.1878313901780601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08608653617173942</v>
+        <v>0.09752013732517487</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08969136218245545</v>
+        <v>0.1885690009721517</v>
       </c>
       <c r="N179" t="n">
-        <v>0.139049614142138</v>
+        <v>0.150128967618345</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09024402057236398</v>
+        <v>0.1875445415359132</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04603209715535366</v>
+        <v>0.02652929179565367</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05516163838551164</v>
+        <v>0.1877866177724361</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04350288188725757</v>
+        <v>0.04605993887507411</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09187237936189997</v>
+        <v>0.1894790339515518</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08531813339224578</v>
+        <v>0.09743686510606833</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09047812851738928</v>
+        <v>0.1902231150157671</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1396458950954895</v>
+        <v>0.1512461028937865</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09103563478791103</v>
+        <v>0.1891896690932458</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04524225395795105</v>
+        <v>0.02874928154015422</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05516136985704762</v>
+        <v>0.1894195448835008</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0434101608397191</v>
+        <v>0.0461102785120007</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09267126961722084</v>
+        <v>0.1911266777250435</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08484403513123687</v>
+        <v>0.09888314737300588</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0912648948523231</v>
+        <v>0.1918772290593824</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1387288381909297</v>
+        <v>0.1520898907117159</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09182724900345807</v>
+        <v>0.1908347966505784</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04447303652532184</v>
+        <v>0.0299621655600873</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05516110132858361</v>
+        <v>0.1910524719945654</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04271319161739988</v>
+        <v>0.0468582204355366</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09347015987254172</v>
+        <v>0.1927743214985353</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08396437833589651</v>
+        <v>0.09943278168016687</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09205166118725691</v>
+        <v>0.1935313431029978</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1374977418040892</v>
+        <v>0.1526208599162167</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09261886321900513</v>
+        <v>0.1924799242079109</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04372503997655897</v>
+        <v>0.02816044299726291</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0551608328001196</v>
+        <v>0.1926853991056301</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04251183100203146</v>
+        <v>0.0467916248621712</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09426905012786257</v>
+        <v>0.194421965272027</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08327929995340841</v>
+        <v>0.0997595655817303</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09283842752219074</v>
+        <v>0.1951854571466132</v>
       </c>
       <c r="N183" t="n">
-        <v>0.136351904310599</v>
+        <v>0.1544995393513725</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09341047743455218</v>
+        <v>0.1941250517652435</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04299885943072428</v>
+        <v>0.02733661299349097</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05516056427165557</v>
+        <v>0.1943183262166948</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0427059357753454</v>
+        <v>0.04729835200839384</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09506794038318345</v>
+        <v>0.1960696090455188</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08298893693095641</v>
+        <v>0.1007372966318754</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09362519385712455</v>
+        <v>0.1968395711902285</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1368906240860897</v>
+        <v>0.1542864578612664</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09420209165009923</v>
+        <v>0.1957701793225761</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04229509000697392</v>
+        <v>0.03048317469058155</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05516029574319155</v>
+        <v>0.1959512533277594</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04219536271907329</v>
+        <v>0.04746626209069388</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09586683063850432</v>
+        <v>0.1977172528190106</v>
       </c>
       <c r="L185" t="n">
-        <v>0.082293426215724</v>
+        <v>0.1019397723847813</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09441196019205837</v>
+        <v>0.1984936852338439</v>
       </c>
       <c r="N185" t="n">
-        <v>0.135213199506192</v>
+        <v>0.1560421442899824</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09499370586564629</v>
+        <v>0.1974153068799087</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04161432682436878</v>
+        <v>0.02859262723034459</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05516002721472754</v>
+        <v>0.1975841804388241</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04207996861494669</v>
+        <v>0.04758321532556063</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09666572089382519</v>
+        <v>0.1993648965925023</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08219290475489521</v>
+        <v>0.102340790394627</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0951987265269922</v>
+        <v>0.2001477992774593</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1345189289465367</v>
+        <v>0.1562271274816037</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09578532008119334</v>
+        <v>0.1990604344372412</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04095716500200183</v>
+        <v>0.02767364131784025</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05515975868626353</v>
+        <v>0.1992171075498888</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04185961024469714</v>
+        <v>0.04813778470212038</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09746461114914606</v>
+        <v>0.2010125403659941</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08088750949565357</v>
+        <v>0.1027141482155919</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09598549286192601</v>
+        <v>0.2018019133210746</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1346071107827546</v>
+        <v>0.157409801489073</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09657693429674039</v>
+        <v>0.2007055619945738</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04032419965893901</v>
+        <v>0.02975234221830073</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0551594901577995</v>
+        <v>0.2008500346609534</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04163414439005626</v>
+        <v>0.04796479317782787</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09826350140446694</v>
+        <v>0.2026601841394858</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08067737738518294</v>
+        <v>0.1020898568119283</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09677225919685983</v>
+        <v>0.20345602736469</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1328770433904763</v>
+        <v>0.1570229649483619</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09736854851228745</v>
+        <v>0.2023506895519064</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03971602591432837</v>
+        <v>0.027829286172223</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05515922162933549</v>
+        <v>0.202482961772018</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04170342783275559</v>
+        <v>0.0481890138444602</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09906239165978781</v>
+        <v>0.2043078279129776</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08056264537066704</v>
+        <v>0.1032576606486802</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09755902553179364</v>
+        <v>0.2051101414083053</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1336280251453328</v>
+        <v>0.1578270334075861</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0981601627278345</v>
+        <v>0.2039958171092389</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03913080881760541</v>
+        <v>0.02790444557543392</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05515895310087147</v>
+        <v>0.2041158888830827</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04136731735452669</v>
+        <v>0.04861040202597132</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09986128191510868</v>
+        <v>0.2059554716864694</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07974345039928957</v>
+        <v>0.1034194030678114</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09834579186672747</v>
+        <v>0.2067642554519207</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1315593544229546</v>
+        <v>0.1588218616075507</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09895177694338154</v>
+        <v>0.2056409446665715</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03855456307008554</v>
+        <v>0.02997779282376035</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05515868457240745</v>
+        <v>0.2057488159941474</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04122566973710116</v>
+        <v>0.04832891304631523</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1006601721704295</v>
+        <v>0.2076031154599611</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07861992941823434</v>
+        <v>0.1032749876407756</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09913255820166129</v>
+        <v>0.2084183694955361</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1318703295989726</v>
+        <v>0.1576073042890607</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09974339115892861</v>
+        <v>0.2072860722239041</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03798545372120728</v>
+        <v>0.03104930031302915</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05515841604394343</v>
+        <v>0.207381743105212</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04097834176221055</v>
+        <v>0.04834450222944585</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1014590624257504</v>
+        <v>0.2092507592334528</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07789221937468499</v>
+        <v>0.1040243179390266</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09991932453659512</v>
+        <v>0.2100724835391515</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1313602490490175</v>
+        <v>0.1588832161929213</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1005350053744757</v>
+        <v>0.2089311997812367</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03742407589011314</v>
+        <v>0.03011894043906722</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05515814751547941</v>
+        <v>0.2090146702162767</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04061021467443342</v>
+        <v>0.04845712489931714</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1022579526810713</v>
+        <v>0.2108984030069446</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07803773098269656</v>
+        <v>0.1036672975340182</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1007060908715289</v>
+        <v>0.2117265975827668</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1296964227852168</v>
+        <v>0.1593494520599376</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1013266195900227</v>
+        <v>0.2105763273385692</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03687102469587118</v>
+        <v>0.0281866855977014</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0551578789870154</v>
+        <v>0.2106475973273414</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04000428639759998</v>
+        <v>0.04896673637988311</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1030568429363922</v>
+        <v>0.2125460467804364</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07723020769487754</v>
+        <v>0.1036038299972041</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1014928572064627</v>
+        <v>0.2133807116263822</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1286410306087649</v>
+        <v>0.1587058666309147</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1021182338055698</v>
+        <v>0.2122214548959018</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03632689525757433</v>
+        <v>0.03025250818475856</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05515761045855139</v>
+        <v>0.212280524438406</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03966292869797317</v>
+        <v>0.04887329199509767</v>
       </c>
       <c r="K195" t="n">
-        <v>0.103855733191713</v>
+        <v>0.2141936905539281</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07647343269037329</v>
+        <v>0.103833818900038</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1022796235413966</v>
+        <v>0.2150348256699975</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1274990981593345</v>
+        <v>0.1591523146466576</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1029098480211168</v>
+        <v>0.2138665824532344</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0357922826942925</v>
+        <v>0.03131638059606558</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05515734193008736</v>
+        <v>0.2139134515494707</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03918856435261486</v>
+        <v>0.04897674706891482</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1046546234470339</v>
+        <v>0.2158413343274199</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07487128777338795</v>
+        <v>0.1050571678139738</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1030663898763304</v>
+        <v>0.2166889397136129</v>
       </c>
       <c r="N196" t="n">
-        <v>0.126075801465562</v>
+        <v>0.1595886508479715</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1037014622366639</v>
+        <v>0.215511710010567</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03526778212516522</v>
+        <v>0.03137827522744931</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05515707340162335</v>
+        <v>0.2155463786605353</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03878361613858694</v>
+        <v>0.04887705692528849</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1054535137023548</v>
+        <v>0.2174889781009116</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07422765474812557</v>
+        <v>0.105173780310465</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1038531562112642</v>
+        <v>0.2183430537572283</v>
       </c>
       <c r="N197" t="n">
-        <v>0.125476316556084</v>
+        <v>0.1605147299756616</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1044930764522109</v>
+        <v>0.2171568375678995</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03475398866926193</v>
+        <v>0.03043816447473662</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05515680487315933</v>
+        <v>0.2171793057716</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03865050683295131</v>
+        <v>0.04907417688817264</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1062524039576756</v>
+        <v>0.2191366218744034</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0734464154187903</v>
+        <v>0.1054835599609655</v>
       </c>
       <c r="M198" t="n">
-        <v>0.104639922546198</v>
+        <v>0.2199971678008437</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1245058194595368</v>
+        <v>0.1607304067705329</v>
       </c>
       <c r="O198" t="n">
-        <v>0.105284690667758</v>
+        <v>0.2188019651252321</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03425149744567563</v>
+        <v>0.02849602073375439</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05515653634469532</v>
+        <v>0.2188122328826647</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03829165921276988</v>
+        <v>0.04916806228152126</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1070512942129965</v>
+        <v>0.2207842656478951</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07243145158958614</v>
+        <v>0.105486410336929</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1054266888811319</v>
+        <v>0.221651281844459</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1219694862045567</v>
+        <v>0.1608355359733906</v>
       </c>
       <c r="O199" t="n">
-        <v>0.106076304883305</v>
+        <v>0.2204470926825647</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03376090357347817</v>
+        <v>0.03155181640032947</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05515626781623129</v>
+        <v>0.2204451599937294</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03750949605510452</v>
+        <v>0.04965866842928832</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1078501844683174</v>
+        <v>0.2224319094213869</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07118664506471722</v>
+        <v>0.1054822350098093</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1062134552160657</v>
+        <v>0.2233053958880744</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1206724928197802</v>
+        <v>0.1618299723250397</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1068679190988521</v>
+        <v>0.2220922202398972</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03328280217180524</v>
+        <v>0.03060552387028873</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05515599928776728</v>
+        <v>0.222078087104794</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03700644013701709</v>
+        <v>0.04954595065542772</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1086490747236382</v>
+        <v>0.2240795531948787</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0712158776483876</v>
+        <v>0.1058709375510601</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1070002215509995</v>
+        <v>0.2249595099316898</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1202200153338436</v>
+        <v>0.1615135705662853</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1076595333143991</v>
+        <v>0.2237373477972298</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03281778835972817</v>
+        <v>0.02865711553945908</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05515573075930327</v>
+        <v>0.2237110142158587</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03678491423556957</v>
+        <v>0.04962986428389347</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1094479649789591</v>
+        <v>0.2257271969683704</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07022303114480138</v>
+        <v>0.1056524215321351</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1077869878859333</v>
+        <v>0.2266136239753051</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1189172297753833</v>
+        <v>0.1621861854379326</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1084511475299462</v>
+        <v>0.2253824753545624</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03236645725633994</v>
+        <v>0.02970656380366731</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05515546223083925</v>
+        <v>0.2253439413269233</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03604734112782378</v>
+        <v>0.04991036463863954</v>
       </c>
       <c r="K203" t="n">
-        <v>0.11024685523428</v>
+        <v>0.2273748407418621</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0691119873581626</v>
+        <v>0.1061265905244881</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1085737542208671</v>
+        <v>0.2282677380189205</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1170693121730358</v>
+        <v>0.1617476716807866</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1092427617454932</v>
+        <v>0.227027602911895</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03192940398071478</v>
+        <v>0.03075384105874036</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05515519370237523</v>
+        <v>0.226976868437988</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03529614359084164</v>
+        <v>0.04948740704361984</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1110457454896008</v>
+        <v>0.2290224845153539</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06778662809267536</v>
+        <v>0.1060933480995727</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1093605205558009</v>
+        <v>0.2299218520625358</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1159814385554375</v>
+        <v>0.1617978840356525</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1100343759610403</v>
+        <v>0.2286727304692275</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0315072236519837</v>
+        <v>0.03179891970050503</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05515492517391121</v>
+        <v>0.2286097955490526</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03493374440168501</v>
+        <v>0.04986094682278838</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1118446357449217</v>
+        <v>0.2306701282888457</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06675083515254382</v>
+        <v>0.1062525978288429</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1101472868907348</v>
+        <v>0.2315759661061512</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1135587849512247</v>
+        <v>0.1626366772433355</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1108259901765873</v>
+        <v>0.2303178580265601</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03110051138922035</v>
+        <v>0.03084177212478823</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05515465664544719</v>
+        <v>0.2302427226601173</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03446256633741583</v>
+        <v>0.05013093930009914</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1126435260002426</v>
+        <v>0.2323177720623374</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06540849034197199</v>
+        <v>0.1069042432837523</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1109340532256686</v>
+        <v>0.2332300801497666</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1116065273890338</v>
+        <v>0.1628639060446403</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1116176043921344</v>
+        <v>0.2319629855838927</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03070986231151768</v>
+        <v>0.02888237072741683</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05515438811698318</v>
+        <v>0.231875649771182</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03408503217509597</v>
+        <v>0.04989733979950602</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1134424162555634</v>
+        <v>0.2339654158358292</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06456347546516392</v>
+        <v>0.1061481880357546</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1117208195606024</v>
+        <v>0.2348841941933819</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1104298418975012</v>
+        <v>0.1623794251803725</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1124092186076814</v>
+        <v>0.2336081131412253</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03033587153795276</v>
+        <v>0.03092068790421768</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05515411958851915</v>
+        <v>0.2335085768822466</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03320356469178731</v>
+        <v>0.05006010364496298</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1142413065108843</v>
+        <v>0.2356130596093209</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06331967232632374</v>
+        <v>0.1064843356563036</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1125075858955362</v>
+        <v>0.2365383082369973</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1078339045052633</v>
+        <v>0.162883089391337</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1132008328232285</v>
+        <v>0.2352532406985578</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02997913418765107</v>
+        <v>0.02895669605101763</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05515385106005514</v>
+        <v>0.2351415039933113</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03262058666455178</v>
+        <v>0.05021918616042405</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1150401967662052</v>
+        <v>0.2372607033828127</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06238096272965554</v>
+        <v>0.106912589716853</v>
       </c>
       <c r="M209" t="n">
-        <v>0.11329435223047</v>
+        <v>0.2381924222806127</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1072238912409565</v>
+        <v>0.1632747534183389</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1139924470387755</v>
+        <v>0.2368983682558904</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02964024537968896</v>
+        <v>0.0309903675636436</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05515358253159112</v>
+        <v>0.2367744311043759</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03233852087045122</v>
+        <v>0.04997454266984314</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1158390870215261</v>
+        <v>0.2389083471563044</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06175122847936337</v>
+        <v>0.1067328537888566</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1140811185654039</v>
+        <v>0.239846536324228</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1053049781332173</v>
+        <v>0.1631542720021832</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1147840612543226</v>
+        <v>0.238543495813223</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02931980023315937</v>
+        <v>0.03202167483792241</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05515331400312711</v>
+        <v>0.2384073582154406</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03125979008654757</v>
+        <v>0.05032612849717422</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1166379772768469</v>
+        <v>0.2405559909297962</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06013435137965134</v>
+        <v>0.1067450314437682</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1148678849003377</v>
+        <v>0.2415006503678434</v>
       </c>
       <c r="N211" t="n">
-        <v>0.103982341210682</v>
+        <v>0.1642214998836753</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1155756754698696</v>
+        <v>0.2401886233705555</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02901839386714259</v>
+        <v>0.02905059026968094</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05515304547466308</v>
+        <v>0.2400402853265053</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03108681708990271</v>
+        <v>0.04997389896637126</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1174368675321678</v>
+        <v>0.242203634703288</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05973421323472353</v>
+        <v>0.1074490262530413</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1156546512352715</v>
+        <v>0.2431547644114588</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1015611565019868</v>
+        <v>0.16357629180362</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1163672896854167</v>
+        <v>0.2418337509278881</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02873662140075781</v>
+        <v>0.03107708625474605</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05515277694619907</v>
+        <v>0.24167321243757</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0305220246575785</v>
+        <v>0.05001780940138821</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1182357577874887</v>
+        <v>0.2438512784767797</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05855469584878398</v>
+        <v>0.1068447417881299</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1164414175702053</v>
+        <v>0.2448088784550741</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1003466000357686</v>
+        <v>0.1641185025028226</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1171589039009638</v>
+        <v>0.2434788784852207</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02847507795308445</v>
+        <v>0.02910113518894462</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05515250841773506</v>
+        <v>0.2433061395486346</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0297678355666369</v>
+        <v>0.05005781512617904</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1190346480428095</v>
+        <v>0.2454989222502715</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05759968102603683</v>
+        <v>0.1077320816204876</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1172281839051391</v>
+        <v>0.2464629924986895</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09834384784066319</v>
+        <v>0.1635479867220882</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1179505181165108</v>
+        <v>0.2451240060425533</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02847507795308445</v>
+        <v>0.03212270946810353</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05515250841773506</v>
+        <v>0.2449390666596993</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02902667259413973</v>
+        <v>0.05029387146469771</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1198335382981304</v>
+        <v>0.2471465660237632</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05697305057068613</v>
+        <v>0.1070109493215682</v>
       </c>
       <c r="M215" t="n">
-        <v>0.118014950240073</v>
+        <v>0.2481171065423049</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0961580759453074</v>
+        <v>0.1644645992022218</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1187421323320579</v>
+        <v>0.2467691335998858</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02772112331258694</v>
+        <v>0.03214178148804962</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05506894115698428</v>
+        <v>0.2465719937707639</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02880095851714889</v>
+        <v>0.05042593374089817</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1206324285534513</v>
+        <v>0.248794209797255</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05567868628693595</v>
+        <v>0.1078812484628255</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1188017165750068</v>
+        <v>0.2497712205859202</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09529446037833744</v>
+        <v>0.1641681946840286</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1195337465476049</v>
+        <v>0.2484142611572184</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02697564605301399</v>
+        <v>0.03215832364460976</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05498537389623351</v>
+        <v>0.2482049208818286</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02799311611272633</v>
+        <v>0.05065395727873441</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1214313188087721</v>
+        <v>0.2504418535707467</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05462046997899037</v>
+        <v>0.1076428826157131</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1195884829099406</v>
+        <v>0.2514253346295356</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09305817716838982</v>
+        <v>0.1644586279083136</v>
       </c>
       <c r="O217" t="n">
-        <v>0.120325360763152</v>
+        <v>0.250059388714551</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02623905212950387</v>
+        <v>0.02917230833361083</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05490180663548273</v>
+        <v>0.2498378479928932</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02780556815793388</v>
+        <v>0.05017789740216036</v>
       </c>
       <c r="K218" t="n">
-        <v>0.122230209064093</v>
+        <v>0.2520894973442385</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05450228345105357</v>
+        <v>0.1073957553516848</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1203752492448744</v>
+        <v>0.253079448673151</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09245440234410079</v>
+        <v>0.165035753615882</v>
       </c>
       <c r="O218" t="n">
-        <v>0.121116974978699</v>
+        <v>0.2517045162718836</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0255117474971952</v>
+        <v>0.03218370795087968</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05481823937473195</v>
+        <v>0.2514707751039579</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02744073742983349</v>
+        <v>0.05059770943512999</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1230290993194139</v>
+        <v>0.2537371411177302</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05332800850732952</v>
+        <v>0.1081397702421944</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1211620155798082</v>
+        <v>0.2547335627167663</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09038831193410685</v>
+        <v>0.1648994265475389</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1219085891942461</v>
+        <v>0.2533496438292161</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02479413811122651</v>
+        <v>0.0291924948922432</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05473467211398118</v>
+        <v>0.2531037022150226</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02690104670548701</v>
+        <v>0.05061334870159728</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1238279895747347</v>
+        <v>0.255384784891222</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05270152695202232</v>
+        <v>0.1081748308586955</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1219487819147421</v>
+        <v>0.2563876767603817</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08796508196704433</v>
+        <v>0.1647495014440893</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1227002034097931</v>
+        <v>0.2549947713865487</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02408662992673612</v>
+        <v>0.03219864155352826</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05465110485323041</v>
+        <v>0.2547366293260872</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02628891876195635</v>
+        <v>0.05072477052551619</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1246268798300556</v>
+        <v>0.2570324286647137</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05192672058933609</v>
+        <v>0.107200840772642</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1227355482496759</v>
+        <v>0.2580417908039971</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08728988847154961</v>
+        <v>0.1640858330463386</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1234918176253402</v>
+        <v>0.2566398989438813</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02338962889886263</v>
+        <v>0.03220212033056168</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05456753759247963</v>
+        <v>0.2563695564371519</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0260067763763034</v>
+        <v>0.05033193023084065</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1254257700853765</v>
+        <v>0.2586800724382055</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05090747122347489</v>
+        <v>0.1074177035554875</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1235223145846097</v>
+        <v>0.2596959048476125</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08626790747625918</v>
+        <v>0.1647082760950916</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1242834318408872</v>
+        <v>0.2582850265012138</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02270354098274455</v>
+        <v>0.03020106542806023</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05448397033172886</v>
+        <v>0.2580024835482165</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02555704232559004</v>
+        <v>0.05023478314152463</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1262246603406973</v>
+        <v>0.2603277162116973</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05074766065864278</v>
+        <v>0.108225322778686</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1243090809195435</v>
+        <v>0.2613500188912278</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08430431500980939</v>
+        <v>0.1644166853311535</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1250750460564343</v>
+        <v>0.2599301540585464</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02202877213352025</v>
+        <v>0.03014247098067511</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05440040307097808</v>
+        <v>0.2596354106592813</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02534213938687817</v>
+        <v>0.05038724275814786</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1270235505960182</v>
+        <v>0.261975359985189</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04965117069904393</v>
+        <v>0.1075582189366955</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1250958472544773</v>
+        <v>0.2630041329348431</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08340428710083669</v>
+        <v>0.1655383168165935</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1258666602719813</v>
+        <v>0.261575281615879</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02136572830632825</v>
+        <v>0.02900830944822314</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0543168358102273</v>
+        <v>0.2612683377703459</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02496449033722969</v>
+        <v>0.05001517649949537</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1278224408513391</v>
+        <v>0.2636230037586808</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0496218831488823</v>
+        <v>0.1073297042688373</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1258826135894112</v>
+        <v>0.2646582469784585</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08177299977797725</v>
+        <v>0.1643537718338535</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1266582744875284</v>
+        <v>0.2632204091732115</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02071481545630715</v>
+        <v>0.02980718624900815</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05423326854947654</v>
+        <v>0.2629012648814106</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02502651795370647</v>
+        <v>0.05013085237642788</v>
       </c>
       <c r="K226" t="n">
-        <v>0.12862133110666</v>
+        <v>0.2652706475321725</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04906367981236201</v>
+        <v>0.106355254683349</v>
       </c>
       <c r="M226" t="n">
-        <v>0.126669379924345</v>
+        <v>0.2663123610220738</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08041562906986782</v>
+        <v>0.1632063758153198</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1274498887030754</v>
+        <v>0.2648655367305441</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02007643953859525</v>
+        <v>0.02854770680133394</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05414970128872576</v>
+        <v>0.2645341919924752</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02493064501337044</v>
+        <v>0.0496481978506545</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1294202213619808</v>
+        <v>0.2669182913056643</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04928044249368721</v>
+        <v>0.1057649311414112</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1274561462592788</v>
+        <v>0.2679664750656892</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08013735100514441</v>
+        <v>0.1615414123537484</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1282415029186225</v>
+        <v>0.2665106642878767</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01945100650833121</v>
+        <v>0.03023847652350434</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05406613402797499</v>
+        <v>0.2661671191035399</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02457929429328347</v>
+        <v>0.04908114038388438</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1302191116173017</v>
+        <v>0.268565935079156</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04857605299706191</v>
+        <v>0.1053887946042045</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1282429125942126</v>
+        <v>0.2696205891093046</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07924334161244373</v>
+        <v>0.1603041650418952</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1290331171341695</v>
+        <v>0.2681557918452093</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01883892232065334</v>
+        <v>0.02988810083382314</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05398256676722422</v>
+        <v>0.2678000462146045</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02467488857050744</v>
+        <v>0.04834360743782658</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1310180018726226</v>
+        <v>0.2702135788526478</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04895439312669023</v>
+        <v>0.1034569060329096</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1290296789291464</v>
+        <v>0.27127470315292</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07703877692040195</v>
+        <v>0.1581399174725162</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1298247313497166</v>
+        <v>0.2698009194025419</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0182405929307002</v>
+        <v>0.02950518515059417</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05389899950647344</v>
+        <v>0.2694329733256692</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0241195463302781</v>
+        <v>0.0480495264741902</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1318168921279435</v>
+        <v>0.2718612226261395</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04871884006375896</v>
+        <v>0.1030993263887071</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1298164452640803</v>
+        <v>0.2729288171965353</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07632833720487081</v>
+        <v>0.1559939532383674</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1306163455652636</v>
+        <v>0.2714460469598745</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01765642429361038</v>
+        <v>0.02709833489212123</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05381543224572267</v>
+        <v>0.2710659004367338</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02418486266863086</v>
+        <v>0.04751282495468437</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1326157823832643</v>
+        <v>0.2735088663996313</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04921905330568574</v>
+        <v>0.1013461166327776</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1306032115990141</v>
+        <v>0.2745829312401507</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0769594474832343</v>
+        <v>0.1545115559322047</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1314079597808107</v>
+        <v>0.273091174517207</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01708682236452217</v>
+        <v>0.02767615547670815</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05373186498497189</v>
+        <v>0.2726988275477985</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02425103821779517</v>
+        <v>0.04674743034101821</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1334146726385852</v>
+        <v>0.275156510173123</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04912031382558493</v>
+        <v>0.09982733772630178</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1313899779339479</v>
+        <v>0.2762370452837661</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07549476843398378</v>
+        <v>0.1525380091467841</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1321995739963577</v>
+        <v>0.2747363020745396</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01653219309857416</v>
+        <v>0.02824725232265873</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05364829772422111</v>
+        <v>0.2743317546588632</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02431808381690045</v>
+        <v>0.04616727009490079</v>
       </c>
       <c r="K233" t="n">
-        <v>0.134213562893906</v>
+        <v>0.2768041539466148</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04832356871253018</v>
+        <v>0.09877305063046035</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1321767442688817</v>
+        <v>0.2778911593273814</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07523523430282669</v>
+        <v>0.1503185964748615</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1329911882119048</v>
+        <v>0.2763814296318721</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01599294245090487</v>
+        <v>0.02882023084827676</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05356473046347034</v>
+        <v>0.2759646817699278</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02408601030507619</v>
+        <v>0.04508627167804125</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1350124531492269</v>
+        <v>0.2784517977201066</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04852976505559528</v>
+        <v>0.09651331630643381</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1329635106038155</v>
+        <v>0.2795452733709968</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07418177933547065</v>
+        <v>0.1481986015091928</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1337828024274519</v>
+        <v>0.2780265571892047</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01546947637665268</v>
+        <v>0.0274036964718661</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05348116320271957</v>
+        <v>0.2775976088809925</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02435482852145181</v>
+        <v>0.04451836255214865</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1358113434045478</v>
+        <v>0.2800994414935983</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04903984994385388</v>
+        <v>0.09577819571540289</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1337502769387494</v>
+        <v>0.2811993874146122</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07373533777762331</v>
+        <v>0.1455233078425341</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1345744166429989</v>
+        <v>0.2796716847465373</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01496220083095613</v>
+        <v>0.02700625461173053</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05339759594196879</v>
+        <v>0.2792305359920572</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02392454930515675</v>
+        <v>0.04377747017893217</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1366102336598687</v>
+        <v>0.28174708526709</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04905477046637974</v>
+        <v>0.09359774981854815</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1345370432736832</v>
+        <v>0.2828535014582276</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07279684387499219</v>
+        <v>0.1445379990676413</v>
       </c>
       <c r="O236" t="n">
-        <v>0.135366030858546</v>
+        <v>0.2813168123038698</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01447152176895376</v>
+        <v>0.02663651068617386</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05331402868121802</v>
+        <v>0.2808634631031218</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02409518349532046</v>
+        <v>0.04327752202010085</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1374091239151895</v>
+        <v>0.2833947290405818</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04877547371224653</v>
+        <v>0.09320203957705034</v>
       </c>
       <c r="M237" t="n">
-        <v>0.135323809608617</v>
+        <v>0.2845076155018429</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07106723187328495</v>
+        <v>0.1421879587772703</v>
       </c>
       <c r="O237" t="n">
-        <v>0.136157645074093</v>
+        <v>0.2829619398612024</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0139978451457839</v>
+        <v>0.02629632115703979</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05323046142046724</v>
+        <v>0.2824963902141865</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02436674193107238</v>
+        <v>0.04262890017409258</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1382080141705104</v>
+        <v>0.2850423728140736</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04850290677052801</v>
+        <v>0.09161760971510227</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1361105759435508</v>
+        <v>0.2861617295454583</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07034743601820914</v>
+        <v>0.1405038320495824</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1369492592896401</v>
+        <v>0.284607067418535</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01354157691658518</v>
+        <v>0.02395873714224776</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05314689415971646</v>
+        <v>0.2841293173252512</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02383923545154196</v>
+        <v>0.04219271717747543</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1390069044258313</v>
+        <v>0.2866900165875653</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04873801673029787</v>
+        <v>0.09056978705393173</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1368973422784846</v>
+        <v>0.2878158435890736</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06983839055547242</v>
+        <v>0.1387548973131421</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1377408735051871</v>
+        <v>0.2862521949758676</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01310146538634723</v>
+        <v>0.02661987006699795</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0530633268989657</v>
+        <v>0.2857622444363158</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02381267489585863</v>
+        <v>0.04195448352380723</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1398057946811521</v>
+        <v>0.2883376603610571</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04878175068062982</v>
+        <v>0.08971756254275751</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1376841086134185</v>
+        <v>0.289469957632689</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06904102973078224</v>
+        <v>0.1372992807934303</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1385324877207342</v>
+        <v>0.2878973225332001</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01266797060931566</v>
+        <v>0.02527969954473531</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05297975963821492</v>
+        <v>0.2873951715473804</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02398707110315186</v>
+        <v>0.04101416621841476</v>
       </c>
       <c r="K241" t="n">
-        <v>0.140604684936473</v>
+        <v>0.2899853041345488</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04923505571059758</v>
+        <v>0.08816086496604755</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1384708749483523</v>
+        <v>0.2911240716763044</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06805628778984629</v>
+        <v>0.1350368752119362</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1393241019362812</v>
+        <v>0.2895424500905327</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01223984089048017</v>
+        <v>0.02293820518890469</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05289619237746414</v>
+        <v>0.2890280986584451</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02406243491255104</v>
+        <v>0.04047173226662473</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1414035751917939</v>
+        <v>0.2916329479080406</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04879887890927487</v>
+        <v>0.0871996231082702</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1392576412832861</v>
+        <v>0.2927781857199198</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06738509897837219</v>
+        <v>0.1326675732901497</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1401157161518283</v>
+        <v>0.2911875776478652</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01181748218497932</v>
+        <v>0.02459536661295108</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05281262511671338</v>
+        <v>0.2906610257695098</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02413877716318567</v>
+        <v>0.0399271486737639</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1422024654471147</v>
+        <v>0.2932805916815323</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04937416736573538</v>
+        <v>0.08613376575389384</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1400444076182199</v>
+        <v>0.2944322997635351</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06742839754206742</v>
+        <v>0.1314912677495599</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1409073303673753</v>
+        <v>0.2928327052051978</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01140130044795145</v>
+        <v>0.02525116343031935</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0527290578559626</v>
+        <v>0.2922939528805745</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02391610869418519</v>
+        <v>0.03948038244515897</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1430013557024356</v>
+        <v>0.2949282354550241</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04946186816905285</v>
+        <v>0.08426322168738623</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1408311739531537</v>
+        <v>0.2960864138071505</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06758711772663978</v>
+        <v>0.1301078513116565</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1416989445829224</v>
+        <v>0.2944778327625304</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01099170163453515</v>
+        <v>0.02490557525445446</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05264549059521182</v>
+        <v>0.2939268799916391</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02419444034467901</v>
+        <v>0.03923140058613669</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1438002459577565</v>
+        <v>0.2965758792285159</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04966292840830103</v>
+        <v>0.08308791969321602</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1416179402880876</v>
+        <v>0.2977405278507658</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06686219377779667</v>
+        <v>0.1268172166979288</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1424905587984694</v>
+        <v>0.296122960319863</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01058909169986888</v>
+        <v>0.0245585816988013</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05256192333446105</v>
+        <v>0.2955598071027038</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02387378295379658</v>
+        <v>0.03838017010202378</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1445991362130774</v>
+        <v>0.2982235230020076</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04917829517255351</v>
+        <v>0.08230778855585105</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1424047066230214</v>
+        <v>0.2993946418943812</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06515455994124553</v>
+        <v>0.1259192566298666</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1432821730140165</v>
+        <v>0.2977680878771956</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01019387659909109</v>
+        <v>0.02221016237680482</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05247835607371027</v>
+        <v>0.2971927342137684</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02415414736066734</v>
+        <v>0.03822665799814701</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1453980264683982</v>
+        <v>0.2998711667754994</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04980891555088413</v>
+        <v>0.0811227570597598</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1431914729579552</v>
+        <v>0.3010487559379966</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06496515046269441</v>
+        <v>0.1234138638289591</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1440737872295635</v>
+        <v>0.2994132154345281</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009806462287340313</v>
+        <v>0.02186029690190989</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0523947888129595</v>
+        <v>0.2988256613248331</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02393554440442076</v>
+        <v>0.03767083127983305</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1461969167237191</v>
+        <v>0.3015188105489911</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04915573663236655</v>
+        <v>0.07943275398941024</v>
       </c>
       <c r="M248" t="n">
-        <v>0.143978239292889</v>
+        <v>0.3027028699816119</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06369489958785046</v>
+        <v>0.1221009310166959</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1448654014451106</v>
+        <v>0.3010583429918607</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009427254719754995</v>
+        <v>0.02050896488756145</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05231122155220873</v>
+        <v>0.3004585884358977</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02381798492418628</v>
+        <v>0.03681265695240868</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1469958069790399</v>
+        <v>0.3031664543224829</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05021970550607452</v>
+        <v>0.07893770812927073</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1447650056278229</v>
+        <v>0.3043569840252273</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06444474156242153</v>
+        <v>0.1199803509145665</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1456570156606576</v>
+        <v>0.3027034705491933</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009056659851473609</v>
+        <v>0.02115614594720445</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05222765429145795</v>
+        <v>0.3020915155469625</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02400147975909331</v>
+        <v>0.03635210202120062</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1477946972343608</v>
+        <v>0.3048140980959746</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04990176926108172</v>
+        <v>0.07753754826380935</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1455517719627567</v>
+        <v>0.3060110980688427</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06331561063211516</v>
+        <v>0.1187520162440604</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1464486298762047</v>
+        <v>0.3043485981065259</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008695083637634687</v>
+        <v>0.01980181969428379</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05214408703070718</v>
+        <v>0.3037244426580271</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02398603974827131</v>
+        <v>0.03568913349153559</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1485935874896817</v>
+        <v>0.3064617418694664</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04980287498646183</v>
+        <v>0.07673220317749443</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1463385382976905</v>
+        <v>0.307665212112458</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06250844104263886</v>
+        <v>0.1159158197266671</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1472402440917517</v>
+        <v>0.3059937256638584</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008342932033376681</v>
+        <v>0.01944596574224437</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0520605197699564</v>
+        <v>0.3053573697690917</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02407167573084973</v>
+        <v>0.03502371836874033</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1493924777450026</v>
+        <v>0.3081093856429581</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05012396977128863</v>
+        <v>0.07532160165479401</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1471253046326243</v>
+        <v>0.3093193261560734</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06232416703970023</v>
+        <v>0.1144716540838759</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1480318583072988</v>
+        <v>0.307638853221191</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008000610993838059</v>
+        <v>0.01908856370453114</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05197695250920562</v>
+        <v>0.3069902968801564</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02405839854595802</v>
+        <v>0.03485582365814159</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1501913680003234</v>
+        <v>0.3097570294164499</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05116600070463581</v>
+        <v>0.0739056724801764</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1479120709675581</v>
+        <v>0.3109734401996888</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06136372286900693</v>
+        <v>0.1127194120371766</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1488234725228458</v>
+        <v>0.3092839807785235</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007668526474157333</v>
+        <v>0.020729593194589</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05189338524845485</v>
+        <v>0.3086232239912211</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02404621903272561</v>
+        <v>0.0337854163650661</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1509902582556443</v>
+        <v>0.3114046731899416</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05072991487557707</v>
+        <v>0.07288434443810979</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1486988373024919</v>
+        <v>0.3126275542433041</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06232804277626658</v>
+        <v>0.1111589863080584</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1496150867383929</v>
+        <v>0.3109291083358561</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007347084429472982</v>
+        <v>0.02036903382586288</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05180981798770408</v>
+        <v>0.3102561511022857</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02383514803028192</v>
+        <v>0.03351246349484054</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1517891485109652</v>
+        <v>0.3130523169634334</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05101665937318614</v>
+        <v>0.07155754631306233</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1494856036374258</v>
+        <v>0.3142816682869195</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06091806100718672</v>
+        <v>0.108790269618011</v>
       </c>
       <c r="O255" t="n">
-        <v>0.15040670095394</v>
+        <v>0.3125742358931887</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00703669081492346</v>
+        <v>0.02000686521179768</v>
       </c>
       <c r="G256" t="n">
-        <v>0.0517262507269533</v>
+        <v>0.3118890782133504</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02402519637775645</v>
+        <v>0.0328369320527917</v>
       </c>
       <c r="K256" t="n">
-        <v>0.152588038766286</v>
+        <v>0.3146999607369252</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05202718128653674</v>
+        <v>0.07052520688950223</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1502723699723596</v>
+        <v>0.3159357823305349</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06063471180747482</v>
+        <v>0.1082131546885237</v>
       </c>
       <c r="O256" t="n">
-        <v>0.151198315169487</v>
+        <v>0.3142193634505213</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006737751585647295</v>
+        <v>0.01964306696583833</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05164268346620253</v>
+        <v>0.313522005324415</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0240163749142786</v>
+        <v>0.03215878904424629</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1533869290216069</v>
+        <v>0.3163476045104169</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05196242770470258</v>
+        <v>0.06878725495189777</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1510591363072934</v>
+        <v>0.3175898963741502</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06037892942283868</v>
+        <v>0.1054275342410861</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1519899293850341</v>
+        <v>0.3158644910078539</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006450672696782941</v>
+        <v>0.01727761870142976</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05155911620545175</v>
+        <v>0.3151549324354797</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02350869447897783</v>
+        <v>0.03157800147453106</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1541858192769278</v>
+        <v>0.3179952482839086</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05192334571675736</v>
+        <v>0.067543619284717</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1518459026422272</v>
+        <v>0.3192440104177656</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06055164809898578</v>
+        <v>0.1030333009971877</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1527815436005811</v>
+        <v>0.3175096185651864</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006175860103468891</v>
+        <v>0.01791050003201689</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05147554894470099</v>
+        <v>0.3167878595465444</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02390216591098357</v>
+        <v>0.03109453634897272</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1549847095322487</v>
+        <v>0.3196428920574004</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05261088241177481</v>
+        <v>0.06669422867242827</v>
       </c>
       <c r="M259" t="n">
-        <v>0.152632668977161</v>
+        <v>0.3208981244613809</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05895380208162382</v>
+        <v>0.102230347678318</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1535731578161282</v>
+        <v>0.319154746122519</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005913719760843601</v>
+        <v>0.01654169057104463</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05139198168395021</v>
+        <v>0.318420786657609</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02379680004942528</v>
+        <v>0.03060836067289799</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1557835997875695</v>
+        <v>0.3212905358308922</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05262598487882861</v>
+        <v>0.06533901189949959</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1534194353120949</v>
+        <v>0.3225522385049963</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0591863256164602</v>
+        <v>0.1000185670059665</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1543647720316752</v>
+        <v>0.3207998736798516</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005664657624045596</v>
+        <v>0.01717116993195788</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05130841442319943</v>
+        <v>0.3200537137686737</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0235926077334324</v>
+        <v>0.02981944145163366</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1565824900428904</v>
+        <v>0.3229381796043839</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05326960020699253</v>
+        <v>0.06447789775039942</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1542062016470287</v>
+        <v>0.3242063525486117</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05855015294920263</v>
+        <v>0.09719785170162248</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1551563862472223</v>
+        <v>0.3224450012371842</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.00542907964821334</v>
+        <v>0.01579891772820161</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05122484716244866</v>
+        <v>0.3216866408797384</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02368959980213435</v>
+        <v>0.02942774569050641</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1573813802982112</v>
+        <v>0.3245858233778757</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05394267548534024</v>
+        <v>0.06271081500959572</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1549929679819625</v>
+        <v>0.3258604665922271</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05914621832555866</v>
+        <v>0.09546809448677573</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1559480004627693</v>
+        <v>0.3240901287945167</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00520739178848531</v>
+        <v>0.0164249135732207</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05114127990169788</v>
+        <v>0.323319567990803</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0239877870946606</v>
+        <v>0.02903324039484298</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1581802705535321</v>
+        <v>0.3262334671513674</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05404615780294547</v>
+        <v>0.06143769246155675</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1557797343168963</v>
+        <v>0.3275145806358424</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0587754559912359</v>
+        <v>0.0934291880829155</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1567396146783164</v>
+        <v>0.3257352563518493</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01804913708046006</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05105771264094711</v>
+        <v>0.3249524951018677</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02368718045014058</v>
+        <v>0.02833589256997013</v>
       </c>
       <c r="K264" t="n">
-        <v>0.158979160808853</v>
+        <v>0.3278811109248592</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05498099424888195</v>
+        <v>0.0599584588907508</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1565665006518301</v>
+        <v>0.3291686946794578</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05793880019194203</v>
+        <v>0.09138102521153141</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1575312288938634</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05104455474621027</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005758271030804771</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05104482327467428</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006512109821608165</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.0510450918031383</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007261462092467981</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05104536033160232</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008006273563507416</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05104562886006634</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.00874648995478465</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05104589738853035</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009482056986422467</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05104616591699437</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01021292037847948</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05104643444545839</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01093902585107808</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05104670297392241</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01166031912427721</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05104697150238642</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01237674591819894</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05104724003085044</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01308825195290262</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05104750855931445</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.0137947829485098</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05104777708777847</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01449628462508035</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05104804561624249</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01519270270273541</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05104831414470651</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01588398290153522</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05104858267317053</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01657007094160046</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05104885120163455</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01725091254299189</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05104911973009856</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01792645342581508</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05104938825856258</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01859663931017511</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.0510496567870266</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01926141591613347</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05104992531549061</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01992072896380966</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05105019384395463</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02057452417326556</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05105046237241864</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02122274726462021</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05105073090088266</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02186534395793602</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05105099942934668</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02250248161629494</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.0510512679578107</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02313543581754033</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05105153648627472</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02376437392475376</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05105180501473874</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02438924165799845</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05105207354320275</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02500998473739219</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05105234207166677</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02562654888299856</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05105261060013078</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02623887981493495</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.0510528791285948</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02684692325326537</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05105314765705882</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02745062491809373</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05105341618552283</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02804993052952363</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05105368471398685</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02864478580761958</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05105395324245086</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02923513647249806</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05105422177091488</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02982092824422396</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.0510544902993789</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03040210684291338</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05105475882784292</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03097861798863163</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05105502735630694</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03155040740149436</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05105529588477096</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03211742080156727</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05105556441323497</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03267960390896566</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05105583294169899</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03323690244375566</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05105610147016301</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03378926212605207</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05105636999862703</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03433662867592147</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05105663852709104</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0348789478134783</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05105690705555506</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03541616525878952</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05105717558401907</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03594822673196909</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05105744411248309</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03647507795308446</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05105771264094711</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03647507795308446</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05104455474621027</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03707197860189502</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05112865906388907</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03766335750872849</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05121276338156789</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03824906623998352</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.0512968676992467</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03882895636205889</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05138097201692551</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03940287944135328</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05146507633460431</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03997068704426551</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05154918065228312</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04053223073719418</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05163328496996193</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04108736208653806</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05171738928764074</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04163593265869591</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05180149360531955</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04217779402006645</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05188559792299836</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04271279773704833</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05196970224067717</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04324079537604033</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05205380655835597</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04376163850344118</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05213791087603478</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04427517868564961</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05222201519371359</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04478126748906428</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0523061195113924</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04527975648008397</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05239022382907121</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04577049722510741</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05247432814675002</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04625334129053326</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05255843246442883</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04672814024276028</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05264253678210764</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04719474564818723</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05272664109978644</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04765300907321276</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05281074541746525</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04810278208423566</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05289484973514406</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04854391624765469</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05297895405282288</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04897626312986845</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05306305837050168</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0494002804011476</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05314716268818049</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04981945625112213</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0532312670058593</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05023424835006269</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05331537132353811</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05064450826436797</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05339947564121691</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05105008756043667</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05348357995889572</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05145083780466763</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05356768427657454</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.0518466105634594</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05365178859425335</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0522372574032108</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05373589291193216</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05262262989032054</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05381999722961096</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05300257959118734</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05390410154728977</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05337695807220993</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05398820586496857</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05374561689978704</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05407231018264738</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05410840764031736</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05415641450032619</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05446518186019971</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05424051881800501</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05481579112583267</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05432462313568381</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05516008700361504</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05440872745336262</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05549792105994553</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05449283177104143</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05582914486122289</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05457693608872024</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05615360997384581</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05466104040639905</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05647116796421304</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05474514472407786</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05678167039872329</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05482924904175667</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05708496884377528</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05491335335943548</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05738091486576773</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05499745767711429</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05766936003109937</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.0550815619947931</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05795015590616891</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.0551656663124719</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04896677060411261</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.0551656663124719</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05816419262850155</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05673876134656505</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05836238665639815</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0583118563806582</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05854534715028401</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.05988495141475134</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05871368327058444</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06145804644884451</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05886800417772476</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06303114148293765</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05900891903213024</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.0646042365170308</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05913703699422624</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06617733155112394</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05925296722443806</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.0677504265852171</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05935731888319098</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.06932352161931025</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05945070113091033</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07089661665340341</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0595337231280214</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07246971168749655</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05960699403494955</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07404280672158971</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05967112301212003</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07561590175568285</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05972671921995817</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07718899678977599</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05977439181888931</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07876209182386915</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05981474996933871</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0803351868579623</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05984840283173171</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08190828189205546</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05987595956649362</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.0834813769261486</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05989802933404972</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08505447196024175</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05991522129482534</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08662756699433491</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05992814460924582</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.08820066202842805</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05993740843773642</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.08977375706252119</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05994362194072247</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09134685209661435</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05994739427862928</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.0929199471307075</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05994933461188214</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09449304216480064</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05995005210090642</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.0960661371988938</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05995015590612735</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09763923223298696</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05991651642391756</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.0992123272670801</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05981746572284474</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1007854223011732</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.0596573485105415</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1023585173352664</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05944051141726322</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1039316123693595</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0591713010732653</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1055047074034527</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05885406410880311</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1070778024375458</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05849314715413207</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.108650897471639</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05809289683950757</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1102239925057321</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05765765979518497</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1117970875398253</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05719178265141971</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1133701825739184</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05669961203846714</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1149432776080116</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05618549458658267</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1165163726421048</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.0556537769260217</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1180894676761979</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05510880568703961</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.119662562710291</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05455492749989179</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1212356577443842</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05399648899483366</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1228087527784773</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05343783680212056</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1243818478125705</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05288331755200795</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1259549428466636</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05233727787475114</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1275280378807568</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05180406440060561</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.12910113291485</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.0512880237598267</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1306742279489431</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.0507935025826698</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1322473229830362</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05032484749939031</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1338204180171294</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04988100335586001</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1353935130512225</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04942862240032172</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1369666080853157</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04896262742262624</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1385397031194089</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04848472539901889</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.140112798153502</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0479966233057449</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1416858931875952</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.0475000281190496</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1432589882216883</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04699664681517823</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1448320832557815</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04648818637037607</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1464051782898746</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04597635376088844</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1479782733239677</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04546285596296058</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04494939995283779</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.151124463392154</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04443769270676535</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1526975584262472</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04392944120098851</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1542706534603404</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04342635241175261</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1558437484944335</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04293013331530288</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1574168435285266</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04244249088788459</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1589899385626198</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.0419651321057431</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.160563033596713</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04149976394512361</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1621361286308061</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04104809338227141</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1637092236648993</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04061182739343182</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1652823186989924</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04019267295485008</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1668554137330855</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.0397923370427715</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1684285087671787</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03941252663344134</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1700016038012719</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03905494870310489</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.171574698835365</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03872131022800742</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1731477938694581</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03841331818439422</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1747208889035513</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03812087996561939</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1762939839376444</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03783213703342504</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1778670789717376</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03754751757817591</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1794401740058308</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03726745427412644</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1810132690399239</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.0369923797955311</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.182586364074017</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03672272681664428</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1841594591081102</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03645892801172041</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1857325541422034</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.0362014160550139</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1873056491762965</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03595062362077924</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1888787442103896</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03570698338327077</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1904518392444828</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03547092801674296</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1920249342785759</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03524289019545025</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1935980293126691</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03502330259364703</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1951711243467622</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03481259788558775</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1967442193808554</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03461120874552682</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1983173144149485</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03441956784771868</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1998904094490417</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03423810786641775</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2014635044831349</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03406726147587847</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.203036599517228</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03390746135035522</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2046096945513212</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03375914016410247</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2061827895854143</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03362273059137464</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2077558846195074</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03349866530642614</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2093289796536006</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03338737698351141</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2109020746876938</v>
-      </c>
-    </row>
+        <v>0.3273803839091819</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1273.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004158152564738393</v>
+        <v>0.001329571375163305</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001632927111064662</v>
+        <v>0.0005056594604506791</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00379681641988909</v>
+        <v>0.001713015574136903</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001647643773491755</v>
+        <v>0.0008670807025708354</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008827500534273253</v>
+        <v>0.004726603040019123</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001654114043615366</v>
+        <v>0.0008533285827847071</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01745691742458622</v>
+        <v>0.009032662676401848</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001645127557332572</v>
+        <v>0.0008517276987833271</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.007741692651028149</v>
+        <v>0.002629062863630217</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003363428861539079</v>
+        <v>0.001011318920901358</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007469454796312724</v>
+        <v>0.00387357239230135</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003295287546983509</v>
+        <v>0.001734161405141671</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0183158433711299</v>
+        <v>0.01095741166315586</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003308228087230732</v>
+        <v>0.001706657165569414</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03236360791960269</v>
+        <v>0.01613986942721635</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003290255114665144</v>
+        <v>0.001703455397566654</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.009177558798180267</v>
+        <v>0.003880059893079782</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004898781333193985</v>
+        <v>0.001516978381352037</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009988650000000002</v>
+        <v>0.006025735948760144</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004339634135869567</v>
+        <v>0.002601242107712506</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02498865</v>
+        <v>0.01544713851052518</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004768828720735786</v>
+        <v>0.002559985748354121</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03998864999999996</v>
+        <v>0.02550356505541235</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00417272513064381</v>
+        <v>0.002555183096349981</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01043698912851888</v>
+        <v>0.005064147891191022</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006531708444258647</v>
+        <v>0.002022637841802716</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01416161973347974</v>
+        <v>0.008013571737779973</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006590575093967019</v>
+        <v>0.003468322810283342</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0314897990997299</v>
+        <v>0.02045049622324216</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006616456174461463</v>
+        <v>0.003413314331138828</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05472081954280955</v>
+        <v>0.03330569436395869</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006580510229330289</v>
+        <v>0.003406910795133309</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.007741692651028149</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01337135797373674</v>
+        <v>0.006162912285642981</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008164635555323308</v>
+        <v>0.002528297302253396</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01757906740763249</v>
+        <v>0.009988650000000002</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008238218867458773</v>
+        <v>0.004339634135869567</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03761930397131222</v>
+        <v>0.02498865</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008270570218076829</v>
+        <v>0.004213237025116083</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06338026604058605</v>
+        <v>0.03998864999999996</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008225637786662861</v>
+        <v>0.004296667461256991</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01625755456715911</v>
+        <v>0.007157938504114704</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01009028658461723</v>
+        <v>0.003033956762704074</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02038739818894836</v>
+        <v>0.01147019207527739</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009885862640950529</v>
+        <v>0.005202484215425012</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04254713954010386</v>
+        <v>0.02861897224066376</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009924684261692194</v>
+        <v>0.005119971496708242</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0718697654355771</v>
+        <v>0.04522304969619217</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009870765343995433</v>
+        <v>0.005110366192699963</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01741268581562457</v>
+        <v>0.007741692651028149</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01143048977745263</v>
+        <v>0.003363428861539079</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0231980779135736</v>
+        <v>0.01246840624479564</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01153350641444228</v>
+        <v>0.006069564917995848</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04687092285151898</v>
+        <v>0.03125468588903088</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01157879830530756</v>
+        <v>0.00597330007949295</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07801541211735485</v>
+        <v>0.04938826653623557</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01151589290132801</v>
+        <v>0.005962093891483289</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01877698121034061</v>
+        <v>0.008889582128790943</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01306341688851729</v>
+        <v>0.004045275683605433</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02561330622407687</v>
+        <v>0.013986239712918</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0130189024076087</v>
+        <v>0.006936645620566683</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05088827095097168</v>
+        <v>0.0345644372020992</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01323291234892293</v>
+        <v>0.006826628662277657</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08366152514099384</v>
+        <v>0.05508284589398332</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01251817539193143</v>
+        <v>0.006813821590266617</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01808833593774906</v>
+        <v>0.009730323954477156</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01469634399958196</v>
+        <v>0.004550935144056112</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02755141997178917</v>
+        <v>0.01503414234576526</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01482879396142579</v>
+        <v>0.007803726323137519</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05463741568253536</v>
+        <v>0.03758239441529793</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01430648616220736</v>
+        <v>0.007679957245062364</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09222305987606683</v>
+        <v>0.05876506459374309</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01480614801599315</v>
+        <v>0.007665549289049944</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02034084009402062</v>
+        <v>0.01055403863123883</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01632927111064662</v>
+        <v>0.005056594604506791</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.029632108228254</v>
+        <v>0.01662256400945822</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01647643773491755</v>
+        <v>0.008670807025708353</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06002790032443975</v>
+        <v>0.04084272576405631</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01654114043615366</v>
+        <v>0.00853328582784707</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09829985301761801</v>
+        <v>0.06289319945982269</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01645127557332572</v>
+        <v>0.008517276987833272</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02152858377532587</v>
+        <v>0.01135351003406174</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01796219822171128</v>
+        <v>0.00556225406495747</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03155285949510107</v>
+        <v>0.0172619545701177</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.0181240815084093</v>
+        <v>0.009537887728279189</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06365109994133589</v>
+        <v>0.04277959948380364</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01819525447976902</v>
+        <v>0.009386614410631778</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1048427930440098</v>
+        <v>0.0672255273165297</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01809640313065829</v>
+        <v>0.009369004686616597</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02164565707783545</v>
+        <v>0.0121215220379316</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01959512533277594</v>
+        <v>0.006067913525408149</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03399977400960782</v>
+        <v>0.01836276389386451</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01977172528190106</v>
+        <v>0.01040496843085002</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06783282305324964</v>
+        <v>0.04562718380996908</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01984936852338439</v>
+        <v>0.01023994299341648</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1115945552428321</v>
+        <v>0.07172032498817194</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01974153068799087</v>
+        <v>0.01022073238539993</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02368615009771997</v>
+        <v>0.01285085851783421</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0212280524438406</v>
+        <v>0.006573572985858828</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03575895200905173</v>
+        <v>0.0194354418468195</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02141936905539281</v>
+        <v>0.01127204913342086</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07182752565224701</v>
+        <v>0.04821964697798189</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02150348256699975</v>
+        <v>0.01109327157620119</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1171978149016746</v>
+        <v>0.07493586929905688</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02138665824532344</v>
+        <v>0.01107246008418325</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02364415293115008</v>
+        <v>0.01353430334875529</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02286097955490526</v>
+        <v>0.007079232446309506</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03731649373071023</v>
+        <v>0.02069043829510342</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02306701282888457</v>
+        <v>0.0121391298359917</v>
       </c>
       <c r="L79" t="n">
-        <v>0.076289663730394</v>
+        <v>0.05009115722327134</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02315759661061512</v>
+        <v>0.0119466001589859</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1234952473081271</v>
+        <v>0.07923043707349242</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02303178580265601</v>
+        <v>0.01192418778296658</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02351375567429639</v>
+        <v>0.01416464040568065</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02449390666596993</v>
+        <v>0.007584891906760186</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03915849941186081</v>
+        <v>0.02183820310483711</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02471465660237632</v>
+        <v>0.01300621053856253</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08007369327975666</v>
+        <v>0.05463741568253536</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02481171065423049</v>
+        <v>0.01316028235163428</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1280295277497794</v>
+        <v>0.08366152514099384</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02467691335998858</v>
+        <v>0.01284170643535969</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02428904842332948</v>
+        <v>0.01473465356359601</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02612683377703459</v>
+        <v>0.008090551367210866</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0406710692897809</v>
+        <v>0.02308918614214139</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02636230037586807</v>
+        <v>0.01387329124113337</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08373407029240107</v>
+        <v>0.05591756733543671</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02646582469784585</v>
+        <v>0.01365325732455531</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1334433315142212</v>
+        <v>0.08601863151805722</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02632204091732115</v>
+        <v>0.01362764318053323</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02596412127442003</v>
+        <v>0.01523712669748713</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02775976088809925</v>
+        <v>0.008596210827661545</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04194030360174797</v>
+        <v>0.02385383727313709</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02800994414935983</v>
+        <v>0.0147403719437042</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08692525076039323</v>
+        <v>0.05847109368819883</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02811993874146122</v>
+        <v>0.01450658590734002</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1374793338890424</v>
+        <v>0.0904430043843909</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02796716847465372</v>
+        <v>0.01447937087931656</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02553306432373863</v>
+        <v>0.01566484368233981</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02939268799916391</v>
+        <v>0.009101870288112225</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0433523025850395</v>
+        <v>0.02561330622407687</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02965758792285159</v>
+        <v>0.0158969541890738</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0899016906757992</v>
+        <v>0.06112435110832912</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02977405278507658</v>
+        <v>0.01535991449012473</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1424802101618327</v>
+        <v>0.09520725453854301</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0296122960319863</v>
+        <v>0.01533109857809989</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02698996766745593</v>
+        <v>0.01601058839313973</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03102561511022857</v>
+        <v>0.009607529748562903</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04439316647693291</v>
+        <v>0.02597355137778325</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03130523169634334</v>
+        <v>0.01647453334884587</v>
       </c>
       <c r="L84" t="n">
-        <v>0.093017846030685</v>
+        <v>0.06355853808170006</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03142816682869195</v>
+        <v>0.01621324307290943</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1448886356201819</v>
+        <v>0.09998292414936338</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03125742358931887</v>
+        <v>0.01618282627688322</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02937799811525445</v>
+        <v>0.01625755456715911</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03265854222129323</v>
+        <v>0.01009028658461723</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04524899551470569</v>
+        <v>0.02717237386103653</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03295287546983509</v>
+        <v>0.01734161405141671</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09482817281711672</v>
+        <v>0.06665485309418384</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03308228087230732</v>
+        <v>0.01706657165569414</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1476472855516797</v>
+        <v>0.1041415553857018</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03290255114665144</v>
+        <v>0.01703455397566654</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02975491122817257</v>
+        <v>0.01647951125747072</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0342914693323579</v>
+        <v>0.01061884866946426</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04551679471533542</v>
+        <v>0.02833123741970019</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03460051924332685</v>
+        <v>0.01820869475398754</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09628712702716039</v>
+        <v>0.06949449463165286</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03473639491592267</v>
+        <v>0.01791990023847885</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1502265419577664</v>
+        <v>0.1074546904164083</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03454767870398402</v>
+        <v>0.01788628167444987</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02911837234438173</v>
+        <v>0.01668877147567942</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03592439644342255</v>
+        <v>0.01112450812991494</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04632685842970159</v>
+        <v>0.0300400118810966</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0362481630168186</v>
+        <v>0.01907577545655838</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09824874126357572</v>
+        <v>0.07265866117997949</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03639050895953805</v>
+        <v>0.01877322882126356</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1509005421904083</v>
+        <v>0.1119938714103327</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03619280626131659</v>
+        <v>0.01873800937323319</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02946585699642287</v>
+        <v>0.01689502883696221</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755732355448722</v>
+        <v>0.01163016759036562</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04671775530183679</v>
+        <v>0.03128856707254818</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03789580679031036</v>
+        <v>0.01994285615912921</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09924354946397099</v>
+        <v>0.07612855122503595</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03804462300315341</v>
+        <v>0.01962655740404826</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1531085319144426</v>
+        <v>0.1171306405363247</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03783793381864916</v>
+        <v>0.01958973707201652</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0287948407168369</v>
+        <v>0.01709829125581135</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03919025066555188</v>
+        <v>0.0121358270508163</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04728539960079439</v>
+        <v>0.03266677282137731</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03954345056380212</v>
+        <v>0.02080993686170005</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09999443688886858</v>
+        <v>0.0787853632526947</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03969873704676877</v>
+        <v>0.02047988598683297</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1550372268301058</v>
+        <v>0.1216365399632343</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03948306137598173</v>
+        <v>0.02044146477079985</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02810279903816482</v>
+        <v>0.01729856664671931</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04082317777661654</v>
+        <v>0.01264148651126698</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04772570559562787</v>
+        <v>0.03416449895490636</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04119109433729386</v>
+        <v>0.02167701756427088</v>
       </c>
       <c r="L90" t="n">
-        <v>0.101892584917766</v>
+        <v>0.08101029574882801</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04135285109038414</v>
+        <v>0.02133321456961768</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1572733426376337</v>
+        <v>0.1268831118599114</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0411281889333143</v>
+        <v>0.02129319246958318</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03138720749294757</v>
+        <v>0.01749586292417838</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0424561048876812</v>
+        <v>0.01314714597171766</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0485345875553907</v>
+        <v>0.03527161530045776</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04283873811078562</v>
+        <v>0.02254409826684172</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1030291749301603</v>
+        <v>0.0842845471993082</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04300696513399951</v>
+        <v>0.02218654315240238</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1581035950372625</v>
+        <v>0.1306418983952056</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04277331649064688</v>
+        <v>0.02214492016836651</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02864554161372603</v>
+        <v>0.01769018800268098</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04408903199874586</v>
+        <v>0.01365280543216833</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04880795974913629</v>
+        <v>0.03657799168535386</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04448638188427738</v>
+        <v>0.02341117896941255</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1034953883055488</v>
+        <v>0.08688931609000758</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04466107917761488</v>
+        <v>0.02303987173518709</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1601146997292283</v>
+        <v>0.1346844417379671</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04441844404797945</v>
+        <v>0.02299664786714983</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02987527693304121</v>
+        <v>0.01788154979671949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04572195910981053</v>
+        <v>0.01415846489261901</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04934173644591813</v>
+        <v>0.03827349793691709</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04613402565776913</v>
+        <v>0.02427825967198339</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1048824064234289</v>
+        <v>0.08940580090679864</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04631519322123024</v>
+        <v>0.0238932003179718</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1624933724137672</v>
+        <v>0.1392822840570455</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04606357160531202</v>
+        <v>0.02384837556593316</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02907388898343403</v>
+        <v>0.01806995622078624</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04735488622087519</v>
+        <v>0.01466412435306969</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04993183191478963</v>
+        <v>0.03944800388246983</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04778166943126089</v>
+        <v>0.02514534037455423</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1058814106632978</v>
+        <v>0.09221520013555359</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04796930726484561</v>
+        <v>0.0247465289007565</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1631263287911153</v>
+        <v>0.1425069675212908</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04770869916264459</v>
+        <v>0.02470010326471649</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03023885329744542</v>
+        <v>0.01825541518937363</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04898781333193986</v>
+        <v>0.01516978381352037</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04987416042480428</v>
+        <v>0.04079137934933445</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04942931320475264</v>
+        <v>0.02601242107712506</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1065835824046528</v>
+        <v>0.09479871226214473</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04962342130846097</v>
+        <v>0.02559985748354121</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1633002845615086</v>
+        <v>0.1459300342995528</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04935382671997716</v>
+        <v>0.02555183096349981</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03136764540761635</v>
+        <v>0.01843793461697404</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05062074044300451</v>
+        <v>0.01567544327397105</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0504646362450155</v>
+        <v>0.04249349416483335</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05107695697824439</v>
+        <v>0.0268795017796959</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1072801030269912</v>
+        <v>0.09753753577244442</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05127753535207633</v>
+        <v>0.02645318606632592</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1647019554251835</v>
+        <v>0.1501230265606813</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05099895427730974</v>
+        <v>0.02640355866228314</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03045774084648774</v>
+        <v>0.01861752241807981</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05225366755406918</v>
+        <v>0.01618110273442173</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05039917364447677</v>
+        <v>0.04364421815628891</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05272460075173615</v>
+        <v>0.02774658248226673</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1075621539098102</v>
+        <v>0.09971286915232505</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05293164939569171</v>
+        <v>0.02730651464911063</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1650180570823758</v>
+        <v>0.1539574864735264</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05264408183464231</v>
+        <v>0.02725528636106647</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03251510913431823</v>
+        <v>0.01879418650718333</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05388659466513383</v>
+        <v>0.01668676219487241</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05077368689224152</v>
+        <v>0.04473342115102356</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05437224452522791</v>
+        <v>0.02861366318483757</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1078209164326072</v>
+        <v>0.1010059108876589</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05458576343930707</v>
+        <v>0.02815984323189533</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1667353052333218</v>
+        <v>0.1564049562069376</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05428920939197488</v>
+        <v>0.02810701405984979</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02951348394460582</v>
+        <v>0.018967934798777</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0555195217761985</v>
+        <v>0.01719242165532309</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05122661244815373</v>
+        <v>0.04605097297635967</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05601988829871966</v>
+        <v>0.0294807438874084</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1083475719748793</v>
+        <v>0.1029978594643184</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05623987748292244</v>
+        <v>0.02901317181468004</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1673230502819877</v>
+        <v>0.1586369779297649</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05593433694930745</v>
+        <v>0.02895874175863312</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03149442972545528</v>
+        <v>0.01913877520735314</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05715244888726316</v>
+        <v>0.01769808111577377</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05092629800889524</v>
+        <v>0.04678674345961963</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05766753207221142</v>
+        <v>0.03034782458997923</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1092748313650707</v>
+        <v>0.1050699133681757</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05789399152653781</v>
+        <v>0.02986650039746475</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1660216149370033</v>
+        <v>0.1619250938108583</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05757946450664003</v>
+        <v>0.02981046945741645</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03045501377480671</v>
+        <v>0.01930671564740415</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05878537599832782</v>
+        <v>0.01820374057622445</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05121223490819928</v>
+        <v>0.04803060242812582</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05931517584570317</v>
+        <v>0.03121490529255008</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1084721422609499</v>
+        <v>0.1061032710851033</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05954810557015316</v>
+        <v>0.03071982898024946</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1659471594582568</v>
+        <v>0.1624408460190676</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0592245920639726</v>
+        <v>0.03066219715619978</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03039656655981268</v>
+        <v>0.0194717640334224</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06041830310939249</v>
+        <v>0.01870940003667513</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05096435095788543</v>
+        <v>0.04877241970920063</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06096281961919493</v>
+        <v>0.03208198599512091</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1082150668404972</v>
+        <v>0.1067791311009734</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06120221961376853</v>
+        <v>0.03157315756303416</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1666648367612932</v>
+        <v>0.1654557767232425</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06086971962130517</v>
+        <v>0.0315139248549831</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0313204185476257</v>
+        <v>0.01963392827990023</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06205123022045714</v>
+        <v>0.01921505949712581</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05108495921924859</v>
+        <v>0.04960206513016646</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06261046339268668</v>
+        <v>0.03294906669769174</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1082873060405471</v>
+        <v>0.1083786919016585</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0628563336573839</v>
+        <v>0.03242648614581887</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1658816480551857</v>
+        <v>0.165841428092233</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06251484717863774</v>
+        <v>0.03236565255376643</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0292279002053983</v>
+        <v>0.01979321630133008</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0636841573315218</v>
+        <v>0.01972071895757649</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05067621299032356</v>
+        <v>0.05010940851834571</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06425810716617843</v>
+        <v>0.03381614740026258</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1085935075284195</v>
+        <v>0.1080831519730308</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06451044770099927</v>
+        <v>0.03327981472860358</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1659045945490083</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06415997473597032</v>
+        <v>0.03321738025254976</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.029120342000283</v>
+        <v>0.01994963601220427</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06531708444258646</v>
+        <v>0.02022637841802716</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05034026556914509</v>
+        <v>0.05038431970106076</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06590575093967019</v>
+        <v>0.03468322810283341</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1083383189714343</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06616456174461463</v>
+        <v>0.03413314331138828</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1653406774518343</v>
+        <v>0.1662230502819877</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06580510229330289</v>
+        <v>0.03406910795133309</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02899907439943233</v>
+        <v>0.02010319532701516</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06695001155365113</v>
+        <v>0.02073203787847784</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05047927025374797</v>
+        <v>0.05051666850563398</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06755339471316195</v>
+        <v>0.03555030880540425</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1076263880369113</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06781867578823</v>
+        <v>0.03498647189417299</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1647968979727372</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06745022985063547</v>
+        <v>0.03492083565011641</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03186542786999882</v>
+        <v>0.02025390216025517</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06858293866471579</v>
+        <v>0.02123769733892852</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05029538034216698</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0692010384866537</v>
+        <v>0.03641738950797509</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1074623623921703</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06947278983184535</v>
+        <v>0.03583980047695769</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1647802573207906</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06909535740796803</v>
+        <v>0.03577256334889974</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02972073287913499</v>
+        <v>0.02040176442641662</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07021586577578046</v>
+        <v>0.0217433567993792</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04979074913243692</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07084868226014546</v>
+        <v>0.03728447021054592</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1074508897045312</v>
+        <v>0.1084748313650707</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07112690387546072</v>
+        <v>0.0366931290597424</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1633977567050681</v>
+        <v>0.1672230502819877</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0707404849653006</v>
+        <v>0.03662429104768307</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02856631989399339</v>
+        <v>0.02054679003999193</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07184879288684511</v>
+        <v>0.02224901625982988</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04986752992259254</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0724963260336372</v>
+        <v>0.03815155091311676</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1068966176413138</v>
+        <v>0.1085748313650708</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0727810179190761</v>
+        <v>0.03754645764252711</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1629563973346431</v>
+        <v>0.1662230502819877</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07238561252263317</v>
+        <v>0.03747601874646639</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02840351938172653</v>
+        <v>0.02068898691547345</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07348171999790977</v>
+        <v>0.02275467572028056</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04972787601066864</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07414396980712896</v>
+        <v>0.03901863161568759</v>
       </c>
       <c r="L110" t="n">
-        <v>0.105904193869838</v>
+        <v>0.1084748313650707</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07443513196269146</v>
+        <v>0.03839978622531182</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1623631804185892</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07403074007996575</v>
+        <v>0.03832774644524972</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02823366180948695</v>
+        <v>0.02082836296735354</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07511464710897443</v>
+        <v>0.02326033518073124</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04917394069469999</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07579161358062073</v>
+        <v>0.03988571231825842</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1057782660574237</v>
+        <v>0.1090748313650708</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07608924600630683</v>
+        <v>0.03925311480809653</v>
       </c>
       <c r="N111" t="n">
-        <v>0.16142510716598</v>
+        <v>0.1669230502819877</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07567586763729832</v>
+        <v>0.03917947414403305</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03005807764442717</v>
+        <v>0.02096492611012459</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0767475742200391</v>
+        <v>0.02376599464118192</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04900787727272138</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07743925735411247</v>
+        <v>0.04075279302082926</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1052234818713906</v>
+        <v>0.1089748313650707</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07774336004992219</v>
+        <v>0.04010644339088123</v>
       </c>
       <c r="N112" t="n">
-        <v>0.159449178785889</v>
+        <v>0.1669230502819877</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07732099519463088</v>
+        <v>0.04003120184281637</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02987809735369972</v>
+        <v>0.02109868425827897</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07838050133110376</v>
+        <v>0.02427165410163259</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04883183904276756</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07908690112760423</v>
+        <v>0.0416198737234001</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1047444889790588</v>
+        <v>0.1084748313650707</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07939747409353755</v>
+        <v>0.04095977197366594</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1596423964873898</v>
+        <v>0.1657230502819877</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07896612275196346</v>
+        <v>0.0408829295415997</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02969505140445711</v>
+        <v>0.02122964532630903</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08001342844216842</v>
+        <v>0.02477731356208327</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04864797930287333</v>
+        <v>0.05092661244815373</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08073454490109598</v>
+        <v>0.04248695442597093</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1036459350477478</v>
+        <v>0.1083748313650707</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08105158813715292</v>
+        <v>0.04181310055645065</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1590117614795559</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08061125030929604</v>
+        <v>0.04173465724038303</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02851027026385191</v>
+        <v>0.02135781722870717</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08164635555323307</v>
+        <v>0.02528297302253395</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04815845135107349</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08238218867458773</v>
+        <v>0.04335403512854177</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1036324677447777</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08270570218076828</v>
+        <v>0.04266642913923535</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1578642749714608</v>
+        <v>0.1664230502819877</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08225637786662861</v>
+        <v>0.04258638493916635</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0283250843990366</v>
+        <v>0.02148320787996575</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08327928266429774</v>
+        <v>0.02578863248298463</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04766540848540279</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08402983244807949</v>
+        <v>0.0442211158311126</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1024087347374682</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08435981622438365</v>
+        <v>0.04351975772202006</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1570069381721779</v>
+        <v>0.1657230502819877</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08390150542396117</v>
+        <v>0.04343811263794968</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03014082427716375</v>
+        <v>0.02160582519457713</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0849122097753624</v>
+        <v>0.02629429194343531</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04787100400389602</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08567747622157125</v>
+        <v>0.04508819653368343</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1024793836931393</v>
+        <v>0.1086748313650708</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08601393026799901</v>
+        <v>0.04437308630480476</v>
       </c>
       <c r="N117" t="n">
-        <v>0.154946752290781</v>
+        <v>0.1667230502819877</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08554663298129375</v>
+        <v>0.04428984033673301</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02695860859427406</v>
+        <v>0.02172567708703369</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08654513688642707</v>
+        <v>0.02679995140388599</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04737739120458795</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087325119995063</v>
+        <v>0.04595527723625428</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1015490622791108</v>
+        <v>0.1090748313650708</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08766804431161439</v>
+        <v>0.04522641488758947</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1549907185363435</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08719176053862633</v>
+        <v>0.04514156803551633</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02875992084701214</v>
+        <v>0.02184277147182783</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08817806399749173</v>
+        <v>0.02730561086433667</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04688672338551338</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08897276376855476</v>
+        <v>0.04682235793882511</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1008224181627025</v>
+        <v>0.1083748313650707</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08932215835522976</v>
+        <v>0.04607974347037418</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1532457691984866</v>
+        <v>0.1671230502819877</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0888368880959589</v>
+        <v>0.04599329573429967</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02853520817433807</v>
+        <v>0.02195711626345188</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08981099110855639</v>
+        <v>0.02781127032478735</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04648370577655563</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09062040754204652</v>
+        <v>0.04768943864139594</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1003007227533184</v>
+        <v>0.1088748313650707</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09097627239884511</v>
+        <v>0.04693307205315889</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1520274058233404</v>
+        <v>0.1663230502819877</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09048201565329146</v>
+        <v>0.04684502343308299</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02928880539727246</v>
+        <v>0.02206871937639823</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09144391821962106</v>
+        <v>0.02831692978523803</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04623791139934258</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09226805131553827</v>
+        <v>0.04855651934396678</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09951122225447348</v>
+        <v>0.1087748313650707</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09263038644246048</v>
+        <v>0.0477864006359436</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1506713907576359</v>
+        <v>0.1673230502819877</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09212714321062404</v>
+        <v>0.04769675113186631</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0290250473368359</v>
+        <v>0.02217758872515926</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09307684533068572</v>
+        <v>0.02882258924568871</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04585531827278937</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09391569508903003</v>
+        <v>0.04942360004653762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09873413598421529</v>
+        <v>0.1090748313650708</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09428450048607584</v>
+        <v>0.0486397292187283</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1498005347774261</v>
+        <v>0.1669230502819877</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09377227076795661</v>
+        <v>0.04854847883064965</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02574826881404908</v>
+        <v>0.02228373222422731</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09470977244175038</v>
+        <v>0.02932824870613939</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04554294209928829</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09556333886252177</v>
+        <v>0.05029068074910845</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0977846065982321</v>
+        <v>0.1082748313650707</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09593861452969121</v>
+        <v>0.04949305780151301</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1481376486587635</v>
+        <v>0.1667230502819877</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09541739832528918</v>
+        <v>0.04940020652943297</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02546280464993256</v>
+        <v>0.02238715778809478</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09634269955281505</v>
+        <v>0.02983390816659007</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04540779858123159</v>
+        <v>0.05092661244815373</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09721098263601352</v>
+        <v>0.05115776145167929</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09707777675221183</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09759272857330659</v>
+        <v>0.05034638638429772</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1478055431777009</v>
+        <v>0.1661230502819877</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09706252588262176</v>
+        <v>0.0502519342282163</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02517298966550702</v>
+        <v>0.02248787333125402</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09797562666387971</v>
+        <v>0.03033956762704074</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04495690342101157</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09885862640950528</v>
+        <v>0.05202484215425012</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09542878910184252</v>
+        <v>0.1084748313650707</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09924684261692195</v>
+        <v>0.05119971496708242</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1449270291102908</v>
+        <v>0.1661230502819877</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09870765343995433</v>
+        <v>0.05110366192699962</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02688315868179305</v>
+        <v>0.02258588676819744</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09960855377494438</v>
+        <v>0.03084522708749142</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04419727232102048</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K126" t="n">
-        <v>0.100506270182997</v>
+        <v>0.05289192285682096</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09505278630281225</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1009009566605373</v>
+        <v>0.05205304354986713</v>
       </c>
       <c r="N126" t="n">
-        <v>0.144124917232586</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1003527809972869</v>
+        <v>0.05195538962578296</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02559764651981131</v>
+        <v>0.02268120601341738</v>
       </c>
       <c r="G127" t="n">
-        <v>0.101241480886009</v>
+        <v>0.0313508865479421</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04383592098365061</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1021539139564888</v>
+        <v>0.0537590035593918</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09436491101080893</v>
+        <v>0.1088748313650707</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1025550707041527</v>
+        <v>0.05290637213265184</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1425220183206392</v>
+        <v>0.1665230502819877</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1019979085546195</v>
+        <v>0.05280711732456628</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02432078800058238</v>
+        <v>0.02277383898140622</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1028744079970737</v>
+        <v>0.03185654600839278</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04337986511129427</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1038015577299806</v>
+        <v>0.05462608426196263</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09328030588152061</v>
+        <v>0.1082748313650707</v>
       </c>
       <c r="M128" t="n">
-        <v>0.104209184747768</v>
+        <v>0.05375970071543654</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1417411431505031</v>
+        <v>0.1665230502819877</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1036430361119521</v>
+        <v>0.0536588450233496</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02505690725805986</v>
+        <v>0.02286379358665633</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1045073351081384</v>
+        <v>0.03236220546884346</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04293612040634368</v>
+        <v>0.05092661244815373</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1054492015034723</v>
+        <v>0.05549316496453346</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09251411357063541</v>
+        <v>0.1086748313650708</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1058632987913834</v>
+        <v>0.05461302929822125</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1402051024982303</v>
+        <v>0.1666230502819877</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1052881636692846</v>
+        <v>0.05451057272213294</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02578569874965698</v>
+        <v>0.02295107774366009</v>
       </c>
       <c r="G130" t="n">
-        <v>0.106140262219203</v>
+        <v>0.03286786492929415</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04241170257119115</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K130" t="n">
-        <v>0.107096845276964</v>
+        <v>0.0563602456671043</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09108147673384129</v>
+        <v>0.1085748313650708</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1075174128349988</v>
+        <v>0.05546635788100596</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1389366581364854</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1069332912266172</v>
+        <v>0.05536230042091626</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02349009629071373</v>
+        <v>0.02303569936690986</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1077731893302677</v>
+        <v>0.03337352438974481</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0422883437963581</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1087444890504558</v>
+        <v>0.05722732636967513</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09029052935645651</v>
+        <v>0.1090748313650708</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1091715268786141</v>
+        <v>0.05631968646379066</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1367302454822719</v>
+        <v>0.1666230502819877</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1085784187839498</v>
+        <v>0.05621402811969958</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02517630517879103</v>
+        <v>0.02311766637089801</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1094061164413323</v>
+        <v>0.0338791838501955</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04142519801163347</v>
+        <v>0.05092661244815373</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1103921328239476</v>
+        <v>0.05809440707224597</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08914180951801745</v>
+        <v>0.1084748313650707</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1108256409222295</v>
+        <v>0.05717301504657538</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1356966223065205</v>
+        <v>0.1660230502819877</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1102235463412823</v>
+        <v>0.05706575581848292</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02585053071144979</v>
+        <v>0.02319698667011693</v>
       </c>
       <c r="G133" t="n">
-        <v>0.111039043552397</v>
+        <v>0.03438484331064618</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04093099012393235</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1120397765974393</v>
+        <v>0.0589614877748168</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08871511521951111</v>
+        <v>0.1089748313650707</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1124797549658449</v>
+        <v>0.05802634362936008</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1337684422418333</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1118686738986149</v>
+        <v>0.05791748351726624</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02251897818625092</v>
+        <v>0.02327366817905897</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1126719706634617</v>
+        <v>0.03489050277109686</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04051576311328461</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1136874203709311</v>
+        <v>0.05982856847738764</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08703212317699091</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1141338690094602</v>
+        <v>0.05887967221214479</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1324783589208122</v>
+        <v>0.1666230502819877</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1135138014559475</v>
+        <v>0.05876921121604958</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02418785290075536</v>
+        <v>0.0233477188122165</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1143048977745263</v>
+        <v>0.03539616223154753</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03988955995971996</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1153350641444228</v>
+        <v>0.06069564917995847</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08631451010651028</v>
+        <v>0.1087748313650707</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1157879830530756</v>
+        <v>0.05973300079492949</v>
       </c>
       <c r="N135" t="n">
-        <v>0.130859025976059</v>
+        <v>0.1664230502819877</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1151589290132801</v>
+        <v>0.0596209389148329</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.022863360152524</v>
+        <v>0.02341914648408191</v>
       </c>
       <c r="G136" t="n">
-        <v>0.115937824885591</v>
+        <v>0.03590182169199822</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03956242364326829</v>
+        <v>0.05092661244815373</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1169827079179146</v>
+        <v>0.06156272988252932</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08438395272412261</v>
+        <v>0.1082748313650707</v>
       </c>
       <c r="M136" t="n">
-        <v>0.117442097096691</v>
+        <v>0.06058632937771419</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1291430970401755</v>
+        <v>0.1663230502819877</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1168040565706126</v>
+        <v>0.06047266661361622</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02155170523911778</v>
+        <v>0.02348795910914758</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1175707519966556</v>
+        <v>0.0364074811524489</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03914439714395933</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1186303516914063</v>
+        <v>0.06242981058510015</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08366212774588158</v>
+        <v>0.1082748313650707</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1190962111403063</v>
+        <v>0.06143965796049891</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1278632257457638</v>
+        <v>0.1670230502819877</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1184491841279452</v>
+        <v>0.06132439431239955</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02325909345809759</v>
+        <v>0.02355416460190584</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1192036791077203</v>
+        <v>0.03691314061289958</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03834552344182292</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1202779954648981</v>
+        <v>0.06329689128767098</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08307071188784054</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1207503251839217</v>
+        <v>0.06229298654328361</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1254520657254254</v>
+        <v>0.1670230502819877</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1200943116852778</v>
+        <v>0.06217612201118287</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02299173010702438</v>
+        <v>0.02361777087684911</v>
       </c>
       <c r="G139" t="n">
-        <v>0.120836606218785</v>
+        <v>0.03741880007335025</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03787584551688886</v>
+        <v>0.05102661244815372</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1219256392383899</v>
+        <v>0.06416397199024182</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08113138186605284</v>
+        <v>0.1092748313650707</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1224044392275371</v>
+        <v>0.06314631512606832</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1238422706117625</v>
+        <v>0.1664230502819877</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1217394392426103</v>
+        <v>0.06302784970996621</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02375582048345904</v>
+        <v>0.02367878584846971</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1224695333298496</v>
+        <v>0.03792445953380093</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03774540634918694</v>
+        <v>0.05072661244815373</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1235732830118816</v>
+        <v>0.06503105269281266</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08026581439657207</v>
+        <v>0.1089748313650707</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1240585532711524</v>
+        <v>0.06399964370885303</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1222664940373769</v>
+        <v>0.1670230502819877</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1233845667999429</v>
+        <v>0.06387957740874954</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02055756988496248</v>
+        <v>0.02373721743126008</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1241024604409143</v>
+        <v>0.03843011899425161</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03726424891874698</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1252209267853734</v>
+        <v>0.06589813339538349</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07929568619545171</v>
+        <v>0.1087748313650707</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1257126673147678</v>
+        <v>0.06485297229163774</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1206573896348703</v>
+        <v>0.1660230502819877</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1250296943572755</v>
+        <v>0.06473130510753286</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02240318360909566</v>
+        <v>0.02379307353971253</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1257353875519789</v>
+        <v>0.03893577845470229</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03674241620559875</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1268685705588651</v>
+        <v>0.06676521409795433</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07914267397874516</v>
+        <v>0.1088748313650707</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1273667813583831</v>
+        <v>0.06570630087442245</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1199476110368446</v>
+        <v>0.1657230502819877</v>
       </c>
       <c r="O142" t="n">
-        <v>0.126674821914608</v>
+        <v>0.06558303280631618</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02129886695341945</v>
+        <v>0.02384636208831945</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1273683146630436</v>
+        <v>0.03944143791515297</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03648995118977209</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1285162143323569</v>
+        <v>0.06763229480052516</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07802845446250589</v>
+        <v>0.1088748313650707</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1290208954019985</v>
+        <v>0.06655962945720716</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1202698118759018</v>
+        <v>0.1671230502819877</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1283199494719406</v>
+        <v>0.06643476050509951</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02025082521549478</v>
+        <v>0.02389709099157324</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1290012417741083</v>
+        <v>0.03994709737560365</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03621689685129674</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1301638581058486</v>
+        <v>0.068499375503096</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07807470436278738</v>
+        <v>0.1091748313650708</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1306750094456139</v>
+        <v>0.06741295803999185</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1183566457846437</v>
+        <v>0.1658230502819877</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1299650770292732</v>
+        <v>0.06728648820388285</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02025069210917537</v>
+        <v>0.02394526816396621</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1306341688851729</v>
+        <v>0.04045275683605433</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03623329617020259</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1318115018793404</v>
+        <v>0.06936645620566682</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0779031003956431</v>
+        <v>0.1087748313650707</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1323291234892293</v>
+        <v>0.06826628662277656</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1185407663956722</v>
+        <v>0.1670230502819877</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1316102045866058</v>
+        <v>0.06813821590266618</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02226174631694634</v>
+        <v>0.02399090151999082</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1322670959962376</v>
+        <v>0.04095841629650501</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03653015946214692</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1334591456528322</v>
+        <v>0.07023353690823766</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0771320556855338</v>
+        <v>0.1090748313650708</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1339832375328446</v>
+        <v>0.06911961520556127</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1184526270976134</v>
+        <v>0.1670230502819877</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1332553321439383</v>
+        <v>0.0689899436014495</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02328138253556019</v>
+        <v>0.02403399897413935</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1339000231073023</v>
+        <v>0.04146407575695568</v>
       </c>
       <c r="J147" t="n">
-        <v>0.036546904434179</v>
+        <v>0.05082661244815373</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1351067894263239</v>
+        <v>0.07110061761080849</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07805374061639278</v>
+        <v>0.1083748313650707</v>
       </c>
       <c r="M147" t="n">
-        <v>0.13563735157646</v>
+        <v>0.06997294378834598</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1197154948339695</v>
+        <v>0.1672230502819877</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1349004597012709</v>
+        <v>0.06984167130023282</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02230914480201258</v>
+        <v>0.02407456844090421</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1355329502183669</v>
+        <v>0.04196973521740636</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03667745475010167</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1367544331998156</v>
+        <v>0.07196769831337933</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07760583533319165</v>
+        <v>0.1082748313650707</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1372914656200754</v>
+        <v>0.07082627237113069</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1197228883933446</v>
+        <v>0.1662230502819877</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1365455872586035</v>
+        <v>0.07069339899901615</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02334457715329912</v>
+        <v>0.0241126178347778</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1371658773294316</v>
+        <v>0.04247539467785705</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03672107245540067</v>
+        <v>0.05112661244815372</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1384020769733074</v>
+        <v>0.07283477901595017</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07748674703873096</v>
+        <v>0.1083747849821805</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1389455796636907</v>
+        <v>0.07167960095391539</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1189724083987096</v>
+        <v>0.1671224495031486</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1381907148159361</v>
+        <v>0.07154512669779947</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02238722362641542</v>
+        <v>0.02414815507025245</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1387988044404962</v>
+        <v>0.04298105413830772</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03657701959556173</v>
+        <v>0.05122661244815373</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1400497207467992</v>
+        <v>0.07370185971852102</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07769488293581123</v>
+        <v>0.1082703752035381</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1405996937073061</v>
+        <v>0.0725329295367001</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1196616554730356</v>
+        <v>0.167313378742365</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1398358423732686</v>
+        <v>0.0723968543965828</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02243662825835709</v>
+        <v>0.02418118806182053</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1404317315515609</v>
+        <v>0.0434867135987584</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03664455821607063</v>
+        <v>0.05092646738113633</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1416973645202909</v>
+        <v>0.07456894042109184</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07772865022723294</v>
+        <v>0.1090589735154786</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1422538077509214</v>
+        <v>0.07338625811948481</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1194882302392939</v>
+        <v>0.1672937321671047</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1414809699306012</v>
+        <v>0.07324858209536614</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02049233508611974</v>
+        <v>0.02421172472397447</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1420646586626256</v>
+        <v>0.04399237305920908</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0366229503624131</v>
+        <v>0.05082373429410739</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1433450082937827</v>
+        <v>0.07543602112366268</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07858645611579668</v>
+        <v>0.10864085625669</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1439079217945368</v>
+        <v>0.07423958670226952</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1192497333204554</v>
+        <v>0.1666639305337906</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1431260974879338</v>
+        <v>0.07410030979414946</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02155388814669901</v>
+        <v>0.02423977297120657</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1436975857736902</v>
+        <v>0.04449803251965976</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03681145808007487</v>
+        <v>0.05091764307875331</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1449926520672744</v>
+        <v>0.07630310182623351</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07816670780430296</v>
+        <v>0.1088162997658605</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1455620358381522</v>
+        <v>0.07509291528505423</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1196437653394912</v>
+        <v>0.1656243945988456</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1447712250452663</v>
+        <v>0.07495203749293278</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02362083147709051</v>
+        <v>0.02426534071800925</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1453305128847549</v>
+        <v>0.04500369198011044</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03670934341454175</v>
+        <v>0.05070832964365186</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1466402958407662</v>
+        <v>0.07717018252880435</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07856781249555231</v>
+        <v>0.1089855803816782</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1472161498817676</v>
+        <v>0.07594624386783892</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1201679269193725</v>
+        <v>0.1665755451186925</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1464163526025989</v>
+        <v>0.07580376519171611</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02169270911428984</v>
+        <v>0.02428843587887487</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1469634399958195</v>
+        <v>0.04550935144056112</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03721586841129941</v>
+        <v>0.05069592989738092</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1482879396142579</v>
+        <v>0.07803726323137518</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07848817739234523</v>
+        <v>0.108448974442831</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1488702639253829</v>
+        <v>0.07679957245062363</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1200198186830704</v>
+        <v>0.1670178028497541</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1480614801599315</v>
+        <v>0.07665549289049944</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02376906509529263</v>
+        <v>0.02430906636829577</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1485963671068842</v>
+        <v>0.0460150109010118</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03733029511583363</v>
+        <v>0.05078057974851827</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1499355833877497</v>
+        <v>0.07890434393394602</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07952620969748228</v>
+        <v>0.1090067582880071</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1505243779689983</v>
+        <v>0.07765290103340834</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1219970412535558</v>
+        <v>0.1668515885484533</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1497066077172641</v>
+        <v>0.07750722058928276</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02386747287759954</v>
+        <v>0.02432724010076436</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1502292942179489</v>
+        <v>0.04652067036146248</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03745188557363018</v>
+        <v>0.05086241510564173</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1515832271612415</v>
+        <v>0.07977142463651685</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07938031661376393</v>
+        <v>0.1081592082558946</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1521784920126137</v>
+        <v>0.07850622961619305</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1212971952537999</v>
+        <v>0.1653773229712129</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1513517352745966</v>
+        <v>0.0783589482880661</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02203764624097047</v>
+        <v>0.02434296499077301</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1518622213290135</v>
+        <v>0.04702632982191315</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03711209437972793</v>
+        <v>0.05114157187732914</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1532308709347332</v>
+        <v>0.08063850533908769</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07916122125857331</v>
+        <v>0.1081066006851816</v>
       </c>
       <c r="M158" t="n">
-        <v>0.153832606056229</v>
+        <v>0.07935955819897776</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1228745012330558</v>
+        <v>0.1655954268744556</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1529968628319292</v>
+        <v>0.07921067598684943</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02227013052367089</v>
+        <v>0.02435624895281404</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1534951484400782</v>
+        <v>0.04753198928236384</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03778798118791417</v>
+        <v>0.05091818597215828</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1548785147082249</v>
+        <v>0.08150558604165851</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07975042791785319</v>
+        <v>0.1083492119145562</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1554867200998444</v>
+        <v>0.08021288678176246</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1228310758515537</v>
+        <v>0.1653063210146045</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1546419903892618</v>
+        <v>0.08006240368563275</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0235511613031044</v>
+        <v>0.02436709990137991</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1551280755511429</v>
+        <v>0.04803764874281451</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03796262905427102</v>
+        <v>0.05069239329870701</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1565261584817167</v>
+        <v>0.08237266674422936</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08097171465735808</v>
+        <v>0.1081873182827063</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1571408341434598</v>
+        <v>0.08106621536454717</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1238976199318226</v>
+        <v>0.1666104261480822</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1562871179465943</v>
+        <v>0.08091413138441607</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0248669741566746</v>
+        <v>0.02437552575096292</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1567610026622075</v>
+        <v>0.04854330820326519</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03851376091312987</v>
+        <v>0.05066432976555311</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1581738022552085</v>
+        <v>0.0832397474468002</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08137699877398907</v>
+        <v>0.1088211961283202</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1587949481870751</v>
+        <v>0.08191954394733188</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1261017020724629</v>
+        <v>0.1662081630313116</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1579322455039269</v>
+        <v>0.0817658590831994</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.023203804661785</v>
+        <v>0.02438153441605546</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1583939297732722</v>
+        <v>0.04904896766371587</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03911909969882221</v>
+        <v>0.05103413128127443</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1598214460287002</v>
+        <v>0.08410682814937104</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08261819756464722</v>
+        <v>0.1082511217900858</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1604490622306905</v>
+        <v>0.08277287253011659</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1281708908720745</v>
+        <v>0.1659999524207157</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1595773730612595</v>
+        <v>0.08261758678198274</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02554788839583929</v>
+        <v>0.02438513381114992</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1600268568843368</v>
+        <v>0.04955462712416655</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03955636834567944</v>
+        <v>0.05070193375444879</v>
       </c>
       <c r="K163" t="n">
-        <v>0.161469089802192</v>
+        <v>0.08497390885194187</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08404722832623343</v>
+        <v>0.1078773716066913</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1621031762743058</v>
+        <v>0.0836262011129013</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1287327549292576</v>
+        <v>0.1660862150727171</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1612225006185921</v>
+        <v>0.08346931448076605</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02588546093624098</v>
+        <v>0.02438633185073866</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1616597839954015</v>
+        <v>0.05006028658461723</v>
       </c>
       <c r="J164" t="n">
-        <v>0.040203289788033</v>
+        <v>0.05056787309365397</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1631167335756837</v>
+        <v>0.08584098955451271</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08461600835564889</v>
+        <v>0.1081002219168248</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1637572903179212</v>
+        <v>0.08447952969568599</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1305148628426125</v>
+        <v>0.1661673717437387</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1628676281759247</v>
+        <v>0.08432104217954939</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0242027578603937</v>
+        <v>0.02438633185073866</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1632927111064661</v>
+        <v>0.05006028658461723</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04073758696021433</v>
+        <v>0.05063208520746781</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1647643773491755</v>
+        <v>0.08670807025708353</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08657645494979457</v>
+        <v>0.1075199490591743</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1654114043615366</v>
+        <v>0.0853328582784707</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1331447832107393</v>
+        <v>0.1653438431902035</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1645127557332572</v>
+        <v>0.08517276987833271</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02548601474570101</v>
+        <v>0.02382760037014812</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1649256382175308</v>
+        <v>0.05006001805615321</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04083698279655486</v>
+        <v>0.05059470600446815</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1664120211226672</v>
+        <v>0.08757515095965437</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0877804854055714</v>
+        <v>0.108036829372428</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1670655184051519</v>
+        <v>0.08618618686125541</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1340500846322381</v>
+        <v>0.1657160501685341</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1661578832905898</v>
+        <v>0.08602449757711604</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02473187160498167</v>
+        <v>0.02327528381564001</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1665585653285955</v>
+        <v>0.05005974952768919</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04167920023138599</v>
+        <v>0.05085587139323276</v>
       </c>
       <c r="K167" t="n">
-        <v>0.168059664896159</v>
+        <v>0.0884422316622252</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08838001701988049</v>
+        <v>0.1083511391952738</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1687196324487673</v>
+        <v>0.08703951544404012</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1363583357057091</v>
+        <v>0.1648844134351534</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1678030108479223</v>
+        <v>0.08687622527589936</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02596885439708948</v>
+        <v>0.02273009457504608</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1681914924396601</v>
+        <v>0.05005948099922518</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04196616948036398</v>
+        <v>0.05071571728233949</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1697073086696508</v>
+        <v>0.08930931236479604</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08964018024262385</v>
+        <v>0.1072631548663999</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1703737464923827</v>
+        <v>0.08789284402682483</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1367103640064039</v>
+        <v>0.1654493537464843</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1694481384052549</v>
+        <v>0.08772795297468269</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02520012989479024</v>
+        <v>0.0221927450361503</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1698244195507248</v>
+        <v>0.05005921247076116</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04244158885927196</v>
+        <v>0.05067437958036618</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1713549524431425</v>
+        <v>0.09017639306736687</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09025181878732205</v>
+        <v>0.1074731527244943</v>
       </c>
       <c r="M169" t="n">
-        <v>0.172027860535998</v>
+        <v>0.08874617260960953</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1383302848927692</v>
+        <v>0.1649112918589497</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1710932659625875</v>
+        <v>0.08857968067346603</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02642613474699661</v>
+        <v>0.02166394758678374</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1714573466617895</v>
+        <v>0.05005894394229714</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04290795448457899</v>
+        <v>0.05053199419589059</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1730025962166342</v>
+        <v>0.09104347376993771</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09124342537817867</v>
+        <v>0.1070814091082452</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1736819745796134</v>
+        <v>0.08959950119239424</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1394210573488628</v>
+        <v>0.1649706485289722</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1727383935199201</v>
+        <v>0.08943140837224935</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02564730560262132</v>
+        <v>0.02114441461473112</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1730902737728541</v>
+        <v>0.05005867541383312</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04306597305185722</v>
+        <v>0.05058869703749058</v>
       </c>
       <c r="K171" t="n">
-        <v>0.174650239990126</v>
+        <v>0.09191055447250855</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09201652534325475</v>
+        <v>0.1075882003563407</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1753360886232288</v>
+        <v>0.09045282977517895</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1413849791167398</v>
+        <v>0.1653278445129748</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1743835210772527</v>
+        <v>0.09028313607103267</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02486407911057704</v>
+        <v>0.02063485850782269</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1747232008839188</v>
+        <v>0.05005840688536911</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04331635125667883</v>
+        <v>0.05014462401374398</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1762978837636177</v>
+        <v>0.09277763517507938</v>
       </c>
       <c r="L172" t="n">
-        <v>0.091772644010611</v>
+        <v>0.1075938028074687</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1769902026668441</v>
+        <v>0.09130615835796366</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1416243479384554</v>
+        <v>0.1637833005673803</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1760286486345852</v>
+        <v>0.091134863769816</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02707689191977646</v>
+        <v>0.02013599165384401</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1763561279949835</v>
+        <v>0.05005813835690509</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04365979579461599</v>
+        <v>0.05049991103322857</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1779455275371095</v>
+        <v>0.09364471587765022</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09321330670830827</v>
+        <v>0.1076984928003175</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1786443167104595</v>
+        <v>0.09215948694074837</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1424414615560649</v>
+        <v>0.1639374374486116</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1776737761919178</v>
+        <v>0.09198659146859933</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02628618067913231</v>
+        <v>0.01964852644062445</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1779890551060481</v>
+        <v>0.05005786982844108</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04409701336124081</v>
+        <v>0.05045469400452217</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1795931713106013</v>
+        <v>0.09451179658022106</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09324003876440748</v>
+        <v>0.107202546673575</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1802984307540749</v>
+        <v>0.09301281552353306</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1445386177116237</v>
+        <v>0.1636906759130914</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1793189037492504</v>
+        <v>0.09283831916738265</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02749238203755722</v>
+        <v>0.01917317525595053</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1796219822171128</v>
+        <v>0.05005760129997706</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04452871065212548</v>
+        <v>0.05000910883620263</v>
       </c>
       <c r="K175" t="n">
-        <v>0.181240815084093</v>
+        <v>0.09537887728279189</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09395436550696942</v>
+        <v>0.1075049933274919</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1819525447976902</v>
+        <v>0.09386614410631777</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1459181141471869</v>
+        <v>0.1640388956643857</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1809640313065829</v>
+        <v>0.09369004686616599</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02869593264396392</v>
+        <v>0.01871065048765062</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1812549093281774</v>
+        <v>0.05005733277151304</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04465559436284215</v>
+        <v>0.05026329143684773</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1828884588575848</v>
+        <v>0.09624595798536273</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0948578122640549</v>
+        <v>0.1064878395595145</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1836066588413056</v>
+        <v>0.09471947268910248</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1463822486048099</v>
+        <v>0.163153610941582</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1826091588639155</v>
+        <v>0.09454177456494932</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02789726914726513</v>
+        <v>0.01826166452351227</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1828878364392421</v>
+        <v>0.05005706424304902</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04517837118896295</v>
+        <v>0.05001236869050901</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1845361026310765</v>
+        <v>0.09711303868793357</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09635190436372473</v>
+        <v>0.1068473201167021</v>
       </c>
       <c r="M177" t="n">
-        <v>0.185260772884921</v>
+        <v>0.09557280127188719</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1477333188265477</v>
+        <v>0.1631334064110456</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1842542864212481</v>
+        <v>0.09539350226373262</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02809799856571015</v>
+        <v>0.01782692975136272</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1845207635503068</v>
+        <v>0.05005679571458501</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04509774782606005</v>
+        <v>0.04984965727208102</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1861837464045683</v>
+        <v>0.0979801193905044</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09633816713403984</v>
+        <v>0.1063863094154379</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1869148869285363</v>
+        <v>0.0964261298546719</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1474736225544557</v>
+        <v>0.1627826586917845</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1858994139785806</v>
+        <v>0.09624522996251596</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02730969718477564</v>
+        <v>0.01740715855899076</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1861536906613714</v>
+        <v>0.05005652718612099</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04541934130826748</v>
+        <v>0.04997649072602144</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1878313901780601</v>
+        <v>0.09884720009307524</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09752013732517487</v>
+        <v>0.1065076818721045</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1885690009721517</v>
+        <v>0.0972794584374566</v>
       </c>
       <c r="N179" t="n">
-        <v>0.150128967618345</v>
+        <v>0.1634057444028071</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1875445415359132</v>
+        <v>0.09709695766129929</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02652929179565367</v>
+        <v>0.01700306333422236</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1877866177724361</v>
+        <v>0.05005625865765697</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04605993887507411</v>
+        <v>0.0496942827445112</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1894790339515518</v>
+        <v>0.09971428079564607</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09743686510606833</v>
+        <v>0.1068143119030848</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1902231150157671</v>
+        <v>0.09813278702024131</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1512461028937865</v>
+        <v>0.1622070401631215</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1891896690932458</v>
+        <v>0.09794868536008262</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02874928154015422</v>
+        <v>0.0166153564648476</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1894195448835008</v>
+        <v>0.05005599012919295</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0461102785120007</v>
+        <v>0.0497044470197313</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1911266777250435</v>
+        <v>0.1005813614982169</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09888314737300588</v>
+        <v>0.1059090739247616</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1918772290593824</v>
+        <v>0.09898611560302602</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1520898907117159</v>
+        <v>0.1625909225917361</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1908347966505784</v>
+        <v>0.09880041305886594</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0299621655600873</v>
+        <v>0.01624475033869107</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1910524719945654</v>
+        <v>0.05005572160072894</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0468582204355366</v>
+        <v>0.05000839724386272</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1927743214985353</v>
+        <v>0.1014484422007877</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09943278168016687</v>
+        <v>0.1055948423535177</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1935313431029978</v>
+        <v>0.09983944418581073</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1526208599162167</v>
+        <v>0.1612617683076589</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1924799242079109</v>
+        <v>0.09965214075764928</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02816044299726291</v>
+        <v>0.01589195734355182</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1926853991056301</v>
+        <v>0.05005545307226492</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0467916248621712</v>
+        <v>0.04990754710908644</v>
       </c>
       <c r="K183" t="n">
-        <v>0.194421965272027</v>
+        <v>0.1023155229033586</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0997595655817303</v>
+        <v>0.1051744916057358</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1951854571466132</v>
+        <v>0.1006927727685954</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1544995393513725</v>
+        <v>0.1621239539298983</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1941250517652435</v>
+        <v>0.1005038684564326</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02733661299349097</v>
+        <v>0.01555768986723042</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1943183262166948</v>
+        <v>0.0500551845438009</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04729835200839384</v>
+        <v>0.04970331030758345</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1960696090455188</v>
+        <v>0.1031826036059294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1007372966318754</v>
+        <v>0.1054508960977989</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1968395711902285</v>
+        <v>0.1015461013513801</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1542864578612664</v>
+        <v>0.1605818560774623</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1957701793225761</v>
+        <v>0.1013555961552159</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03048317469058155</v>
+        <v>0.01524266029754915</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1959512533277594</v>
+        <v>0.05005491601533689</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04746626209069388</v>
+        <v>0.04939710053153472</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1977172528190106</v>
+        <v>0.1040496843085002</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1019397723847813</v>
+        <v>0.1051269302460895</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1984936852338439</v>
+        <v>0.1023994299341648</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1560421442899824</v>
+        <v>0.1615398513693593</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1974153068799087</v>
+        <v>0.1022073238539992</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02859262723034459</v>
+        <v>0.014947581022302</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1975841804388241</v>
+        <v>0.05005464748687287</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04758321532556063</v>
+        <v>0.04939033147312123</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1993648965925023</v>
+        <v>0.1049167650110711</v>
       </c>
       <c r="L186" t="n">
-        <v>0.102340790394627</v>
+        <v>0.1047054684669907</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2001477992774593</v>
+        <v>0.1032527585169496</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1562271274816037</v>
+        <v>0.1611023164245975</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1990604344372412</v>
+        <v>0.1030590515527826</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02767364131784025</v>
+        <v>0.01467316442930946</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1992171075498888</v>
+        <v>0.05005437895840886</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04813778470212038</v>
+        <v>0.04938441682452398</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2010125403659941</v>
+        <v>0.1057838457136419</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1027141482155919</v>
+        <v>0.1043893851768853</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2018019133210746</v>
+        <v>0.1041060870997343</v>
       </c>
       <c r="N187" t="n">
-        <v>0.157409801489073</v>
+        <v>0.1599736278621851</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2007055619945738</v>
+        <v>0.1039107792515659</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02975234221830073</v>
+        <v>0.01442012290636734</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2008500346609534</v>
+        <v>0.05005411042994484</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04796479317782787</v>
+        <v>0.04938077027792392</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2026601841394858</v>
+        <v>0.1066509264162127</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1020898568119283</v>
+        <v>0.1044815547921558</v>
       </c>
       <c r="M188" t="n">
-        <v>0.20345602736469</v>
+        <v>0.104959415682519</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1570229649483619</v>
+        <v>0.1599581623011302</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2023506895519064</v>
+        <v>0.1047625069503492</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.027829286172223</v>
+        <v>0.01418916884129431</v>
       </c>
       <c r="G189" t="n">
-        <v>0.202482961772018</v>
+        <v>0.05005384190148082</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0481890138444602</v>
+        <v>0.04918080552550205</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2043078279129776</v>
+        <v>0.1075180071187836</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1032576606486802</v>
+        <v>0.1039848517291853</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2051101414083053</v>
+        <v>0.1058127442653037</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1578270334075861</v>
+        <v>0.1591602963604412</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2039958171092389</v>
+        <v>0.1056142346491326</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02790444557543392</v>
+        <v>0.01397813366085233</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2041158888830827</v>
+        <v>0.0500535733730168</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04861040202597132</v>
+        <v>0.04878593625943937</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2059554716864694</v>
+        <v>0.1083850878213544</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1034194030678114</v>
+        <v>0.1038021504043565</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2067642554519207</v>
+        <v>0.1066660728480884</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1588218616075507</v>
+        <v>0.1595844066591263</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2056409446665715</v>
+        <v>0.1064659623479159</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02997779282376035</v>
+        <v>0.01377043350320183</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2057488159941474</v>
+        <v>0.05005330484455278</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04832891304631523</v>
+        <v>0.04879757617191685</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2076031154599611</v>
+        <v>0.1092521685239253</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1032749876407756</v>
+        <v>0.1035363252340523</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2084183694955361</v>
+        <v>0.1075194014308731</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1576073042890607</v>
+        <v>0.1593348698161935</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2072860722239041</v>
+        <v>0.1073176900466992</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03104930031302915</v>
+        <v>0.01356387300408677</v>
       </c>
       <c r="G192" t="n">
-        <v>0.207381743105212</v>
+        <v>0.05005303631608876</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04834450222944585</v>
+        <v>0.04861713895511544</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2092507592334528</v>
+        <v>0.1101192492264961</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1040243179390266</v>
+        <v>0.1037902506346554</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2100724835391515</v>
+        <v>0.1083727300136578</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1588832161929213</v>
+        <v>0.1590160624506512</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2089311997812367</v>
+        <v>0.1081694177454826</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03011894043906722</v>
+        <v>0.01335913659547817</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2090146702162767</v>
+        <v>0.05005276778762475</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04845712489931714</v>
+        <v>0.04884603830121614</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2108984030069446</v>
+        <v>0.1109863299290669</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1036672975340182</v>
+        <v>0.1037668010225485</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2117265975827668</v>
+        <v>0.1092260585964425</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1593494520599376</v>
+        <v>0.1593323611815076</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2105763273385692</v>
+        <v>0.1090211454442659</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0281866855977014</v>
+        <v>0.01315690870932917</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2106475973273414</v>
+        <v>0.05005249925916073</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04896673637988311</v>
+        <v>0.04858568790239996</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2125460467804364</v>
+        <v>0.1118534106316378</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1036038299972041</v>
+        <v>0.1040678761405971</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2133807116263822</v>
+        <v>0.1100793871792272</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1587058666309147</v>
+        <v>0.157984906034798</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2122214548959018</v>
+        <v>0.1098728731430492</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03025250818475856</v>
+        <v>0.01295787377761057</v>
       </c>
       <c r="G195" t="n">
-        <v>0.212280524438406</v>
+        <v>0.05005223073069671</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04887329199509767</v>
+        <v>0.04833733758770886</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2141936905539281</v>
+        <v>0.1127204913342086</v>
       </c>
       <c r="L195" t="n">
-        <v>0.103833818900038</v>
+        <v>0.1036781094557529</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2150348256699975</v>
+        <v>0.1109327157620119</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1591523146466576</v>
+        <v>0.1588482949577874</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2138665824532344</v>
+        <v>0.1107246008418325</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03131638059606558</v>
+        <v>0.01276271623227577</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2139134515494707</v>
+        <v>0.05005196220223269</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04897674706891482</v>
+        <v>0.04839443253250435</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2158413343274199</v>
+        <v>0.1135875720367794</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1050571678139738</v>
+        <v>0.1038912281362711</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2166889397136129</v>
+        <v>0.1117860443447966</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1595886508479715</v>
+        <v>0.1583160672400293</v>
       </c>
       <c r="O196" t="n">
-        <v>0.215511710010567</v>
+        <v>0.1115763285406158</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03137827522744931</v>
+        <v>0.01257212050529528</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2155463786605353</v>
+        <v>0.05005169367376868</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04887705692528849</v>
+        <v>0.04825292832188625</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2174889781009116</v>
+        <v>0.1144546527393503</v>
       </c>
       <c r="L197" t="n">
-        <v>0.105173780310465</v>
+        <v>0.1032071400746618</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2183430537572283</v>
+        <v>0.1126393729275813</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1605147299756616</v>
+        <v>0.1575880826376146</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2171568375678995</v>
+        <v>0.1124280562393992</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03043816447473662</v>
+        <v>0.01238677102862682</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2171793057716</v>
+        <v>0.05005142514530467</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04907417688817264</v>
+        <v>0.04831277965565427</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2191366218744034</v>
+        <v>0.1153217334419211</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1054835599609655</v>
+        <v>0.1034257531634357</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2199971678008437</v>
+        <v>0.1134927015103661</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1607304067705329</v>
+        <v>0.1582642009066343</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2188019651252321</v>
+        <v>0.1132797839381825</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02849602073375439</v>
+        <v>0.01220735223422859</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2188122328826647</v>
+        <v>0.05005115661684065</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04916806228152126</v>
+        <v>0.04857394123360813</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2207842656478951</v>
+        <v>0.1161888141444919</v>
       </c>
       <c r="L199" t="n">
-        <v>0.105486410336929</v>
+        <v>0.1035469752951032</v>
       </c>
       <c r="M199" t="n">
-        <v>0.221651281844459</v>
+        <v>0.1143460300931508</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1608355359733906</v>
+        <v>0.1583442818031794</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2204470926825647</v>
+        <v>0.1141315116369658</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03155181640032947</v>
+        <v>0.01203454855407039</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2204451599937294</v>
+        <v>0.05005088808837663</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04965866842928832</v>
+        <v>0.04863636775554758</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2224319094213869</v>
+        <v>0.1170558948470628</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1054822350098093</v>
+        <v>0.1030707143621744</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2233053958880744</v>
+        <v>0.1151993586759355</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1618299723250397</v>
+        <v>0.1587281850833409</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2220922202398972</v>
+        <v>0.1149832393357492</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03060552387028873</v>
+        <v>0.01186904442010676</v>
       </c>
       <c r="G201" t="n">
-        <v>0.222078087104794</v>
+        <v>0.05005061955991261</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04954595065542772</v>
+        <v>0.04850001392127232</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2240795531948787</v>
+        <v>0.1179229755496336</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1058709375510601</v>
+        <v>0.1033968782571601</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2249595099316898</v>
+        <v>0.1160526872587202</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1615135705662853</v>
+        <v>0.1578157705032097</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2237373477972298</v>
+        <v>0.1158349670345325</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02865711553945908</v>
+        <v>0.0117115242643069</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2237110142158587</v>
+        <v>0.05005035103144859</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04962986428389347</v>
+        <v>0.04836483443058204</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2257271969683704</v>
+        <v>0.1187900562522044</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1056524215321351</v>
+        <v>0.1029253748725705</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2266136239753051</v>
+        <v>0.1169060158415049</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1621861854379326</v>
+        <v>0.1584068978188767</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2253824753545624</v>
+        <v>0.1166866947333158</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02970656380366731</v>
+        <v>0.01156267251862603</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2253439413269233</v>
+        <v>0.05005008250298457</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04991036463863954</v>
+        <v>0.0483307839832765</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2273748407418621</v>
+        <v>0.1196571369547753</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1061265905244881</v>
+        <v>0.1028561121009161</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2282677380189205</v>
+        <v>0.1177593444242896</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1617476716807866</v>
+        <v>0.157701426786433</v>
       </c>
       <c r="O203" t="n">
-        <v>0.227027602911895</v>
+        <v>0.1175384224320992</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03075384105874036</v>
+        <v>0.01142317361503267</v>
       </c>
       <c r="G204" t="n">
-        <v>0.226976868437988</v>
+        <v>0.05004981397452056</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04948740704361984</v>
+        <v>0.04849781727915542</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2290224845153539</v>
+        <v>0.1205242176573461</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1060933480995727</v>
+        <v>0.1024889978347073</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2299218520625358</v>
+        <v>0.1186126730070743</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1617978840356525</v>
+        <v>0.1567992171619696</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2286727304692275</v>
+        <v>0.1183901501308825</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03179891970050503</v>
+        <v>0.01129371198548273</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2286097955490526</v>
+        <v>0.05004954544605654</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04986094682278838</v>
+        <v>0.0484658890180185</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2306701282888457</v>
+        <v>0.1213912983599169</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1062525978288429</v>
+        <v>0.1030239399664545</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2315759661061512</v>
+        <v>0.119466001589859</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1626366772433355</v>
+        <v>0.1577001287015774</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2303178580265601</v>
+        <v>0.1192418778296658</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03084177212478823</v>
+        <v>0.01117497206194391</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2302427226601173</v>
+        <v>0.05004927691759253</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05013093930009914</v>
+        <v>0.04833495389966547</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2323177720623374</v>
+        <v>0.1222583790624878</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1069042432837523</v>
+        <v>0.1025608463886682</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2332300801497666</v>
+        <v>0.1203193301726437</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1628639060446403</v>
+        <v>0.1581040211613474</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2319629855838927</v>
+        <v>0.1200936055284491</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02888237072741683</v>
+        <v>0.01106763827637309</v>
       </c>
       <c r="G207" t="n">
-        <v>0.231875649771182</v>
+        <v>0.05004900838912851</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04989733979950602</v>
+        <v>0.04810496662389604</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2339654158358292</v>
+        <v>0.1231254597650586</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1061481880357546</v>
+        <v>0.1022996249938588</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2348841941933819</v>
+        <v>0.1211726587554284</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1623794251803725</v>
+        <v>0.1571107542973705</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2336081131412253</v>
+        <v>0.1209453332272324</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03092068790421768</v>
+        <v>0.01097239506073693</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2335085768822466</v>
+        <v>0.05004873986066449</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05006010364496298</v>
+        <v>0.04837588189050993</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2356130596093209</v>
+        <v>0.1239925404676295</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1064843356563036</v>
+        <v>0.1028401836745367</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2365383082369973</v>
+        <v>0.1220259873382131</v>
       </c>
       <c r="N208" t="n">
-        <v>0.162883089391337</v>
+        <v>0.1577201878657377</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2352532406985578</v>
+        <v>0.1217970609260158</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02895669605101763</v>
+        <v>0.01088992684699338</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2351415039933113</v>
+        <v>0.05004847133220047</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05021918616042405</v>
+        <v>0.04804765439930689</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2372607033828127</v>
+        <v>0.1248596211702003</v>
       </c>
       <c r="L209" t="n">
-        <v>0.106912589716853</v>
+        <v>0.1025824303232122</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2381924222806127</v>
+        <v>0.1228793159209978</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1632747534183389</v>
+        <v>0.15683218162254</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2368983682558904</v>
+        <v>0.1226487886247991</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0309903675636436</v>
+        <v>0.01082091806710801</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2367744311043759</v>
+        <v>0.05004820280373646</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04997454266984314</v>
+        <v>0.04782023885008659</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2389083471563044</v>
+        <v>0.1257267018727711</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1067328537888566</v>
+        <v>0.1025262728323959</v>
       </c>
       <c r="M210" t="n">
-        <v>0.239846536324228</v>
+        <v>0.1237326445037825</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1631542720021832</v>
+        <v>0.1564465953238684</v>
       </c>
       <c r="O210" t="n">
-        <v>0.238543495813223</v>
+        <v>0.1235005163235824</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03202167483792241</v>
+        <v>0.01076605315303987</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2384073582154406</v>
+        <v>0.05004793427527244</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05032612849717422</v>
+        <v>0.04789358994264878</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2405559909297962</v>
+        <v>0.126593782575342</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1067450314437682</v>
+        <v>0.102171619094598</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2415006503678434</v>
+        <v>0.1245859730865672</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1642214998836753</v>
+        <v>0.1576632887258139</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2401886233705555</v>
+        <v>0.1243522440223657</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02905059026968094</v>
+        <v>0.01072601653675338</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2400402853265053</v>
+        <v>0.05004766574680843</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04997389896637126</v>
+        <v>0.04776766237679318</v>
       </c>
       <c r="K212" t="n">
-        <v>0.242203634703288</v>
+        <v>0.1274608632779128</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1074490262530413</v>
+        <v>0.1028183770023292</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2431547644114588</v>
+        <v>0.1254393016693519</v>
       </c>
       <c r="N212" t="n">
-        <v>0.16357629180362</v>
+        <v>0.1564821215844674</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2418337509278881</v>
+        <v>0.1252039717211491</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03107708625474605</v>
+        <v>0.01070149265020884</v>
       </c>
       <c r="G213" t="n">
-        <v>0.24167321243757</v>
+        <v>0.05004739721834441</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05001780940138821</v>
+        <v>0.04824241085231952</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2438512784767797</v>
+        <v>0.1283279439804836</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1068447417881299</v>
+        <v>0.1022664544480998</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2448088784550741</v>
+        <v>0.1262926302521366</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1641185025028226</v>
+        <v>0.1568029536559198</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2434788784852207</v>
+        <v>0.1260556994199324</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02910113518894462</v>
+        <v>0.01069316592536933</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2433061395486346</v>
+        <v>0.05004712868988039</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05005781512617904</v>
+        <v>0.04771779006902749</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2454989222502715</v>
+        <v>0.1291950246830545</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1077320816204876</v>
+        <v>0.1018157593244201</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2464629924986895</v>
+        <v>0.1271459588349214</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1635479867220882</v>
+        <v>0.1561256446962623</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2451240060425533</v>
+        <v>0.1269074271187157</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03212270946810353</v>
+        <v>0.01069316592536933</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2449390666596993</v>
+        <v>0.05004712868988039</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05029387146469771</v>
+        <v>0.04779375472671682</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2471465660237632</v>
+        <v>0.1300621053856253</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1070109493215682</v>
+        <v>0.1023661995238007</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2481171065423049</v>
+        <v>0.1279992874177061</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1644645992022218</v>
+        <v>0.1557500544615857</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2467691335998858</v>
+        <v>0.1277591548174991</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03214178148804962</v>
+        <v>0.01033469768710923</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2465719937707639</v>
+        <v>0.05002035244476161</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05042593374089817</v>
+        <v>0.04767025952518723</v>
       </c>
       <c r="K216" t="n">
-        <v>0.248794209797255</v>
+        <v>0.1309291860881961</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1078812484628255</v>
+        <v>0.101717682938752</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2497712205859202</v>
+        <v>0.1288526160004907</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1641681946840286</v>
+        <v>0.1557760427079809</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2484142611572184</v>
+        <v>0.1286108825162824</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03215832364460976</v>
+        <v>0.009977811694851749</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2482049208818286</v>
+        <v>0.04999357619964283</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05065395727873441</v>
+        <v>0.04814725916423845</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2504418535707467</v>
+        <v>0.131796266790767</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1076428826157131</v>
+        <v>0.1026701174617842</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2514253346295356</v>
+        <v>0.1297059445832755</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1644586279083136</v>
+        <v>0.1560034691915391</v>
       </c>
       <c r="O217" t="n">
-        <v>0.250059388714551</v>
+        <v>0.1294626102150657</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02917230833361083</v>
+        <v>0.009623669335282949</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2498378479928932</v>
+        <v>0.04996679995452406</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05017789740216036</v>
+        <v>0.04812470834367021</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2520894973442385</v>
+        <v>0.1326633474933378</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1073957553516848</v>
+        <v>0.102123410985408</v>
       </c>
       <c r="M218" t="n">
-        <v>0.253079448673151</v>
+        <v>0.1305592731660602</v>
       </c>
       <c r="N218" t="n">
-        <v>0.165035753615882</v>
+        <v>0.1557321936683511</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2517045162718836</v>
+        <v>0.1303143379138491</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03218370795087968</v>
+        <v>0.00927343199508858</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2514707751039579</v>
+        <v>0.04994002370940528</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05059770943512999</v>
+        <v>0.0480025617632822</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2537371411177302</v>
+        <v>0.1335304281959087</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1081397702421944</v>
+        <v>0.1020774714021336</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2547335627167663</v>
+        <v>0.1314126017488449</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1648994265475389</v>
+        <v>0.1560620758945079</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2533496438292161</v>
+        <v>0.1311660656126324</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0291924948922432</v>
+        <v>0.008928261060954672</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2531037022150226</v>
+        <v>0.04991324746428651</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05061334870159728</v>
+        <v>0.04758077412287416</v>
       </c>
       <c r="K220" t="n">
-        <v>0.255384784891222</v>
+        <v>0.1343975088984795</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1081748308586955</v>
+        <v>0.1023322066044716</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2563876767603817</v>
+        <v>0.1322659303316296</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1647495014440893</v>
+        <v>0.1569929756261005</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2549947713865487</v>
+        <v>0.1320177933114157</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03219864155352826</v>
+        <v>0.008589317919566977</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2547366293260872</v>
+        <v>0.04988647121916773</v>
       </c>
       <c r="J221" t="n">
-        <v>0.05072477052551619</v>
+        <v>0.04785930012224579</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2570324286647137</v>
+        <v>0.1352645896010503</v>
       </c>
       <c r="L221" t="n">
-        <v>0.107200840772642</v>
+        <v>0.1016875244849323</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2580417908039971</v>
+        <v>0.1331192589144143</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1640858330463386</v>
+        <v>0.1564247526192199</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2566398989438813</v>
+        <v>0.132869521010199</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03220212033056168</v>
+        <v>0.008257763957611547</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2563695564371519</v>
+        <v>0.04985969497404896</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05033193023084065</v>
+        <v>0.04793809446119683</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2586800724382055</v>
+        <v>0.1361316703036212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1074177035554875</v>
+        <v>0.1016433329360261</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2596959048476125</v>
+        <v>0.133972587497199</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1647082760950916</v>
+        <v>0.1558572666299571</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2582850265012138</v>
+        <v>0.1337212487089824</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03020106542806023</v>
+        <v>0.007934760561774203</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2580024835482165</v>
+        <v>0.04983291872893018</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05023478314152463</v>
+        <v>0.047517111839527</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2603277162116973</v>
+        <v>0.136998751006192</v>
       </c>
       <c r="L223" t="n">
-        <v>0.108225322778686</v>
+        <v>0.1018995398502635</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2613500188912278</v>
+        <v>0.1348259160799837</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1644166853311535</v>
+        <v>0.156590377414403</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2599301540585464</v>
+        <v>0.1345729764077657</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03014247098067511</v>
+        <v>0.007621469118740759</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2596354106592813</v>
+        <v>0.04980614248381141</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05038724275814786</v>
+        <v>0.04799630695703601</v>
       </c>
       <c r="K224" t="n">
-        <v>0.261975359985189</v>
+        <v>0.1378658317087628</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1075582189366955</v>
+        <v>0.101856053120155</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2630041329348431</v>
+        <v>0.1356792446627684</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1655383168165935</v>
+        <v>0.1555239447286486</v>
       </c>
       <c r="O224" t="n">
-        <v>0.261575281615879</v>
+        <v>0.135424704106549</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02900830944822314</v>
+        <v>0.007319051015197246</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2612683377703459</v>
+        <v>0.04977936623869263</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05001517649949537</v>
+        <v>0.04757563451352358</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2636230037586808</v>
+        <v>0.1387329124113336</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1073297042688373</v>
+        <v>0.1014127806382108</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2646582469784585</v>
+        <v>0.1365325732455531</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1643537718338535</v>
+        <v>0.1559578283287847</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2632204091732115</v>
+        <v>0.1362764318053324</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02980718624900815</v>
+        <v>0.007028667637829437</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2629012648814106</v>
+        <v>0.04975258999357385</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05013085237642788</v>
+        <v>0.04775504920878942</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2652706475321725</v>
+        <v>0.1395999931139045</v>
       </c>
       <c r="L226" t="n">
-        <v>0.106355254683349</v>
+        <v>0.1016696302969416</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2663123610220738</v>
+        <v>0.1373859018283378</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1632063758153198</v>
+        <v>0.1551918879709025</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2648655367305441</v>
+        <v>0.1371281595041157</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02854770680133394</v>
+        <v>0.006751480373323349</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2645341919924752</v>
+        <v>0.04972581374845508</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0496481978506545</v>
+        <v>0.0476345057426333</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2669182913056643</v>
+        <v>0.1404670738164753</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1057649311414112</v>
+        <v>0.1017265099888575</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2679664750656892</v>
+        <v>0.1382392304111225</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1615414123537484</v>
+        <v>0.155625983411093</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2665106642878767</v>
+        <v>0.137979887202899</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03023847652350434</v>
+        <v>0.00648865060836476</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2661671191035399</v>
+        <v>0.0496990375033363</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04908114038388438</v>
+        <v>0.04781395881485485</v>
       </c>
       <c r="K228" t="n">
-        <v>0.268565935079156</v>
+        <v>0.1413341545190462</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1053887946042045</v>
+        <v>0.101883327606469</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2696205891093046</v>
+        <v>0.1390925589939073</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1603041650418952</v>
+        <v>0.154859974405447</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2681557918452093</v>
+        <v>0.1388316149016823</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02988810083382314</v>
+        <v>0.006241339729639674</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2678000462146045</v>
+        <v>0.04967226125821753</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04834360743782658</v>
+        <v>0.04779336312525387</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2702135788526478</v>
+        <v>0.142201235221617</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1034569060329096</v>
+        <v>0.1019399910422868</v>
       </c>
       <c r="M229" t="n">
-        <v>0.27127470315292</v>
+        <v>0.139945887576692</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1581399174725162</v>
+        <v>0.1553937207100555</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2698009194025419</v>
+        <v>0.1396833426004656</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02950518515059417</v>
+        <v>0.006010709123833932</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2694329733256692</v>
+        <v>0.04964548501309875</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0480495264741902</v>
+        <v>0.04757267337363005</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2718612226261395</v>
+        <v>0.1430683159241878</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1030993263887071</v>
+        <v>0.1016964081888209</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2729288171965353</v>
+        <v>0.1407992161594767</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1559939532383674</v>
+        <v>0.1559270820810096</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2714460469598745</v>
+        <v>0.140535070299249</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02709833489212123</v>
+        <v>0.005797920177633385</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2710659004367338</v>
+        <v>0.04961870876797997</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04751282495468437</v>
+        <v>0.04765184425978311</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2735088663996313</v>
+        <v>0.1439353966267587</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1013461166327776</v>
+        <v>0.1011524869385821</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2745829312401507</v>
+        <v>0.1416525447422614</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1545115559322047</v>
+        <v>0.1550599182744002</v>
       </c>
       <c r="O231" t="n">
-        <v>0.273091174517207</v>
+        <v>0.1413867979980323</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02767615547670815</v>
+        <v>0.005604134277724007</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2726988275477985</v>
+        <v>0.0495919325228612</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04674743034101821</v>
+        <v>0.04733083048351278</v>
       </c>
       <c r="K232" t="n">
-        <v>0.275156510173123</v>
+        <v>0.1448024773293295</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09982733772630178</v>
+        <v>0.1015081351840806</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2762370452837661</v>
+        <v>0.1425058733250461</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1525380091467841</v>
+        <v>0.1555920890463183</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2747363020745396</v>
+        <v>0.1422385256968156</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02824725232265873</v>
+        <v>0.005430512810791634</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2743317546588632</v>
+        <v>0.04956515627774242</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04616727009490079</v>
+        <v>0.04740958676706047</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2768041539466148</v>
+        <v>0.1456695580319003</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09877305063046035</v>
+        <v>0.1018633869297614</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2778911593273814</v>
+        <v>0.1433592019078308</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1503185964748615</v>
+        <v>0.1546236943259505</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2763814296318721</v>
+        <v>0.1430902533955989</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02882023084827676</v>
+        <v>0.005278217163522211</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2759646817699278</v>
+        <v>0.04953838003262365</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04508627167804125</v>
+        <v>0.04758831169601019</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2784517977201066</v>
+        <v>0.1465366387344712</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09651331630643381</v>
+        <v>0.1010189164109382</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2795452733709968</v>
+        <v>0.1442125304906155</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1481986015091928</v>
+        <v>0.1549557627509529</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2780265571892047</v>
+        <v>0.1439419810943823</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0274036964718661</v>
+        <v>0.00514840872260159</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2775976088809925</v>
+        <v>0.04951160378750487</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04451836255214865</v>
+        <v>0.04736722763503637</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2800994414935983</v>
+        <v>0.147403719437042</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09577819571540289</v>
+        <v>0.1016748443904697</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2811993874146122</v>
+        <v>0.1450658590734002</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1455233078425341</v>
+        <v>0.1544884397607797</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2796716847465373</v>
+        <v>0.1447937087931656</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02700625461173053</v>
+        <v>0.005042248874715702</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2792305359920572</v>
+        <v>0.04948482754238609</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04377747017893217</v>
+        <v>0.04764633851533659</v>
       </c>
       <c r="K236" t="n">
-        <v>0.28174708526709</v>
+        <v>0.1482708001396128</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09359774981854815</v>
+        <v>0.101731178861538</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2828535014582276</v>
+        <v>0.1459191876561849</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1445379990676413</v>
+        <v>0.1553217375259405</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2813168123038698</v>
+        <v>0.1456454364919489</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02663651068617386</v>
+        <v>0.004960899006550411</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2808634631031218</v>
+        <v>0.04945805129726732</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04327752202010085</v>
+        <v>0.04752564826810853</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2833947290405818</v>
+        <v>0.1491378808421837</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09320203957705034</v>
+        <v>0.1010879278173251</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2845076155018429</v>
+        <v>0.1467725162389696</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1421879587772703</v>
+        <v>0.1552556682169449</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2829619398612024</v>
+        <v>0.1464971641907323</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02629632115703979</v>
+        <v>0.004905520504791629</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2824963902141865</v>
+        <v>0.04943127505214854</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04262890017409258</v>
+        <v>0.04770516082454983</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2850423728140736</v>
+        <v>0.1500049615447545</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09161760971510227</v>
+        <v>0.1016450992510129</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2861617295454583</v>
+        <v>0.1476258448217543</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1405038320495824</v>
+        <v>0.1551902440043026</v>
       </c>
       <c r="O238" t="n">
-        <v>0.284607067418535</v>
+        <v>0.1473488918895156</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02395873714224776</v>
+        <v>0.004877274756125247</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2841293173252512</v>
+        <v>0.04940449880702977</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04219271717747543</v>
+        <v>0.04758488011585811</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2866900165875653</v>
+        <v>0.1508720422473254</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09056978705393173</v>
+        <v>0.1013027011557834</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2878158435890736</v>
+        <v>0.148479173404539</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1387548973131421</v>
+        <v>0.1554254770585231</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2862521949758676</v>
+        <v>0.1482006195882989</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02661987006699795</v>
+        <v>0.004873690671161751</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2857622444363158</v>
+        <v>0.04937772256191099</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04195448352380723</v>
+        <v>0.04736481007323101</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2883376603610571</v>
+        <v>0.1517391229498962</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08971756254275751</v>
+        <v>0.1011607415248186</v>
       </c>
       <c r="M240" t="n">
-        <v>0.289469957632689</v>
+        <v>0.1493325019873237</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1372992807934303</v>
+        <v>0.1553613795501161</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2878973225332001</v>
+        <v>0.1490523472870822</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02527969954473531</v>
+        <v>0.004873718585300106</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2873951715473804</v>
+        <v>0.04935094631679221</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04101416621841476</v>
+        <v>0.04744495462786616</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2899853041345488</v>
+        <v>0.152606203652467</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08816086496604755</v>
+        <v>0.1016192283513006</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2911240716763044</v>
+        <v>0.1501858305701085</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1350368752119362</v>
+        <v>0.1555979636495913</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2895424500905327</v>
+        <v>0.1499040749858656</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02293820518890469</v>
+        <v>0.004873823800129316</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2890280986584451</v>
+        <v>0.04932417007167343</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04047173226662473</v>
+        <v>0.0474253177109612</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2916329479080406</v>
+        <v>0.1534732843550378</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0871996231082702</v>
+        <v>0.1007781696284113</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2927781857199198</v>
+        <v>0.1510391591528931</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1326675732901497</v>
+        <v>0.1555352415274581</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2911875776478652</v>
+        <v>0.1507558026846489</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02459536661295108</v>
+        <v>0.00487405784944326</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2906610257695098</v>
+        <v>0.04929739382655466</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0399271486737639</v>
+        <v>0.04710590325371379</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2932805916815323</v>
+        <v>0.1543403650576087</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08613376575389384</v>
+        <v>0.1012375733493327</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2944322997635351</v>
+        <v>0.1518924877356778</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1314912677495599</v>
+        <v>0.1543732253542264</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2928327052051978</v>
+        <v>0.1516075303834322</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02525116343031935</v>
+        <v>0.004874472267035836</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2922939528805745</v>
+        <v>0.04927061758143589</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03948038244515897</v>
+        <v>0.04718671518732154</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2949282354550241</v>
+        <v>0.1552074457601795</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08426322168738623</v>
+        <v>0.1008974475072469</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2960864138071505</v>
+        <v>0.1527458163184626</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1301078513116565</v>
+        <v>0.1547119273004057</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2944778327625304</v>
+        <v>0.1524592580822156</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02490557525445446</v>
+        <v>0.004875118586700943</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2939268799916391</v>
+        <v>0.04924384133631711</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03923140058613669</v>
+        <v>0.04756775744298208</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2965758792285159</v>
+        <v>0.1560745264627504</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08308791969321602</v>
+        <v>0.1009578000953358</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2977405278507658</v>
+        <v>0.1535991449012473</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1268172166979288</v>
+        <v>0.1543513595365056</v>
       </c>
       <c r="O245" t="n">
-        <v>0.296122960319863</v>
+        <v>0.1533109857809989</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0245585816988013</v>
+        <v>0.004876048342232479</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2955598071027038</v>
+        <v>0.04921706509119833</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03838017010202378</v>
+        <v>0.04754903395189307</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2982235230020076</v>
+        <v>0.1569416071653212</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08230778855585105</v>
+        <v>0.1004186391067814</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2993946418943812</v>
+        <v>0.154452473484032</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1259192566298666</v>
+        <v>0.1543915342330359</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2977680878771956</v>
+        <v>0.1541627134797822</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02221016237680482</v>
+        <v>0.004877313067424331</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2971927342137684</v>
+        <v>0.04919028884607955</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03822665799814701</v>
+        <v>0.04723054864525213</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2998711667754994</v>
+        <v>0.157808687867892</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0811227570597598</v>
+        <v>0.1009799725347657</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3010487559379966</v>
+        <v>0.1553058020668167</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1234138638289591</v>
+        <v>0.153932463560506</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2994132154345281</v>
+        <v>0.1550144411785655</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02186029690190989</v>
+        <v>0.004878964296070404</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2988256613248331</v>
+        <v>0.04916351260096078</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03767083127983305</v>
+        <v>0.04751230545425691</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3015188105489911</v>
+        <v>0.1586757685704629</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07943275398941024</v>
+        <v>0.1008418083724707</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3027028699816119</v>
+        <v>0.1561591306496014</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1221009310166959</v>
+        <v>0.1550741596894256</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3010583429918607</v>
+        <v>0.1558661688773489</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02050896488756145</v>
+        <v>0.004881053561964596</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3004585884358977</v>
+        <v>0.049136736355842</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03681265695240868</v>
+        <v>0.04739430831010503</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3031664543224829</v>
+        <v>0.1595428492730337</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07893770812927073</v>
+        <v>0.1010041546130784</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3043569840252273</v>
+        <v>0.1570124592323861</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1199803509145665</v>
+        <v>0.1546166347903045</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3027034705491933</v>
+        <v>0.1567178965761322</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02115614594720445</v>
+        <v>0.004883632398900786</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3020915155469625</v>
+        <v>0.04910996011072323</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03635210202120062</v>
+        <v>0.04737656114399415</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3048140980959746</v>
+        <v>0.1604099299756045</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07753754826380935</v>
+        <v>0.1003670192497709</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3060110980688427</v>
+        <v>0.1578657878151708</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1187520162440604</v>
+        <v>0.154159901033652</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3043485981065259</v>
+        <v>0.1575696242749155</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01980181969428379</v>
+        <v>0.00488675234067288</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3037244426580271</v>
+        <v>0.04908318386560445</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03568913349153559</v>
+        <v>0.04715906788712189</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3064617418694664</v>
+        <v>0.1612770106781754</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07673220317749443</v>
+        <v>0.10043041027573</v>
       </c>
       <c r="M251" t="n">
-        <v>0.307665212112458</v>
+        <v>0.1587191163979555</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1159158197266671</v>
+        <v>0.1535039705899781</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3059937256638584</v>
+        <v>0.1584213519736989</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01944596574224437</v>
+        <v>0.00489046492107479</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3053573697690917</v>
+        <v>0.04905640762048567</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03502371836874033</v>
+        <v>0.0469418324706859</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3081093856429581</v>
+        <v>0.1621440913807462</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07532160165479401</v>
+        <v>0.1004943356841379</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3093193261560734</v>
+        <v>0.1595724449807402</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1144716540838759</v>
+        <v>0.1547488556297921</v>
       </c>
       <c r="O252" t="n">
-        <v>0.307638853221191</v>
+        <v>0.1592730796724822</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01908856370453114</v>
+        <v>0.004894821673900381</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3069902968801564</v>
+        <v>0.0490296313753669</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03485582365814159</v>
+        <v>0.04722485882588379</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3097570294164499</v>
+        <v>0.163011172083317</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0739056724801764</v>
+        <v>0.1002588034681764</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3109734401996888</v>
+        <v>0.1604257735635249</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1127194120371766</v>
+        <v>0.1532945683236039</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3092839807785235</v>
+        <v>0.1601248073712655</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.020729593194589</v>
+        <v>0.004899874132943571</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3086232239912211</v>
+        <v>0.04900285513024812</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0337854163650661</v>
+        <v>0.04700815088391321</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3114046731899416</v>
+        <v>0.1638782527858879</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07288434443810979</v>
+        <v>0.1001238216210277</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3126275542433041</v>
+        <v>0.1612791021463096</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1111589863080584</v>
+        <v>0.154041120841923</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3109291083358561</v>
+        <v>0.1609765350700488</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02036903382586288</v>
+        <v>0.00490567383199824</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3102561511022857</v>
+        <v>0.04897607888512935</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03351246349484054</v>
+        <v>0.0473917125759718</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3130523169634334</v>
+        <v>0.1647453334884587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07155754631306233</v>
+        <v>0.1009893981358736</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3142816682869195</v>
+        <v>0.1621324307290943</v>
       </c>
       <c r="N255" t="n">
-        <v>0.108790269618011</v>
+        <v>0.1534885253552589</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3125742358931887</v>
+        <v>0.1618282627688321</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02000686521179768</v>
+        <v>0.004912272304858301</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3118890782133504</v>
+        <v>0.04894930264001057</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0328369320527917</v>
+        <v>0.0468755478332572</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3146999607369252</v>
+        <v>0.1656124141910296</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07052520688950223</v>
+        <v>0.1010555410058962</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3159357823305349</v>
+        <v>0.162985759311879</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1082131546885237</v>
+        <v>0.1544367940341214</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3142193634505213</v>
+        <v>0.1626799904676155</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01964306696583833</v>
+        <v>0.004919721085317637</v>
       </c>
       <c r="G257" t="n">
-        <v>0.313522005324415</v>
+        <v>0.04892252639489179</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03215878904424629</v>
+        <v>0.04735966058696706</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3163476045104169</v>
+        <v>0.1664794948936004</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06878725495189777</v>
+        <v>0.1008222582242776</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3175898963741502</v>
+        <v>0.1638390878946638</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1054275342410861</v>
+        <v>0.1531859390490202</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3158644910078539</v>
+        <v>0.1635317181663988</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01727761870142976</v>
+        <v>0.004928071707170141</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3151549324354797</v>
+        <v>0.04889575014977302</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03157800147453106</v>
+        <v>0.04734405476829896</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3179952482839086</v>
+        <v>0.1673465755961712</v>
       </c>
       <c r="L258" t="n">
-        <v>0.067543619284717</v>
+        <v>0.1009895577841995</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3192440104177656</v>
+        <v>0.1646924164774485</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1030333009971877</v>
+        <v>0.1543359725704647</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3175096185651864</v>
+        <v>0.1643834458651821</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01791050003201689</v>
+        <v>0.004937375704209719</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3167878595465444</v>
+        <v>0.04886897390465424</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03109453634897272</v>
+        <v>0.0468287343084506</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3196428920574004</v>
+        <v>0.1682136562987421</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06669422867242827</v>
+        <v>0.1007574476788442</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3208981244613809</v>
+        <v>0.1655457450602332</v>
       </c>
       <c r="N259" t="n">
-        <v>0.102230347678318</v>
+        <v>0.1540869067689647</v>
       </c>
       <c r="O259" t="n">
-        <v>0.319154746122519</v>
+        <v>0.1652351735639655</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01654169057104463</v>
+        <v>0.004947684610230263</v>
       </c>
       <c r="G260" t="n">
-        <v>0.318420786657609</v>
+        <v>0.04884219765953547</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03060836067289799</v>
+        <v>0.04721370313861961</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3212905358308922</v>
+        <v>0.1690807370013129</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06533901189949959</v>
+        <v>0.1004259359013936</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3225522385049963</v>
+        <v>0.1663990736430179</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1000185670059665</v>
+        <v>0.1543387538150299</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3207998736798516</v>
+        <v>0.1660869012627488</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01717116993195788</v>
+        <v>0.004959049959025665</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3200537137686737</v>
+        <v>0.04881542141441669</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02981944145163366</v>
+        <v>0.04729896519000358</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3229381796043839</v>
+        <v>0.1699478177038837</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06447789775039942</v>
+        <v>0.1002950304450297</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3242063525486117</v>
+        <v>0.1672524022258026</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09719785170162248</v>
+        <v>0.1537915258791697</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3224450012371842</v>
+        <v>0.1669386289615321</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01579891772820161</v>
+        <v>0.004971523284389823</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3216866408797384</v>
+        <v>0.04878864516929791</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02942774569050641</v>
+        <v>0.04708452439380018</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3245858233778757</v>
+        <v>0.1708148984064546</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06271081500959572</v>
+        <v>0.0998647393029343</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3258604665922271</v>
+        <v>0.1681057308085873</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09546809448677573</v>
+        <v>0.1534452351318938</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3240901287945167</v>
+        <v>0.1677903566603154</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0164249135732207</v>
+        <v>0.004985156120116636</v>
       </c>
       <c r="G263" t="n">
-        <v>0.323319567990803</v>
+        <v>0.04876186892417914</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02903324039484298</v>
+        <v>0.04707038468120704</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3262334671513674</v>
+        <v>0.1716819791090254</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06143769246155675</v>
+        <v>0.1006350704682897</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3275145806358424</v>
+        <v>0.168959059391372</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0934291880829155</v>
+        <v>0.1534998937437119</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3257352563518493</v>
+        <v>0.1686420843590988</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01804913708046006</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3249524951018677</v>
+        <v>0.04873509267906036</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02833589256997013</v>
+        <v>0.04725654998342181</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3278811109248592</v>
+        <v>0.1725490598115962</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0599584588907508</v>
+        <v>0.1006060319342778</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3291686946794578</v>
+        <v>0.1698123879741567</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09138102521153141</v>
+        <v>0.1538555138851336</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3273803839091819</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1694938120578821</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04872193478432352</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005381318612919399</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04872220331278754</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005759096366439204</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04872247184125156</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006133237274064646</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04872274036971557</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006503645349333703</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04872300889817959</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006870224605751929</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0487232774266436</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007232879056856954</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04872354595510762</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007591512716154679</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04872381448357164</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007946029597182394</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04872408301203566</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.008296333713446354</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04872435154049968</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008642329078483467</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0487246200689637</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008983919705800369</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04872488859742771</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009321009608933624</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04872515712589173</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009653502801390212</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04872542565435575</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009981303296706295</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04872569418281977</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0103043151083893</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04872596271128378</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01062244224997494</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0487262312397478</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01093558873497107</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04872649976821181</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01124365857690637</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04872676829667583</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01154655578930899</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04872703682513985</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0118441843856875</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04872730535360387</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01213644837957651</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04872757388206789</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01242325178448497</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0487278424105319</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01270449861394705</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04872811093899592</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01298009288147219</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04872837946745993</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01325033054538053</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04872864799592395</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01351746728790077</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04872891652438797</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01378179906735272</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04872918505285199</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01404322989724657</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.048729453581316</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01430166379111537</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04872972210978002</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01455700476246954</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04872999063824403</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01480915682484189</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04873025916670806</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01505802399174309</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04873052769517208</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01530351027670041</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04873079622363609</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01554551969324073</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04873106475210011</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01578395625487516</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04873133328056412</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01601872397513582</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04873160180902814</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01624972686753414</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04873187033749216</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01647686894560186</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04873213886595618</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01670005422285078</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04873240739442019</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01691918671281226</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04873267592288421</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0171341704289985</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04873294445134822</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01734490938494051</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04873321297981224</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01755130759415079</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04873348150827626</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01775326907016</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04873375003674028</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01795069782648106</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0487340185652043</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01814349787664422</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04873428709366832</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01833157323416276</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04873455562213233</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01851482791256657</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04873482415059635</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01869316592536934</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04873509267906036</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01869316592536934</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04872193478432352</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01888573219411812</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04874924808637033</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01907678760636374</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04877656138841715</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01926587208642921</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04880387469046395</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0194525255586376</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04883118799251076</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01963628794731203</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04885850129455758</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01981669917677547</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04888581459660438</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01999329917135109</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0489131278986512</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02016562785536182</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04894044120069801</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.02033322515313083</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04896775450274481</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.02049563098898114</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04899506780479163</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.02065238528723581</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04902238110683844</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02080302797221788</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04904969440888524</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02094709896825048</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04907700771093206</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02108413819965659</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04910432101297887</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02121368559075935</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04913163431502568</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02133528106588174</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04915894761707249</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02144846454934685</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0491862609191193</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02155277596547778</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04921357422116611</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02164775523859756</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04924088752321292</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02173294229302924</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04926820082525973</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02180787705309593</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04929551412730654</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02187209944312061</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04932282742935335</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02192514938742641</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04935014073140016</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02196656681033635</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04937745403344698</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02199734618650504</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04940476733549378</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02202591377675055</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04943208063754059</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02205367047724282</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04945939393958741</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02208058030432086</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04948670724163421</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02210660727432375</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04951402054368102</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02213171540359051</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04954133384572783</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02215586870846024</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04956864714777464</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.02217903120527197</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04959596044982145</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02220116691036472</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04962327375186826</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0222222398400776</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04965058705391508</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02224221401074964</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04967790035596189</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02226105343871988</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04970521365800869</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02227872214032735</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04973252696005551</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.02229518413191118</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04975984026210232</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02231040342981035</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04978715356414912</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02232434405036392</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04981446686619594</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02233697000991099</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04984178016824275</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02234824532479057</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04986909347028955</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02235813401134171</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04989640677233637</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0223666000859035</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04992372007438318</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02237360756481497</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04995103337642999</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02237912046441517</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0499783466784768</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02238310280104313</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05000565998052361</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02238551859103794</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05003297328257042</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.02238633185073865</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05006028658461723</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02238633185073866</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05006028658461723</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02288056832454407</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05164263108585483</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02336510483393255</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05322497558709243</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02383972286544424</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05480732008833003</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02430420390561921</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05638966458956764</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0247583294409976</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05797200909080522</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02520188095811952</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05955435359204283</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02563463994352507</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06113669809328043</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02605638788375437</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06271904259451803</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02646690626534751</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06430138709575563</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02686597657484464</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06588373159699323</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02725338029878586</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06746607609823083</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02762889892371125</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06904842059946843</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02799231393616095</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07063076510070604</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02834340682267508</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07221310960194363</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02868195906979371</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07379545410318122</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02900775216405702</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07537779860441883</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02932056759200504</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07696014310565644</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02962018684017794</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07854248760689404</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02990639139511581</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08012483210813164</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.03017896274335877</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08170717660936923</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.03043768237144693</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08328952111060683</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.03068233176592038</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08487186561184443</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.03091269241331927</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08645421011308203</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.03112854580018368</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08803655461431963</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.03132967341305373</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08961889911555723</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.03151585673846954</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09120124361679484</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.03168687726297121</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09278358811803243</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.03184251647309886</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09436593261927004</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.03198255585539259</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09594827712050763</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.03210677689639253</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09753062162174524</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.03221496108263878</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09911296612298284</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.03230688990067145</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1006953106242204</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.03238234483703065</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.102277655125458</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0324411073782565</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1038599996266956</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.03248295901088911</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1054423441279332</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03251510913431823</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1070246886291708</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03251508635732429</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1086070331304084</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03251087785807572</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.110189377631646</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.0324997662968533</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1117717221328836</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03248227595090437</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1133540666341212</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03245893109747621</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1149364111353588</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03243025601381615</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1165187556365964</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03239677497717151</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1181011001378341</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03235901226478955</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1196834446390716</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03231749215391762</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1212657891403092</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03227273892180304</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1228481336415468</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03222527684569309</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1244304781427844</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03217563020283509</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1260128226440221</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03212432327047635</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1275951671452596</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03207188032586417</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1291775116464972</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03201847206882533</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1307598561477349</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03194838737666581</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1323422006489724</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03185688716325547</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.13392454515021</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03174942484924723</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1355068896514476</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0316314538552941</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1370892341526852</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03150842760204901</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1386715786539229</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03138579951016494</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1402539231551604</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03126902300029486</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.141836267656398</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0311635514930917</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1434186121576357</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03107483840920847</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1450009566588732</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03100833716929811</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1465833011601108</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03095861960403452</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1481656456613484</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03091194028394607</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03086800157719508</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1513303346638236</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03082662873495635</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1529126791650612</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0307876470084047</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1544950236662989</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03075088164871496</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1560773681675365</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03071615790706194</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1576597126687741</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03068330103462045</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1592420571700116</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03065213628256532</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1608244016712492</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03062248890207139</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1624067461724868</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03059418414431344</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1639890906737244</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03056704726046634</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1655714351749621</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03054090350170487</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1671537796761997</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03051557811920389</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1687361241774372</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03049089636413819</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1703184686786749</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03046668348768259</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1719008131799125</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03044276474101192</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1734831576811501</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03041896537530101</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1750655021823876</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03039511064172466</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1766478466836252</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03037102579145769</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1782301911848629</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03034653607567495</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1798125356861004</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0303219785818098</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.181394880187338</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03029783148585884</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1829772246885757</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03027410997987606</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1845595691898133</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03025082922874294</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1861419136910508</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03022800439734099</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1877242581922884</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03020565065055168</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.189306602693526</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03018378315325649</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1908889471947637</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03016241707033692</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1924712916960012</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03014156756667444</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1940536361972389</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03012124980715056</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1956359806984765</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03010147895664674</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1972183251997141</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03008227018004448</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1988006697009517</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03006363864222527</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2003830142021893</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03004559950807058</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2019653587034269</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03002816794246192</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2035477032046644</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03001135911028075</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.205130047705902</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02999518817640857</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2067123922071397</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
